--- a/各家大學評分.xlsx
+++ b/各家大學評分.xlsx
@@ -92,7 +92,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="252">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="253">
   <si>
     <t>有無大一不分系</t>
   </si>
@@ -856,6 +856,10 @@
     <t>就業前景</t>
     <phoneticPr fontId="19" type="noConversion"/>
   </si>
+  <si>
+    <t>conditionVal</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -1356,8 +1360,8 @@
   <dimension ref="A1:AE1003"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="D1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="L2" sqref="L2"/>
+      <pane xSplit="2" topLeftCell="H1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="R56" sqref="R56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
@@ -1368,6 +1372,7 @@
     <col min="10" max="10" width="26.140625" customWidth="1"/>
     <col min="11" max="11" width="26.28515625" customWidth="1"/>
     <col min="12" max="12" width="19.5703125" customWidth="1"/>
+    <col min="17" max="17" width="22.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:31" ht="15.75" customHeight="1">
@@ -1413,7 +1418,9 @@
         <v>251</v>
       </c>
       <c r="P1" s="5"/>
-      <c r="Q1" s="6"/>
+      <c r="Q1" s="6" t="s">
+        <v>252</v>
+      </c>
       <c r="R1" s="6"/>
       <c r="S1" s="6"/>
       <c r="T1" s="6"/>
@@ -1477,7 +1484,10 @@
         <v>8</v>
       </c>
       <c r="P2" s="5"/>
-      <c r="Q2" s="6"/>
+      <c r="Q2" s="6" t="str">
+        <f>CONCATENATE(L2,",",M2,",",N2,",",O2)</f>
+        <v>6,10,11,8</v>
+      </c>
       <c r="R2" s="6"/>
       <c r="S2" s="6"/>
       <c r="T2" s="6"/>
@@ -1538,7 +1548,10 @@
         <v>1</v>
       </c>
       <c r="P3" s="10"/>
-      <c r="Q3" s="10"/>
+      <c r="Q3" s="6" t="str">
+        <f t="shared" ref="Q3:Q66" si="2">CONCATENATE(L3,",",M3,",",N3,",",O3)</f>
+        <v>5,7,16,1</v>
+      </c>
       <c r="R3" s="10"/>
       <c r="S3" s="10"/>
       <c r="T3" s="10"/>
@@ -1599,7 +1612,10 @@
         <v>1</v>
       </c>
       <c r="P4" s="5"/>
-      <c r="Q4" s="5"/>
+      <c r="Q4" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v>7,3,11,1</v>
+      </c>
       <c r="R4" s="5"/>
       <c r="S4" s="5"/>
       <c r="T4" s="5"/>
@@ -1660,7 +1676,10 @@
         <v>1</v>
       </c>
       <c r="P5" s="5"/>
-      <c r="Q5" s="5"/>
+      <c r="Q5" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v>3,9,26,1</v>
+      </c>
       <c r="R5" s="5"/>
       <c r="S5" s="5"/>
       <c r="T5" s="5"/>
@@ -1721,7 +1740,10 @@
         <v>1</v>
       </c>
       <c r="P6" s="5"/>
-      <c r="Q6" s="5"/>
+      <c r="Q6" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v>2,8,23,1</v>
+      </c>
       <c r="R6" s="5"/>
       <c r="S6" s="5"/>
       <c r="T6" s="5"/>
@@ -1782,7 +1804,10 @@
         <v>1</v>
       </c>
       <c r="P7" s="5"/>
-      <c r="Q7" s="5"/>
+      <c r="Q7" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v>9,7,12,1</v>
+      </c>
       <c r="R7" s="5"/>
       <c r="S7" s="5"/>
       <c r="T7" s="5"/>
@@ -1843,7 +1868,10 @@
         <v>12</v>
       </c>
       <c r="P8" s="5"/>
-      <c r="Q8" s="5"/>
+      <c r="Q8" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v>3,10,14,12</v>
+      </c>
       <c r="R8" s="5"/>
       <c r="S8" s="5"/>
       <c r="T8" s="5"/>
@@ -1904,7 +1932,10 @@
         <v>1</v>
       </c>
       <c r="P9" s="5"/>
-      <c r="Q9" s="5"/>
+      <c r="Q9" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v>6,10,21,1</v>
+      </c>
       <c r="R9" s="5"/>
       <c r="S9" s="5"/>
       <c r="T9" s="5"/>
@@ -1965,7 +1996,10 @@
         <v>1</v>
       </c>
       <c r="P10" s="5"/>
-      <c r="Q10" s="5"/>
+      <c r="Q10" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v>7,7,11,1</v>
+      </c>
       <c r="R10" s="5"/>
       <c r="S10" s="5"/>
       <c r="T10" s="5"/>
@@ -2026,7 +2060,10 @@
         <v>1</v>
       </c>
       <c r="P11" s="5"/>
-      <c r="Q11" s="5"/>
+      <c r="Q11" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v>1,7,22,1</v>
+      </c>
       <c r="R11" s="5"/>
       <c r="S11" s="5"/>
       <c r="T11" s="5"/>
@@ -2087,7 +2124,10 @@
         <v>1</v>
       </c>
       <c r="P12" s="5"/>
-      <c r="Q12" s="5"/>
+      <c r="Q12" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v>8,7,17,1</v>
+      </c>
       <c r="R12" s="5"/>
       <c r="S12" s="5"/>
       <c r="T12" s="5"/>
@@ -2148,7 +2188,10 @@
         <v>1</v>
       </c>
       <c r="P13" s="5"/>
-      <c r="Q13" s="5"/>
+      <c r="Q13" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v>7,3,10,1</v>
+      </c>
       <c r="R13" s="5"/>
       <c r="S13" s="5"/>
       <c r="T13" s="5"/>
@@ -2209,7 +2252,10 @@
         <v>1</v>
       </c>
       <c r="P14" s="5"/>
-      <c r="Q14" s="5"/>
+      <c r="Q14" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v>4,10,20,1</v>
+      </c>
       <c r="R14" s="5"/>
       <c r="S14" s="5"/>
       <c r="T14" s="5"/>
@@ -2270,7 +2316,10 @@
         <v>1</v>
       </c>
       <c r="P15" s="5"/>
-      <c r="Q15" s="5"/>
+      <c r="Q15" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v>2,7,27,1</v>
+      </c>
       <c r="R15" s="5"/>
       <c r="S15" s="5"/>
       <c r="T15" s="5"/>
@@ -2331,7 +2380,10 @@
         <v>14</v>
       </c>
       <c r="P16" s="5"/>
-      <c r="Q16" s="5"/>
+      <c r="Q16" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v>7,10,9,14</v>
+      </c>
       <c r="R16" s="5"/>
       <c r="S16" s="5"/>
       <c r="T16" s="5"/>
@@ -2392,7 +2444,10 @@
         <v>1</v>
       </c>
       <c r="P17" s="5"/>
-      <c r="Q17" s="5"/>
+      <c r="Q17" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v>7,9,10,1</v>
+      </c>
       <c r="R17" s="5"/>
       <c r="S17" s="5"/>
       <c r="T17" s="5"/>
@@ -2453,7 +2508,10 @@
         <v>1</v>
       </c>
       <c r="P18" s="5"/>
-      <c r="Q18" s="5"/>
+      <c r="Q18" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v>4,7,17,1</v>
+      </c>
       <c r="R18" s="5"/>
       <c r="S18" s="5"/>
       <c r="T18" s="5"/>
@@ -2514,7 +2572,10 @@
         <v>1</v>
       </c>
       <c r="P19" s="5"/>
-      <c r="Q19" s="5"/>
+      <c r="Q19" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v>3,7,24,1</v>
+      </c>
       <c r="R19" s="5"/>
       <c r="S19" s="5"/>
       <c r="T19" s="5"/>
@@ -2575,7 +2636,10 @@
         <v>6</v>
       </c>
       <c r="P20" s="5"/>
-      <c r="Q20" s="5"/>
+      <c r="Q20" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v>8,10,10,6</v>
+      </c>
       <c r="R20" s="5"/>
       <c r="S20" s="5"/>
       <c r="T20" s="5"/>
@@ -2636,7 +2700,10 @@
         <v>1</v>
       </c>
       <c r="P21" s="5"/>
-      <c r="Q21" s="5"/>
+      <c r="Q21" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v>9,3,12,1</v>
+      </c>
       <c r="R21" s="5"/>
       <c r="S21" s="5"/>
       <c r="T21" s="5"/>
@@ -2697,7 +2764,10 @@
         <v>1</v>
       </c>
       <c r="P22" s="5"/>
-      <c r="Q22" s="5"/>
+      <c r="Q22" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v>8,8,7,1</v>
+      </c>
       <c r="R22" s="5"/>
       <c r="S22" s="5"/>
       <c r="T22" s="5"/>
@@ -2758,7 +2828,10 @@
         <v>10</v>
       </c>
       <c r="P23" s="5"/>
-      <c r="Q23" s="5"/>
+      <c r="Q23" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v>8,9,12,10</v>
+      </c>
       <c r="R23" s="5"/>
       <c r="S23" s="5"/>
       <c r="T23" s="5"/>
@@ -2819,7 +2892,10 @@
         <v>20</v>
       </c>
       <c r="P24" s="5"/>
-      <c r="Q24" s="5"/>
+      <c r="Q24" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v>10,9,7,20</v>
+      </c>
       <c r="R24" s="5"/>
       <c r="S24" s="5"/>
       <c r="T24" s="5"/>
@@ -2880,7 +2956,10 @@
         <v>1</v>
       </c>
       <c r="P25" s="5"/>
-      <c r="Q25" s="5"/>
+      <c r="Q25" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v>7,3,14,1</v>
+      </c>
       <c r="R25" s="5"/>
       <c r="S25" s="5"/>
       <c r="T25" s="5"/>
@@ -2941,7 +3020,10 @@
         <v>18</v>
       </c>
       <c r="P26" s="5"/>
-      <c r="Q26" s="5"/>
+      <c r="Q26" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v>6,10,9,18</v>
+      </c>
       <c r="R26" s="5"/>
       <c r="S26" s="5"/>
       <c r="T26" s="5"/>
@@ -3002,7 +3084,10 @@
         <v>1</v>
       </c>
       <c r="P27" s="5"/>
-      <c r="Q27" s="5"/>
+      <c r="Q27" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v>7,7,18,1</v>
+      </c>
       <c r="R27" s="5"/>
       <c r="S27" s="5"/>
       <c r="T27" s="5"/>
@@ -3063,7 +3148,10 @@
         <v>1</v>
       </c>
       <c r="P28" s="5"/>
-      <c r="Q28" s="5"/>
+      <c r="Q28" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v>7,3,9,1</v>
+      </c>
       <c r="R28" s="5"/>
       <c r="S28" s="5"/>
       <c r="T28" s="5"/>
@@ -3124,7 +3212,10 @@
         <v>1</v>
       </c>
       <c r="P29" s="5"/>
-      <c r="Q29" s="5"/>
+      <c r="Q29" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v>9,7,7,1</v>
+      </c>
       <c r="R29" s="5"/>
       <c r="S29" s="5"/>
       <c r="T29" s="5"/>
@@ -3185,7 +3276,10 @@
         <v>4</v>
       </c>
       <c r="P30" s="5"/>
-      <c r="Q30" s="5"/>
+      <c r="Q30" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v>10,10,7,4</v>
+      </c>
       <c r="R30" s="5"/>
       <c r="S30" s="5"/>
       <c r="T30" s="5"/>
@@ -3246,7 +3340,10 @@
         <v>22</v>
       </c>
       <c r="P31" s="5"/>
-      <c r="Q31" s="5"/>
+      <c r="Q31" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v>10,10,17,22</v>
+      </c>
       <c r="R31" s="5"/>
       <c r="S31" s="5"/>
       <c r="T31" s="5"/>
@@ -3307,7 +3404,10 @@
         <v>16</v>
       </c>
       <c r="P32" s="5"/>
-      <c r="Q32" s="5"/>
+      <c r="Q32" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v>9,9,7,16</v>
+      </c>
       <c r="R32" s="5"/>
       <c r="S32" s="5"/>
       <c r="T32" s="5"/>
@@ -3368,7 +3468,10 @@
         <v>1</v>
       </c>
       <c r="P33" s="5"/>
-      <c r="Q33" s="5"/>
+      <c r="Q33" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v>3,7,15,1</v>
+      </c>
       <c r="R33" s="5"/>
       <c r="S33" s="5"/>
       <c r="T33" s="5"/>
@@ -3429,7 +3532,10 @@
         <v>1</v>
       </c>
       <c r="P34" s="5"/>
-      <c r="Q34" s="5"/>
+      <c r="Q34" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v>8,7,7,1</v>
+      </c>
       <c r="R34" s="5"/>
       <c r="S34" s="5"/>
       <c r="T34" s="5"/>
@@ -3490,7 +3596,10 @@
         <v>1</v>
       </c>
       <c r="P35" s="5"/>
-      <c r="Q35" s="5"/>
+      <c r="Q35" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v>6,9,13,1</v>
+      </c>
       <c r="R35" s="5"/>
       <c r="S35" s="5"/>
       <c r="T35" s="5"/>
@@ -3526,7 +3635,7 @@
       </c>
       <c r="O36" s="5"/>
       <c r="P36" s="5"/>
-      <c r="Q36" s="5"/>
+      <c r="Q36" s="6"/>
       <c r="R36" s="5"/>
       <c r="S36" s="5"/>
       <c r="T36" s="5"/>
@@ -3589,7 +3698,10 @@
         <v>1</v>
       </c>
       <c r="P37" s="5"/>
-      <c r="Q37" s="5"/>
+      <c r="Q37" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v>9,7,7,1</v>
+      </c>
       <c r="R37" s="5"/>
       <c r="S37" s="5"/>
       <c r="T37" s="5"/>
@@ -3650,7 +3762,10 @@
         <v>1</v>
       </c>
       <c r="P38" s="5"/>
-      <c r="Q38" s="5"/>
+      <c r="Q38" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v>8,3,11,1</v>
+      </c>
       <c r="R38" s="5"/>
       <c r="S38" s="5"/>
       <c r="T38" s="5"/>
@@ -3686,7 +3801,7 @@
       </c>
       <c r="O39" s="5"/>
       <c r="P39" s="5"/>
-      <c r="Q39" s="5"/>
+      <c r="Q39" s="6"/>
       <c r="R39" s="5"/>
       <c r="S39" s="5"/>
       <c r="T39" s="5"/>
@@ -3749,7 +3864,10 @@
         <v>1</v>
       </c>
       <c r="P40" s="5"/>
-      <c r="Q40" s="5"/>
+      <c r="Q40" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v>9,7,2,1</v>
+      </c>
       <c r="R40" s="5"/>
       <c r="S40" s="5"/>
       <c r="T40" s="5"/>
@@ -3810,7 +3928,10 @@
         <v>1</v>
       </c>
       <c r="P41" s="5"/>
-      <c r="Q41" s="5"/>
+      <c r="Q41" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v>4,7,4,1</v>
+      </c>
       <c r="R41" s="5"/>
       <c r="S41" s="5"/>
       <c r="T41" s="5"/>
@@ -3871,7 +3992,10 @@
         <v>1</v>
       </c>
       <c r="P42" s="5"/>
-      <c r="Q42" s="5"/>
+      <c r="Q42" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v>3,7,5,1</v>
+      </c>
       <c r="R42" s="5"/>
       <c r="S42" s="5"/>
       <c r="T42" s="5"/>
@@ -3932,7 +4056,10 @@
         <v>1</v>
       </c>
       <c r="P43" s="5"/>
-      <c r="Q43" s="5"/>
+      <c r="Q43" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v>6,9,12,1</v>
+      </c>
       <c r="R43" s="5"/>
       <c r="S43" s="5"/>
       <c r="T43" s="5"/>
@@ -3993,7 +4120,10 @@
         <v>1</v>
       </c>
       <c r="P44" s="5"/>
-      <c r="Q44" s="5"/>
+      <c r="Q44" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v>2,3,2,1</v>
+      </c>
       <c r="R44" s="5"/>
       <c r="S44" s="5"/>
       <c r="T44" s="5"/>
@@ -4054,7 +4184,10 @@
         <v>1</v>
       </c>
       <c r="P45" s="5"/>
-      <c r="Q45" s="5"/>
+      <c r="Q45" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v>1,7,6,1</v>
+      </c>
       <c r="R45" s="5"/>
       <c r="S45" s="5"/>
       <c r="T45" s="5"/>
@@ -4115,7 +4248,10 @@
         <v>1</v>
       </c>
       <c r="P46" s="5"/>
-      <c r="Q46" s="5"/>
+      <c r="Q46" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v>1,3,15,1</v>
+      </c>
       <c r="R46" s="5"/>
       <c r="S46" s="5"/>
       <c r="T46" s="5"/>
@@ -4176,7 +4312,10 @@
         <v>1</v>
       </c>
       <c r="P47" s="5"/>
-      <c r="Q47" s="5"/>
+      <c r="Q47" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v>2,9,21,1</v>
+      </c>
       <c r="R47" s="5"/>
       <c r="S47" s="5"/>
       <c r="T47" s="5"/>
@@ -4237,7 +4376,10 @@
         <v>6</v>
       </c>
       <c r="P48" s="5"/>
-      <c r="Q48" s="5"/>
+      <c r="Q48" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v>7,9,9,6</v>
+      </c>
       <c r="R48" s="5"/>
       <c r="S48" s="5"/>
       <c r="T48" s="5"/>
@@ -4298,7 +4440,10 @@
         <v>1</v>
       </c>
       <c r="P49" s="5"/>
-      <c r="Q49" s="5"/>
+      <c r="Q49" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v>1,7,21,1</v>
+      </c>
       <c r="R49" s="5"/>
       <c r="S49" s="5"/>
       <c r="T49" s="5"/>
@@ -4359,7 +4504,10 @@
         <v>1</v>
       </c>
       <c r="P50" s="5"/>
-      <c r="Q50" s="5"/>
+      <c r="Q50" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v>1,7,15,1</v>
+      </c>
       <c r="R50" s="5"/>
       <c r="S50" s="5"/>
       <c r="T50" s="5"/>
@@ -4420,7 +4568,10 @@
         <v>20</v>
       </c>
       <c r="P51" s="5"/>
-      <c r="Q51" s="5"/>
+      <c r="Q51" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v>8,7,7,20</v>
+      </c>
       <c r="R51" s="5"/>
       <c r="S51" s="5"/>
       <c r="T51" s="5"/>
@@ -4481,7 +4632,10 @@
         <v>1</v>
       </c>
       <c r="P52" s="5"/>
-      <c r="Q52" s="5"/>
+      <c r="Q52" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v>8,7,2,1</v>
+      </c>
       <c r="R52" s="5"/>
       <c r="S52" s="5"/>
       <c r="T52" s="5"/>
@@ -4542,7 +4696,10 @@
         <v>1</v>
       </c>
       <c r="P53" s="5"/>
-      <c r="Q53" s="5"/>
+      <c r="Q53" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v>1,3,12,1</v>
+      </c>
       <c r="R53" s="5"/>
       <c r="S53" s="5"/>
       <c r="T53" s="5"/>
@@ -4603,7 +4760,10 @@
         <v>1</v>
       </c>
       <c r="P54" s="5"/>
-      <c r="Q54" s="5"/>
+      <c r="Q54" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v>7,7,5,1</v>
+      </c>
       <c r="R54" s="5"/>
       <c r="S54" s="5"/>
       <c r="T54" s="5"/>
@@ -4664,7 +4824,10 @@
         <v>12</v>
       </c>
       <c r="P55" s="5"/>
-      <c r="Q55" s="5"/>
+      <c r="Q55" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v>8,7,2,12</v>
+      </c>
       <c r="R55" s="5"/>
       <c r="S55" s="5"/>
       <c r="T55" s="5"/>
@@ -4725,7 +4888,10 @@
         <v>16</v>
       </c>
       <c r="P56" s="5"/>
-      <c r="Q56" s="5"/>
+      <c r="Q56" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v>6,9,2,16</v>
+      </c>
       <c r="R56" s="5"/>
       <c r="S56" s="5"/>
       <c r="T56" s="5"/>
@@ -4786,7 +4952,10 @@
         <v>1</v>
       </c>
       <c r="P57" s="5"/>
-      <c r="Q57" s="5"/>
+      <c r="Q57" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v>4,3,7,1</v>
+      </c>
       <c r="R57" s="5"/>
       <c r="S57" s="5"/>
       <c r="T57" s="5"/>
@@ -4847,7 +5016,10 @@
         <v>14</v>
       </c>
       <c r="P58" s="5"/>
-      <c r="Q58" s="5"/>
+      <c r="Q58" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v>5,9,5,14</v>
+      </c>
       <c r="R58" s="5"/>
       <c r="S58" s="5"/>
       <c r="T58" s="5"/>
@@ -4908,7 +5080,10 @@
         <v>1</v>
       </c>
       <c r="P59" s="5"/>
-      <c r="Q59" s="5"/>
+      <c r="Q59" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v>8,8,2,1</v>
+      </c>
       <c r="R59" s="5"/>
       <c r="S59" s="5"/>
       <c r="T59" s="5"/>
@@ -4969,7 +5144,10 @@
         <v>1</v>
       </c>
       <c r="P60" s="5"/>
-      <c r="Q60" s="5"/>
+      <c r="Q60" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v>4,9,5,1</v>
+      </c>
       <c r="R60" s="5"/>
       <c r="S60" s="5"/>
       <c r="T60" s="5"/>
@@ -5030,7 +5208,10 @@
         <v>18</v>
       </c>
       <c r="P61" s="5"/>
-      <c r="Q61" s="5"/>
+      <c r="Q61" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v>7,9,9,18</v>
+      </c>
       <c r="R61" s="5"/>
       <c r="S61" s="5"/>
       <c r="T61" s="5"/>
@@ -5091,7 +5272,10 @@
         <v>1</v>
       </c>
       <c r="P62" s="5"/>
-      <c r="Q62" s="5"/>
+      <c r="Q62" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v>2,3,12,1</v>
+      </c>
       <c r="R62" s="5"/>
       <c r="S62" s="5"/>
       <c r="T62" s="5"/>
@@ -5152,7 +5336,10 @@
         <v>10</v>
       </c>
       <c r="P63" s="5"/>
-      <c r="Q63" s="5"/>
+      <c r="Q63" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v>1,9,5,10</v>
+      </c>
       <c r="R63" s="5"/>
       <c r="S63" s="5"/>
       <c r="T63" s="5"/>
@@ -5213,7 +5400,10 @@
         <v>1</v>
       </c>
       <c r="P64" s="5"/>
-      <c r="Q64" s="5"/>
+      <c r="Q64" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v>1,7,7,1</v>
+      </c>
       <c r="R64" s="5"/>
       <c r="S64" s="5"/>
       <c r="T64" s="5"/>
@@ -5274,7 +5464,10 @@
         <v>1</v>
       </c>
       <c r="P65" s="5"/>
-      <c r="Q65" s="5"/>
+      <c r="Q65" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v>1,7,7,1</v>
+      </c>
       <c r="R65" s="5"/>
       <c r="S65" s="5"/>
       <c r="T65" s="5"/>
@@ -5335,7 +5528,10 @@
         <v>22</v>
       </c>
       <c r="P66" s="5"/>
-      <c r="Q66" s="5"/>
+      <c r="Q66" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v>9,9,7,22</v>
+      </c>
       <c r="R66" s="5"/>
       <c r="S66" s="5"/>
       <c r="T66" s="5"/>
@@ -5385,18 +5581,21 @@
         <v>3</v>
       </c>
       <c r="M67" s="5">
-        <f t="shared" ref="M67:M78" si="2">SUM(C67:F67)</f>
+        <f t="shared" ref="M67:M78" si="3">SUM(C67:F67)</f>
         <v>7</v>
       </c>
       <c r="N67" s="5">
-        <f t="shared" ref="N67:N78" si="3">SUM(G67:H67)</f>
+        <f t="shared" ref="N67:N78" si="4">SUM(G67:H67)</f>
         <v>2</v>
       </c>
       <c r="O67" s="9">
         <v>4</v>
       </c>
       <c r="P67" s="5"/>
-      <c r="Q67" s="5"/>
+      <c r="Q67" s="6" t="str">
+        <f t="shared" ref="Q67:Q78" si="5">CONCATENATE(L67,",",M67,",",N67,",",O67)</f>
+        <v>3,7,2,4</v>
+      </c>
       <c r="R67" s="5"/>
       <c r="S67" s="5"/>
       <c r="T67" s="5"/>
@@ -5446,18 +5645,21 @@
         <v>4</v>
       </c>
       <c r="M68" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>7</v>
       </c>
       <c r="N68" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="O68" s="9">
         <v>1</v>
       </c>
       <c r="P68" s="5"/>
-      <c r="Q68" s="5"/>
+      <c r="Q68" s="6" t="str">
+        <f t="shared" si="5"/>
+        <v>4,7,4,1</v>
+      </c>
       <c r="R68" s="5"/>
       <c r="S68" s="5"/>
       <c r="T68" s="5"/>
@@ -5507,18 +5709,21 @@
         <v>1</v>
       </c>
       <c r="M69" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
       <c r="N69" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>7</v>
       </c>
       <c r="O69" s="9">
         <v>1</v>
       </c>
       <c r="P69" s="5"/>
-      <c r="Q69" s="5"/>
+      <c r="Q69" s="6" t="str">
+        <f t="shared" si="5"/>
+        <v>1,3,7,1</v>
+      </c>
       <c r="R69" s="5"/>
       <c r="S69" s="5"/>
       <c r="T69" s="5"/>
@@ -5568,18 +5773,21 @@
         <v>8</v>
       </c>
       <c r="M70" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>7</v>
       </c>
       <c r="N70" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>6</v>
       </c>
       <c r="O70" s="9">
         <v>1</v>
       </c>
       <c r="P70" s="5"/>
-      <c r="Q70" s="5"/>
+      <c r="Q70" s="6" t="str">
+        <f t="shared" si="5"/>
+        <v>8,7,6,1</v>
+      </c>
       <c r="R70" s="5"/>
       <c r="S70" s="5"/>
       <c r="T70" s="5"/>
@@ -5629,18 +5837,21 @@
         <v>4</v>
       </c>
       <c r="M71" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>7</v>
       </c>
       <c r="N71" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>9</v>
       </c>
       <c r="O71" s="9">
         <v>1</v>
       </c>
       <c r="P71" s="5"/>
-      <c r="Q71" s="5"/>
+      <c r="Q71" s="6" t="str">
+        <f t="shared" si="5"/>
+        <v>4,7,9,1</v>
+      </c>
       <c r="R71" s="5"/>
       <c r="S71" s="5"/>
       <c r="T71" s="5"/>
@@ -5690,18 +5901,21 @@
         <v>3</v>
       </c>
       <c r="M72" s="5">
-        <f t="shared" si="2"/>
-        <v>9</v>
-      </c>
-      <c r="N72" s="5">
         <f t="shared" si="3"/>
         <v>9</v>
       </c>
+      <c r="N72" s="5">
+        <f t="shared" si="4"/>
+        <v>9</v>
+      </c>
       <c r="O72" s="9">
         <v>8</v>
       </c>
       <c r="P72" s="5"/>
-      <c r="Q72" s="5"/>
+      <c r="Q72" s="6" t="str">
+        <f t="shared" si="5"/>
+        <v>3,9,9,8</v>
+      </c>
       <c r="R72" s="5"/>
       <c r="S72" s="5"/>
       <c r="T72" s="5"/>
@@ -5751,18 +5965,21 @@
         <v>5</v>
       </c>
       <c r="M73" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>7</v>
       </c>
       <c r="N73" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
       <c r="O73" s="9">
         <v>1</v>
       </c>
       <c r="P73" s="5"/>
-      <c r="Q73" s="5"/>
+      <c r="Q73" s="6" t="str">
+        <f t="shared" si="5"/>
+        <v>5,7,5,1</v>
+      </c>
       <c r="R73" s="5"/>
       <c r="S73" s="5"/>
       <c r="T73" s="5"/>
@@ -5812,18 +6029,21 @@
         <v>1</v>
       </c>
       <c r="M74" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>7</v>
       </c>
       <c r="N74" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>11</v>
       </c>
       <c r="O74" s="9">
         <v>1</v>
       </c>
       <c r="P74" s="5"/>
-      <c r="Q74" s="5"/>
+      <c r="Q74" s="6" t="str">
+        <f t="shared" si="5"/>
+        <v>1,7,11,1</v>
+      </c>
       <c r="R74" s="5"/>
       <c r="S74" s="5"/>
       <c r="T74" s="5"/>
@@ -5873,18 +6093,21 @@
         <v>3</v>
       </c>
       <c r="M75" s="5">
-        <f t="shared" si="2"/>
-        <v>9</v>
-      </c>
-      <c r="N75" s="5">
         <f t="shared" si="3"/>
         <v>9</v>
       </c>
+      <c r="N75" s="5">
+        <f t="shared" si="4"/>
+        <v>9</v>
+      </c>
       <c r="O75" s="9">
         <v>1</v>
       </c>
       <c r="P75" s="5"/>
-      <c r="Q75" s="5"/>
+      <c r="Q75" s="6" t="str">
+        <f t="shared" si="5"/>
+        <v>3,9,9,1</v>
+      </c>
       <c r="R75" s="5"/>
       <c r="S75" s="5"/>
       <c r="T75" s="5"/>
@@ -5934,18 +6157,21 @@
         <v>6</v>
       </c>
       <c r="M76" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
       <c r="N76" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
       <c r="O76" s="9">
         <v>1</v>
       </c>
       <c r="P76" s="5"/>
-      <c r="Q76" s="5"/>
+      <c r="Q76" s="6" t="str">
+        <f t="shared" si="5"/>
+        <v>6,3,2,1</v>
+      </c>
       <c r="R76" s="5"/>
       <c r="S76" s="5"/>
       <c r="T76" s="5"/>
@@ -5995,18 +6221,21 @@
         <v>5</v>
       </c>
       <c r="M77" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>7</v>
       </c>
       <c r="N77" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>16</v>
       </c>
       <c r="O77" s="9">
         <v>1</v>
       </c>
       <c r="P77" s="5"/>
-      <c r="Q77" s="5"/>
+      <c r="Q77" s="6" t="str">
+        <f t="shared" si="5"/>
+        <v>5,7,16,1</v>
+      </c>
       <c r="R77" s="5"/>
       <c r="S77" s="5"/>
       <c r="T77" s="5"/>
@@ -6056,18 +6285,21 @@
         <v>7</v>
       </c>
       <c r="M78" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="N78" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>7</v>
       </c>
       <c r="O78" s="9">
         <v>1</v>
       </c>
       <c r="P78" s="5"/>
-      <c r="Q78" s="5"/>
+      <c r="Q78" s="6" t="str">
+        <f t="shared" si="5"/>
+        <v>7,4,7,1</v>
+      </c>
       <c r="R78" s="5"/>
       <c r="S78" s="5"/>
       <c r="T78" s="5"/>

--- a/各家大學評分.xlsx
+++ b/各家大學評分.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11550"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11550" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="國私立大學院校" sheetId="1" r:id="rId1"/>
@@ -61,7 +61,7 @@
     <author/>
   </authors>
   <commentList>
-    <comment ref="H1" authorId="0" shapeId="0">
+    <comment ref="G1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -74,7 +74,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I1" authorId="0" shapeId="0">
+    <comment ref="H1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -92,7 +92,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="253">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="172">
   <si>
     <t>有無大一不分系</t>
   </si>
@@ -125,9 +125,6 @@
   </si>
   <si>
     <t>國立中山大學</t>
-  </si>
-  <si>
-    <t>o</t>
   </si>
   <si>
     <t>國立宜蘭大學</t>
@@ -361,511 +358,268 @@
     <t>國立臺灣科技大學</t>
   </si>
   <si>
-    <t>http://www.ntust.edu.tw</t>
-  </si>
-  <si>
     <t>國立雲林科技大學</t>
-  </si>
-  <si>
-    <t>http://www.yuntech.edu.tw</t>
   </si>
   <si>
     <t>國立屏東科技大學</t>
   </si>
   <si>
-    <t>http://www.npust.edu.tw</t>
-  </si>
-  <si>
     <t>國立臺北科技大學</t>
-  </si>
-  <si>
-    <t>http://www.ntut.edu.tw</t>
   </si>
   <si>
     <t>國立高雄科技大學</t>
   </si>
   <si>
-    <t>http://www.nkust.edu.tw</t>
-  </si>
-  <si>
     <t>國立虎尾科技大學</t>
-  </si>
-  <si>
-    <t>http://www.nfu.edu.tw</t>
   </si>
   <si>
     <t>國立澎湖科技大學</t>
   </si>
   <si>
-    <t>http://www.npu.edu.tw</t>
-  </si>
-  <si>
     <t>國立勤益科技大學</t>
-  </si>
-  <si>
-    <t>http://www.ncut.edu.tw</t>
   </si>
   <si>
     <t>國立臺北護理健康大學</t>
   </si>
   <si>
-    <t>http://www.ntunhs.edu.tw</t>
-  </si>
-  <si>
     <t>國立高雄餐旅大學</t>
-  </si>
-  <si>
-    <t>http://www.nkuht.edu.tw</t>
   </si>
   <si>
     <t>國立臺中科技大學</t>
   </si>
   <si>
-    <t>http://www.nutc.edu.tw</t>
-  </si>
-  <si>
     <t>國立臺北商業大學</t>
-  </si>
-  <si>
-    <t>http://www.ntub.edu.tw [台北校區]
-http://tyc.ntub.edu.tw [桃園校區]</t>
   </si>
   <si>
     <t>國立臺灣戲曲學院</t>
   </si>
   <si>
-    <t>http://www.tcpa.edu.tw</t>
-  </si>
-  <si>
     <t>國立臺南護理專科學校</t>
-  </si>
-  <si>
-    <t>http://www.ntin.edu.tw</t>
   </si>
   <si>
     <t>國立高雄海洋科技大學</t>
   </si>
   <si>
-    <t>http://www.nkmu.edu.tw/</t>
-  </si>
-  <si>
     <t>國立臺東專科學校</t>
-  </si>
-  <si>
-    <t>http://www.ntc.edu.tw</t>
   </si>
   <si>
     <t>朝陽科技大學</t>
   </si>
   <si>
-    <t>http://www.cyut.edu.tw</t>
-  </si>
-  <si>
     <t>南臺科技大學</t>
-  </si>
-  <si>
-    <t>http://www.stust.edu.tw</t>
   </si>
   <si>
     <t>崑山科技大學</t>
   </si>
   <si>
-    <t>http://www.ksu.edu.tw</t>
-  </si>
-  <si>
     <t>嘉南藥理大學</t>
-  </si>
-  <si>
-    <t>http://www.cna.edu.tw</t>
   </si>
   <si>
     <t>樹德科技大學</t>
   </si>
   <si>
-    <t>http://www.stu.edu.tw</t>
-  </si>
-  <si>
     <t>龍華科技大學</t>
-  </si>
-  <si>
-    <t>http://www.lhu.edu.tw</t>
   </si>
   <si>
     <t>輔英科技大學</t>
   </si>
   <si>
-    <t>http://web.fy.edu.tw</t>
-  </si>
-  <si>
     <t>明新科技大學</t>
-  </si>
-  <si>
-    <t>http://www.must.edu.tw</t>
   </si>
   <si>
     <t>弘光科技大學</t>
   </si>
   <si>
-    <t>http://www.hk.edu.tw</t>
-  </si>
-  <si>
     <t>健行科技大學</t>
-  </si>
-  <si>
-    <t>http://www.uch.edu.tw</t>
   </si>
   <si>
     <t>正修科技大學</t>
   </si>
   <si>
-    <t>http://www.csu.edu.tw</t>
-  </si>
-  <si>
     <t>萬能科技大學</t>
-  </si>
-  <si>
-    <t>http://www.vnu.edu.tw</t>
   </si>
   <si>
     <t>建國科技大學</t>
   </si>
   <si>
-    <t>http://www.ctu.edu.tw</t>
-  </si>
-  <si>
     <t>明志科技大學</t>
-  </si>
-  <si>
-    <t>http://www.mcut.edu.tw</t>
   </si>
   <si>
     <t>高苑科技大學</t>
   </si>
   <si>
-    <t>http://www.kyu.edu.tw</t>
-  </si>
-  <si>
     <t>大仁科技大學</t>
-  </si>
-  <si>
-    <t>http://www.tajen.edu.tw</t>
   </si>
   <si>
     <t>聖約翰科技大學</t>
   </si>
   <si>
-    <t>http://www.sju.edu.tw</t>
-  </si>
-  <si>
     <t>嶺東科技大學</t>
-  </si>
-  <si>
-    <t>http://www.ltu.edu.tw</t>
   </si>
   <si>
     <t>中國科技大學</t>
   </si>
   <si>
-    <t>http://www.cute.edu.tw</t>
-  </si>
-  <si>
     <t>中臺科技大學</t>
-  </si>
-  <si>
-    <t>http://www.ctust.edu.tw</t>
   </si>
   <si>
     <t>台南應用科技大學</t>
   </si>
   <si>
-    <t>http://www.tut.edu.tw</t>
-  </si>
-  <si>
     <t>遠東科技大學</t>
-  </si>
-  <si>
-    <t>http://www.feu.edu.tw</t>
   </si>
   <si>
     <t>元培醫事科技大學</t>
   </si>
   <si>
-    <t>http://www.ypu.edu.tw</t>
-  </si>
-  <si>
     <t>景文科技大學</t>
-  </si>
-  <si>
-    <t>http://www.just.edu.tw</t>
   </si>
   <si>
     <t>中華醫事科技大學</t>
   </si>
   <si>
-    <t>http://www.hwai.edu.tw</t>
-  </si>
-  <si>
     <t>東南科技大學</t>
-  </si>
-  <si>
-    <t>http://www.tnu.edu.tw</t>
   </si>
   <si>
     <t>德明財經科技大學</t>
   </si>
   <si>
-    <t>http://www.takming.edu.tw</t>
-  </si>
-  <si>
     <t>南開科技大學</t>
-  </si>
-  <si>
-    <t>http://www.nkut.edu.tw</t>
   </si>
   <si>
     <t>中華科技大學</t>
   </si>
   <si>
-    <t>http://www.cust.edu.tw [台北校區]
-http://www.hc.cust.edu.tw [新竹校區]</t>
-  </si>
-  <si>
     <t>僑光科技大學</t>
-  </si>
-  <si>
-    <t>http://www.ocu.edu.tw</t>
   </si>
   <si>
     <t>育達科技大學</t>
   </si>
   <si>
-    <t>http://www.ydu.edu.tw</t>
-  </si>
-  <si>
     <t>美和科技大學</t>
-  </si>
-  <si>
-    <t>http://www.meiho.edu.tw</t>
   </si>
   <si>
     <t>吳鳳科技大學</t>
   </si>
   <si>
-    <t>http://www.wfu.edu.tw</t>
-  </si>
-  <si>
     <t>環球科技大學</t>
-  </si>
-  <si>
-    <t>http://www.twu.edu.tw</t>
   </si>
   <si>
     <t>中州科技大學</t>
   </si>
   <si>
-    <t>http://www.ccut.edu.tw</t>
-  </si>
-  <si>
     <t>修平科技大學</t>
-  </si>
-  <si>
-    <t>http://www.hust.edu.tw</t>
   </si>
   <si>
     <t>長庚科技大學</t>
   </si>
   <si>
-    <t>http://www.cgust.edu.tw [林口本部]
-http://cywww.cgust.edu.tw [嘉義分部]</t>
-  </si>
-  <si>
     <t>臺北城市科技大學</t>
-  </si>
-  <si>
-    <t>http://www.tpcu.edu.tw</t>
   </si>
   <si>
     <t>敏實科技大學</t>
   </si>
   <si>
-    <t>http://www.mitust.edu.tw</t>
-  </si>
-  <si>
     <t>醒吾科技大學</t>
-  </si>
-  <si>
-    <t>http://www.hwu.edu.tw</t>
   </si>
   <si>
     <t>文藻外語大學</t>
   </si>
   <si>
-    <t>http://www.wzu.edu.tw</t>
-  </si>
-  <si>
     <t>華夏科技大學</t>
-  </si>
-  <si>
-    <t>http://www.hwh.edu.tw</t>
   </si>
   <si>
     <t>慈濟科技大學</t>
   </si>
   <si>
-    <t>http://www.tccn.edu.tw</t>
-  </si>
-  <si>
     <t>致理科技大學</t>
-  </si>
-  <si>
-    <t>http://www.chihlee.edu.tw</t>
   </si>
   <si>
     <t>宏國德霖科技大學</t>
   </si>
   <si>
-    <t>http://www.hdut.edu.tw</t>
-  </si>
-  <si>
     <t>東方設計大學</t>
-  </si>
-  <si>
-    <t>http://www.tf.edu.tw</t>
   </si>
   <si>
     <t>崇右影藝科技大學</t>
   </si>
   <si>
-    <t>http://www.cufa.edu.tw</t>
-  </si>
-  <si>
     <t>台北海洋科技大學</t>
-  </si>
-  <si>
-    <t>http://www.tumt.edu.tw</t>
   </si>
   <si>
     <t>亞東科技大學</t>
   </si>
   <si>
-    <t>http://www.aeust.edu.tw</t>
-  </si>
-  <si>
     <t>大漢技術學院</t>
-  </si>
-  <si>
-    <t>http://www.dahan.edu.tw</t>
   </si>
   <si>
     <t>南亞技術學院</t>
   </si>
   <si>
-    <t>http://www.nanya.edu.tw</t>
-  </si>
-  <si>
     <t>黎明技術學院</t>
-  </si>
-  <si>
-    <t>http://www.lit.edu.tw</t>
   </si>
   <si>
     <t>經國管理暨健康學院</t>
   </si>
   <si>
-    <t>http://www.cku.edu.tw</t>
-  </si>
-  <si>
     <t>大同技術學院</t>
-  </si>
-  <si>
-    <t>http://www.ttc.edu.tw</t>
   </si>
   <si>
     <t>馬偕醫護管理專科學校</t>
   </si>
   <si>
-    <t>http://www.mkc.edu.tw</t>
-  </si>
-  <si>
     <t>仁德醫護管理專科學校</t>
-  </si>
-  <si>
-    <t>http://www.jente.edu.tw</t>
   </si>
   <si>
     <t>樹人醫護管理專科學校</t>
   </si>
   <si>
-    <t>http://www.szmc.edu.tw</t>
-  </si>
-  <si>
     <t>慈惠醫護管理專科學校</t>
-  </si>
-  <si>
-    <t>http://www.tzuhui.edu.tw</t>
   </si>
   <si>
     <t>耕莘健康管理專科學校</t>
   </si>
   <si>
-    <t>http://www.ctcn.edu.tw</t>
-  </si>
-  <si>
     <t>敏惠醫護管理專科學校</t>
-  </si>
-  <si>
-    <t>http://www.mhchcm.edu.tw</t>
   </si>
   <si>
     <t>育英醫護管理專科學校</t>
   </si>
   <si>
-    <t>http://www.yuhing.edu.tw</t>
-  </si>
-  <si>
     <t>崇仁醫護管理專科學校</t>
-  </si>
-  <si>
-    <t>http://www.cjc.edu.tw</t>
   </si>
   <si>
     <t>聖母醫護管理專科學校</t>
   </si>
   <si>
-    <t>http://www.smc.edu.tw</t>
-  </si>
-  <si>
     <t>新生醫護管理專科學校</t>
   </si>
   <si>
-    <t>http://www.web.hsc.edu.tw</t>
-  </si>
-  <si>
     <t>學校品質</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>特殊專案</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>經濟考量</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>就業前景</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>conditionVal</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="20">
+  <fonts count="14">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -966,53 +720,6 @@
       <charset val="136"/>
     </font>
     <font>
-      <sz val="14"/>
-      <color rgb="FF337AB7"/>
-      <name val="DFKai-SB"/>
-      <family val="4"/>
-      <charset val="136"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="14"/>
-      <color rgb="FF337AB7"/>
-      <name val="DFKai-SB"/>
-      <family val="4"/>
-      <charset val="136"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="14"/>
-      <color rgb="FF1155CC"/>
-      <name val="DFKai-SB"/>
-      <family val="4"/>
-      <charset val="136"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="14"/>
-      <color rgb="FF337AB7"/>
-      <name val="DFKai-SB"/>
-      <family val="4"/>
-      <charset val="136"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="14"/>
-      <color rgb="FF1155CC"/>
-      <name val="DFKai-SB"/>
-      <family val="4"/>
-      <charset val="136"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="14"/>
-      <color rgb="FF337AB7"/>
-      <name val="DFKai-SB"/>
-      <family val="4"/>
-      <charset val="136"/>
-    </font>
-    <font>
       <sz val="9"/>
       <name val="細明體"/>
       <family val="3"/>
@@ -1063,7 +770,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1120,17 +827,11 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1359,9 +1060,9 @@
   </sheetPr>
   <dimension ref="A1:AE1003"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="H1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="R56" sqref="R56"/>
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="L24" sqref="L24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
@@ -1406,20 +1107,20 @@
         <v>8</v>
       </c>
       <c r="L1" s="5" t="s">
-        <v>248</v>
+        <v>167</v>
       </c>
       <c r="M1" s="5" t="s">
-        <v>249</v>
+        <v>168</v>
       </c>
       <c r="N1" s="5" t="s">
-        <v>250</v>
+        <v>169</v>
       </c>
       <c r="O1" s="5" t="s">
-        <v>251</v>
+        <v>170</v>
       </c>
       <c r="P1" s="5"/>
       <c r="Q1" s="6" t="s">
-        <v>252</v>
+        <v>171</v>
       </c>
       <c r="R1" s="6"/>
       <c r="S1" s="6"/>
@@ -1437,7 +1138,7 @@
       <c r="AE1" s="5"/>
     </row>
     <row r="2" spans="1:31" ht="15.75" customHeight="1">
-      <c r="A2" s="35" t="s">
+      <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
       <c r="B2" s="8" t="s">
@@ -1504,9 +1205,9 @@
       <c r="AE2" s="5"/>
     </row>
     <row r="3" spans="1:31" ht="15.75" customHeight="1">
-      <c r="A3" s="36"/>
+      <c r="A3" s="30"/>
       <c r="B3" s="8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C3" s="9">
         <v>1</v>
@@ -1568,9 +1269,9 @@
       <c r="AE3" s="5"/>
     </row>
     <row r="4" spans="1:31" ht="15.75" customHeight="1">
-      <c r="A4" s="36"/>
+      <c r="A4" s="30"/>
       <c r="B4" s="11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C4" s="9">
         <v>1</v>
@@ -1632,9 +1333,9 @@
       <c r="AE4" s="5"/>
     </row>
     <row r="5" spans="1:31" ht="15.75" customHeight="1">
-      <c r="A5" s="36"/>
+      <c r="A5" s="30"/>
       <c r="B5" s="11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C5" s="9">
         <v>1</v>
@@ -1696,9 +1397,9 @@
       <c r="AE5" s="5"/>
     </row>
     <row r="6" spans="1:31" ht="15.75" customHeight="1">
-      <c r="A6" s="36"/>
+      <c r="A6" s="30"/>
       <c r="B6" s="11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C6" s="3">
         <v>2</v>
@@ -1760,9 +1461,9 @@
       <c r="AE6" s="5"/>
     </row>
     <row r="7" spans="1:31" ht="15.75" customHeight="1">
-      <c r="A7" s="36"/>
+      <c r="A7" s="30"/>
       <c r="B7" s="11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C7" s="9">
         <v>1</v>
@@ -1826,7 +1527,7 @@
     <row r="8" spans="1:31" ht="15.75" customHeight="1">
       <c r="A8" s="7"/>
       <c r="B8" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C8" s="12">
         <v>2</v>
@@ -1890,7 +1591,7 @@
     <row r="9" spans="1:31" ht="15.75" customHeight="1">
       <c r="A9" s="13"/>
       <c r="B9" s="14" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C9" s="3">
         <v>2</v>
@@ -1954,7 +1655,7 @@
     <row r="10" spans="1:31" ht="15.75" customHeight="1">
       <c r="A10" s="13"/>
       <c r="B10" s="14" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C10" s="9">
         <v>1</v>
@@ -2018,7 +1719,7 @@
     <row r="11" spans="1:31" ht="15.75" customHeight="1">
       <c r="A11" s="13"/>
       <c r="B11" s="11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C11" s="9">
         <v>1</v>
@@ -2082,7 +1783,7 @@
     <row r="12" spans="1:31" ht="15.75" customHeight="1">
       <c r="A12" s="13"/>
       <c r="B12" s="11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C12" s="9">
         <v>1</v>
@@ -2146,7 +1847,7 @@
     <row r="13" spans="1:31" ht="15.75" customHeight="1">
       <c r="A13" s="13"/>
       <c r="B13" s="14" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C13" s="9">
         <v>1</v>
@@ -2210,7 +1911,7 @@
     <row r="14" spans="1:31" ht="15.75" customHeight="1">
       <c r="A14" s="13"/>
       <c r="B14" s="11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C14" s="3">
         <v>2</v>
@@ -2274,7 +1975,7 @@
     <row r="15" spans="1:31" ht="15.75" customHeight="1">
       <c r="A15" s="13"/>
       <c r="B15" s="11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C15" s="9">
         <v>1</v>
@@ -2338,7 +2039,7 @@
     <row r="16" spans="1:31" ht="15.75" customHeight="1">
       <c r="A16" s="13"/>
       <c r="B16" s="11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C16" s="3">
         <v>2</v>
@@ -2402,7 +2103,7 @@
     <row r="17" spans="1:31" ht="15.75" customHeight="1">
       <c r="A17" s="13"/>
       <c r="B17" s="14" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C17" s="9">
         <v>1</v>
@@ -2466,7 +2167,7 @@
     <row r="18" spans="1:31" ht="15.75" customHeight="1">
       <c r="A18" s="13"/>
       <c r="B18" s="11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C18" s="9">
         <v>1</v>
@@ -2530,7 +2231,7 @@
     <row r="19" spans="1:31" ht="15.75" customHeight="1">
       <c r="A19" s="13"/>
       <c r="B19" s="11" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C19" s="9">
         <v>1</v>
@@ -2594,7 +2295,7 @@
     <row r="20" spans="1:31" ht="15.75" customHeight="1">
       <c r="A20" s="13"/>
       <c r="B20" s="11" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C20" s="3">
         <v>2</v>
@@ -2658,7 +2359,7 @@
     <row r="21" spans="1:31" ht="15.75" customHeight="1">
       <c r="A21" s="13"/>
       <c r="B21" s="11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C21" s="9">
         <v>1</v>
@@ -2722,7 +2423,7 @@
     <row r="22" spans="1:31" ht="15.75" customHeight="1">
       <c r="A22" s="13"/>
       <c r="B22" s="11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C22" s="3">
         <v>2</v>
@@ -2786,7 +2487,7 @@
     <row r="23" spans="1:31" ht="15.75" customHeight="1">
       <c r="A23" s="13"/>
       <c r="B23" s="11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C23" s="9">
         <v>1</v>
@@ -2850,7 +2551,7 @@
     <row r="24" spans="1:31" ht="15.75" customHeight="1">
       <c r="A24" s="13"/>
       <c r="B24" s="11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C24" s="9">
         <v>1</v>
@@ -2914,7 +2615,7 @@
     <row r="25" spans="1:31" ht="15.75" customHeight="1">
       <c r="A25" s="13"/>
       <c r="B25" s="11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C25" s="9">
         <v>1</v>
@@ -2978,7 +2679,7 @@
     <row r="26" spans="1:31" ht="15.75" customHeight="1">
       <c r="A26" s="13"/>
       <c r="B26" s="11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C26" s="3">
         <v>2</v>
@@ -3042,7 +2743,7 @@
     <row r="27" spans="1:31" ht="15.75" customHeight="1">
       <c r="A27" s="13"/>
       <c r="B27" s="11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C27" s="9">
         <v>1</v>
@@ -3106,7 +2807,7 @@
     <row r="28" spans="1:31" ht="15.75" customHeight="1">
       <c r="A28" s="13"/>
       <c r="B28" s="11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C28" s="9">
         <v>1</v>
@@ -3170,7 +2871,7 @@
     <row r="29" spans="1:31" ht="15.75" customHeight="1">
       <c r="A29" s="13"/>
       <c r="B29" s="11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C29" s="9">
         <v>1</v>
@@ -3234,7 +2935,7 @@
     <row r="30" spans="1:31" ht="15.75" customHeight="1">
       <c r="A30" s="13"/>
       <c r="B30" s="11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C30" s="3">
         <v>2</v>
@@ -3298,7 +2999,7 @@
     <row r="31" spans="1:31" ht="15.75" customHeight="1">
       <c r="A31" s="13"/>
       <c r="B31" s="11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C31" s="3">
         <v>2</v>
@@ -3362,7 +3063,7 @@
     <row r="32" spans="1:31" ht="15.75" customHeight="1">
       <c r="A32" s="13"/>
       <c r="B32" s="11" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C32" s="9">
         <v>1</v>
@@ -3426,7 +3127,7 @@
     <row r="33" spans="1:31" ht="15.75" customHeight="1">
       <c r="A33" s="13"/>
       <c r="B33" s="11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C33" s="9">
         <v>1</v>
@@ -3490,7 +3191,7 @@
     <row r="34" spans="1:31" ht="15.75" customHeight="1">
       <c r="A34" s="13"/>
       <c r="B34" s="11" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C34" s="9">
         <v>1</v>
@@ -3554,7 +3255,7 @@
     <row r="35" spans="1:31" ht="15.75" customHeight="1">
       <c r="A35" s="13"/>
       <c r="B35" s="11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C35" s="9">
         <v>1</v>
@@ -3653,10 +3354,10 @@
     </row>
     <row r="37" spans="1:31" ht="19.5">
       <c r="A37" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="B37" s="16" t="s">
         <v>45</v>
-      </c>
-      <c r="B37" s="16" t="s">
-        <v>46</v>
       </c>
       <c r="C37" s="9">
         <v>1</v>
@@ -3720,7 +3421,7 @@
     <row r="38" spans="1:31" ht="19.5">
       <c r="A38" s="17"/>
       <c r="B38" s="18" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C38" s="9">
         <v>1</v>
@@ -3818,11 +3519,11 @@
       <c r="AE39" s="5"/>
     </row>
     <row r="40" spans="1:31" ht="19.5">
-      <c r="A40" s="37" t="s">
+      <c r="A40" s="31" t="s">
+        <v>47</v>
+      </c>
+      <c r="B40" s="19" t="s">
         <v>48</v>
-      </c>
-      <c r="B40" s="19" t="s">
-        <v>49</v>
       </c>
       <c r="C40" s="9">
         <v>1</v>
@@ -3884,9 +3585,9 @@
       <c r="AE40" s="5"/>
     </row>
     <row r="41" spans="1:31" ht="19.5">
-      <c r="A41" s="36"/>
+      <c r="A41" s="30"/>
       <c r="B41" s="19" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C41" s="9">
         <v>1</v>
@@ -3948,9 +3649,9 @@
       <c r="AE41" s="5"/>
     </row>
     <row r="42" spans="1:31" ht="19.5">
-      <c r="A42" s="36"/>
+      <c r="A42" s="30"/>
       <c r="B42" s="19" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C42" s="9">
         <v>1</v>
@@ -4012,9 +3713,9 @@
       <c r="AE42" s="5"/>
     </row>
     <row r="43" spans="1:31" ht="19.5">
-      <c r="A43" s="36"/>
+      <c r="A43" s="30"/>
       <c r="B43" s="19" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C43" s="9">
         <v>1</v>
@@ -4076,9 +3777,9 @@
       <c r="AE43" s="5"/>
     </row>
     <row r="44" spans="1:31" ht="19.5">
-      <c r="A44" s="36"/>
+      <c r="A44" s="30"/>
       <c r="B44" s="19" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C44" s="9">
         <v>1</v>
@@ -4140,9 +3841,9 @@
       <c r="AE44" s="5"/>
     </row>
     <row r="45" spans="1:31" ht="19.5">
-      <c r="A45" s="36"/>
+      <c r="A45" s="30"/>
       <c r="B45" s="19" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C45" s="9">
         <v>1</v>
@@ -4204,9 +3905,9 @@
       <c r="AE45" s="5"/>
     </row>
     <row r="46" spans="1:31" ht="19.5">
-      <c r="A46" s="36"/>
+      <c r="A46" s="30"/>
       <c r="B46" s="19" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C46" s="9">
         <v>1</v>
@@ -4270,7 +3971,7 @@
     <row r="47" spans="1:31" ht="19.5">
       <c r="A47" s="20"/>
       <c r="B47" s="19" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C47" s="9">
         <v>1</v>
@@ -4334,7 +4035,7 @@
     <row r="48" spans="1:31" ht="19.5">
       <c r="A48" s="20"/>
       <c r="B48" s="19" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C48" s="9">
         <v>1</v>
@@ -4398,7 +4099,7 @@
     <row r="49" spans="1:31" ht="19.5">
       <c r="A49" s="20"/>
       <c r="B49" s="19" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C49" s="9">
         <v>1</v>
@@ -4462,7 +4163,7 @@
     <row r="50" spans="1:31" ht="19.5">
       <c r="A50" s="20"/>
       <c r="B50" s="19" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C50" s="9">
         <v>1</v>
@@ -4526,7 +4227,7 @@
     <row r="51" spans="1:31" ht="19.5">
       <c r="A51" s="20"/>
       <c r="B51" s="19" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C51" s="9">
         <v>1</v>
@@ -4590,7 +4291,7 @@
     <row r="52" spans="1:31" ht="19.5">
       <c r="A52" s="20"/>
       <c r="B52" s="19" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C52" s="9">
         <v>1</v>
@@ -4654,7 +4355,7 @@
     <row r="53" spans="1:31" ht="19.5">
       <c r="A53" s="20"/>
       <c r="B53" s="19" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C53" s="9">
         <v>1</v>
@@ -4718,7 +4419,7 @@
     <row r="54" spans="1:31" ht="19.5">
       <c r="A54" s="20"/>
       <c r="B54" s="19" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C54" s="9">
         <v>1</v>
@@ -4782,7 +4483,7 @@
     <row r="55" spans="1:31" ht="19.5">
       <c r="A55" s="20"/>
       <c r="B55" s="19" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C55" s="9">
         <v>1</v>
@@ -4846,7 +4547,7 @@
     <row r="56" spans="1:31" ht="19.5">
       <c r="A56" s="20"/>
       <c r="B56" s="21" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C56" s="9">
         <v>1</v>
@@ -4910,7 +4611,7 @@
     <row r="57" spans="1:31" ht="19.5">
       <c r="A57" s="20"/>
       <c r="B57" s="19" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C57" s="9">
         <v>1</v>
@@ -4974,7 +4675,7 @@
     <row r="58" spans="1:31" ht="19.5">
       <c r="A58" s="20"/>
       <c r="B58" s="19" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C58" s="9">
         <v>1</v>
@@ -5038,7 +4739,7 @@
     <row r="59" spans="1:31" ht="19.5">
       <c r="A59" s="20"/>
       <c r="B59" s="19" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C59" s="3">
         <v>2</v>
@@ -5102,7 +4803,7 @@
     <row r="60" spans="1:31" ht="19.5">
       <c r="A60" s="20"/>
       <c r="B60" s="19" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C60" s="9">
         <v>1</v>
@@ -5166,7 +4867,7 @@
     <row r="61" spans="1:31" ht="19.5">
       <c r="A61" s="20"/>
       <c r="B61" s="19" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C61" s="9">
         <v>1</v>
@@ -5230,7 +4931,7 @@
     <row r="62" spans="1:31" ht="19.5">
       <c r="A62" s="20"/>
       <c r="B62" s="21" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C62" s="9">
         <v>1</v>
@@ -5294,7 +4995,7 @@
     <row r="63" spans="1:31" ht="19.5">
       <c r="A63" s="20"/>
       <c r="B63" s="19" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C63" s="9">
         <v>1</v>
@@ -5358,7 +5059,7 @@
     <row r="64" spans="1:31" ht="19.5">
       <c r="A64" s="20"/>
       <c r="B64" s="19" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C64" s="9">
         <v>1</v>
@@ -5422,7 +5123,7 @@
     <row r="65" spans="1:31" ht="19.5">
       <c r="A65" s="20"/>
       <c r="B65" s="19" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C65" s="9">
         <v>1</v>
@@ -5486,7 +5187,7 @@
     <row r="66" spans="1:31" ht="19.5">
       <c r="A66" s="20"/>
       <c r="B66" s="19" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C66" s="9">
         <v>1</v>
@@ -5550,7 +5251,7 @@
     <row r="67" spans="1:31" ht="19.5">
       <c r="A67" s="20"/>
       <c r="B67" s="19" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C67" s="9">
         <v>1</v>
@@ -5614,7 +5315,7 @@
     <row r="68" spans="1:31" ht="19.5">
       <c r="A68" s="20"/>
       <c r="B68" s="19" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C68" s="9">
         <v>1</v>
@@ -5678,7 +5379,7 @@
     <row r="69" spans="1:31" ht="19.5">
       <c r="A69" s="20"/>
       <c r="B69" s="19" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C69" s="9">
         <v>1</v>
@@ -5742,7 +5443,7 @@
     <row r="70" spans="1:31" ht="19.5">
       <c r="A70" s="20"/>
       <c r="B70" s="19" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C70" s="9">
         <v>1</v>
@@ -5806,7 +5507,7 @@
     <row r="71" spans="1:31" ht="19.5">
       <c r="A71" s="20"/>
       <c r="B71" s="19" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C71" s="9">
         <v>1</v>
@@ -5870,7 +5571,7 @@
     <row r="72" spans="1:31" ht="19.5">
       <c r="A72" s="20"/>
       <c r="B72" s="19" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C72" s="9">
         <v>1</v>
@@ -5934,7 +5635,7 @@
     <row r="73" spans="1:31" ht="19.5">
       <c r="A73" s="20"/>
       <c r="B73" s="19" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C73" s="9">
         <v>1</v>
@@ -5998,7 +5699,7 @@
     <row r="74" spans="1:31" ht="19.5">
       <c r="A74" s="20"/>
       <c r="B74" s="21" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C74" s="9">
         <v>1</v>
@@ -6062,7 +5763,7 @@
     <row r="75" spans="1:31" ht="19.5">
       <c r="A75" s="20"/>
       <c r="B75" s="19" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C75" s="9">
         <v>1</v>
@@ -6126,7 +5827,7 @@
     <row r="76" spans="1:31" ht="19.5">
       <c r="A76" s="20"/>
       <c r="B76" s="19" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C76" s="9">
         <v>1</v>
@@ -6190,7 +5891,7 @@
     <row r="77" spans="1:31" ht="19.5">
       <c r="A77" s="20"/>
       <c r="B77" s="19" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C77" s="9">
         <v>1</v>
@@ -6254,7 +5955,7 @@
     <row r="78" spans="1:31" ht="19.5">
       <c r="A78" s="20"/>
       <c r="B78" s="21" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C78" s="3">
         <v>2</v>
@@ -36845,7 +36546,7 @@
     <mergeCell ref="A2:A7"/>
     <mergeCell ref="A40:A46"/>
   </mergeCells>
-  <phoneticPr fontId="19" type="noConversion"/>
+  <phoneticPr fontId="13" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1"/>
     <hyperlink ref="B3" r:id="rId2"/>
@@ -36937,61 +36638,72 @@
   </sheetPr>
   <dimension ref="A1:AE1004"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" zoomScale="57" zoomScaleNormal="57" workbookViewId="0">
+      <pane xSplit="2" topLeftCell="E1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="R18" sqref="R18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="10.42578125" customWidth="1"/>
-    <col min="2" max="2" width="27.85546875" customWidth="1"/>
-    <col min="3" max="3" width="45.7109375" customWidth="1"/>
-    <col min="4" max="4" width="17.28515625" customWidth="1"/>
-    <col min="5" max="5" width="13.28515625" customWidth="1"/>
+    <col min="2" max="2" width="38.85546875" customWidth="1"/>
+    <col min="3" max="3" width="60.85546875" customWidth="1"/>
+    <col min="4" max="4" width="43.140625" customWidth="1"/>
+    <col min="5" max="5" width="25.42578125" customWidth="1"/>
     <col min="6" max="6" width="16.85546875" customWidth="1"/>
     <col min="7" max="10" width="19.85546875" customWidth="1"/>
     <col min="11" max="11" width="26.140625" customWidth="1"/>
-    <col min="12" max="12" width="26.28515625" customWidth="1"/>
+    <col min="12" max="12" width="15.140625" customWidth="1"/>
+    <col min="18" max="18" width="24.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" ht="19.5" customHeight="1">
+    <row r="1" spans="1:30" ht="19.5" customHeight="1">
       <c r="A1" s="22"/>
       <c r="B1" s="23"/>
-      <c r="C1" s="24"/>
+      <c r="C1" s="3" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="3" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="I1" s="4" t="s">
         <v>6</v>
       </c>
+      <c r="J1" s="3" t="s">
+        <v>7</v>
+      </c>
       <c r="K1" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="L1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M1" s="5"/>
-      <c r="N1" s="23"/>
-      <c r="O1" s="23"/>
-      <c r="P1" s="5"/>
+      <c r="L1" s="5"/>
+      <c r="M1" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="N1" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="O1" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="P1" s="5" t="s">
+        <v>170</v>
+      </c>
       <c r="Q1" s="5"/>
-      <c r="R1" s="5"/>
+      <c r="R1" s="6" t="s">
+        <v>171</v>
+      </c>
       <c r="S1" s="5"/>
       <c r="T1" s="5"/>
       <c r="U1" s="5"/>
@@ -37004,45 +36716,57 @@
       <c r="AB1" s="5"/>
       <c r="AC1" s="5"/>
       <c r="AD1" s="5"/>
-      <c r="AE1" s="5"/>
-    </row>
-    <row r="2" spans="1:31" ht="19.5">
-      <c r="A2" s="25" t="s">
+    </row>
+    <row r="2" spans="1:30" ht="19.5">
+      <c r="A2" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="26" t="s">
-        <v>88</v>
-      </c>
-      <c r="C2" s="27" t="s">
-        <v>89</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>11</v>
+      <c r="B2" s="25" t="s">
+        <v>87</v>
+      </c>
+      <c r="C2" s="3">
+        <v>2</v>
+      </c>
+      <c r="D2" s="3">
+        <v>0</v>
+      </c>
+      <c r="E2" s="3">
+        <v>3</v>
+      </c>
+      <c r="F2" s="3">
+        <v>5</v>
+      </c>
+      <c r="G2" s="3">
+        <v>1</v>
       </c>
       <c r="H2" s="3">
+        <v>6</v>
+      </c>
+      <c r="I2" s="5"/>
+      <c r="J2" s="3">
+        <v>22</v>
+      </c>
+      <c r="K2" s="9"/>
+      <c r="L2" s="5"/>
+      <c r="M2" s="5">
         <v>1</v>
       </c>
-      <c r="I2" s="3">
-        <v>1</v>
-      </c>
-      <c r="J2" s="5"/>
-      <c r="K2" s="3">
-        <v>1</v>
-      </c>
-      <c r="L2" s="9"/>
-      <c r="M2" s="5"/>
-      <c r="N2" s="28"/>
-      <c r="O2" s="28"/>
-      <c r="P2" s="5"/>
+      <c r="N2" s="5">
+        <f>SUM(C2,D2,E2,F2)</f>
+        <v>10</v>
+      </c>
+      <c r="O2" s="5">
+        <f>SUM(G2,H2)</f>
+        <v>7</v>
+      </c>
+      <c r="P2" s="9">
+        <v>22</v>
+      </c>
       <c r="Q2" s="5"/>
-      <c r="R2" s="5"/>
+      <c r="R2" s="5" t="str">
+        <f>CONCATENATE(M2,",",N2,",",O2,",",P2)</f>
+        <v>1,10,7,22</v>
+      </c>
       <c r="S2" s="5"/>
       <c r="T2" s="5"/>
       <c r="U2" s="5"/>
@@ -37053,45 +36777,55 @@
       <c r="Z2" s="5"/>
       <c r="AA2" s="5"/>
       <c r="AB2" s="5"/>
-      <c r="AC2" s="5"/>
-      <c r="AD2" s="5"/>
-      <c r="AE2" s="5"/>
-    </row>
-    <row r="3" spans="1:31" ht="19.5">
+    </row>
+    <row r="3" spans="1:30" ht="19.5">
       <c r="A3" s="13"/>
-      <c r="B3" s="26" t="s">
-        <v>90</v>
-      </c>
-      <c r="C3" s="27" t="s">
-        <v>91</v>
-      </c>
-      <c r="D3" s="9"/>
-      <c r="E3" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>11</v>
+      <c r="B3" s="25" t="s">
+        <v>88</v>
+      </c>
+      <c r="C3" s="9">
+        <v>1</v>
+      </c>
+      <c r="D3" s="3">
+        <v>1</v>
+      </c>
+      <c r="E3" s="3">
+        <v>3</v>
+      </c>
+      <c r="F3" s="3">
+        <v>5</v>
+      </c>
+      <c r="G3" s="3">
+        <v>19</v>
       </c>
       <c r="H3" s="3">
-        <v>19</v>
-      </c>
-      <c r="I3" s="3">
-        <v>1</v>
-      </c>
-      <c r="J3" s="5"/>
-      <c r="K3" s="3">
-        <v>5</v>
-      </c>
-      <c r="L3" s="9"/>
-      <c r="M3" s="5"/>
-      <c r="N3" s="28"/>
-      <c r="O3" s="28"/>
-      <c r="P3" s="5"/>
+        <v>6</v>
+      </c>
+      <c r="I3" s="5"/>
+      <c r="J3" s="3">
+        <v>14</v>
+      </c>
+      <c r="K3" s="9"/>
+      <c r="L3" s="5"/>
+      <c r="M3" s="5">
+        <v>2</v>
+      </c>
+      <c r="N3" s="5">
+        <f t="shared" ref="N3:N66" si="0">SUM(C3,D3,E3,F3)</f>
+        <v>10</v>
+      </c>
+      <c r="O3" s="5">
+        <f t="shared" ref="O3:O66" si="1">SUM(G3,H3)</f>
+        <v>25</v>
+      </c>
+      <c r="P3" s="9">
+        <v>14</v>
+      </c>
       <c r="Q3" s="5"/>
-      <c r="R3" s="5"/>
+      <c r="R3" s="5" t="str">
+        <f t="shared" ref="R3:R66" si="2">CONCATENATE(M3,",",N3,",",O3,",",P3)</f>
+        <v>2,10,25,14</v>
+      </c>
       <c r="S3" s="5"/>
       <c r="T3" s="5"/>
       <c r="U3" s="5"/>
@@ -37102,41 +36836,55 @@
       <c r="Z3" s="5"/>
       <c r="AA3" s="5"/>
       <c r="AB3" s="5"/>
-      <c r="AC3" s="5"/>
-      <c r="AD3" s="5"/>
-      <c r="AE3" s="5"/>
-    </row>
-    <row r="4" spans="1:31" ht="19.5">
+    </row>
+    <row r="4" spans="1:30" ht="19.5">
       <c r="A4" s="13"/>
-      <c r="B4" s="26" t="s">
-        <v>92</v>
-      </c>
-      <c r="C4" s="27" t="s">
-        <v>93</v>
-      </c>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="3" t="s">
-        <v>11</v>
+      <c r="B4" s="25" t="s">
+        <v>89</v>
+      </c>
+      <c r="C4" s="9">
+        <v>1</v>
+      </c>
+      <c r="D4" s="9">
+        <v>0</v>
+      </c>
+      <c r="E4" s="9">
+        <v>1</v>
+      </c>
+      <c r="F4" s="3">
+        <v>5</v>
+      </c>
+      <c r="G4" s="3">
+        <v>12</v>
       </c>
       <c r="H4" s="3">
-        <v>12</v>
-      </c>
-      <c r="I4" s="3">
-        <v>1</v>
-      </c>
-      <c r="J4" s="5"/>
-      <c r="K4" s="3">
+        <v>6</v>
+      </c>
+      <c r="I4" s="5"/>
+      <c r="J4" s="3">
+        <v>10</v>
+      </c>
+      <c r="K4" s="9"/>
+      <c r="L4" s="5"/>
+      <c r="M4" s="5">
+        <v>3</v>
+      </c>
+      <c r="N4" s="5">
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="L4" s="9"/>
-      <c r="M4" s="5"/>
-      <c r="N4" s="28"/>
-      <c r="O4" s="28"/>
-      <c r="P4" s="5"/>
+      <c r="O4" s="5">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+      <c r="P4" s="9">
+        <v>10</v>
+      </c>
       <c r="Q4" s="5"/>
-      <c r="R4" s="5"/>
+      <c r="R4" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>3,7,18,10</v>
+      </c>
       <c r="S4" s="5"/>
       <c r="T4" s="5"/>
       <c r="U4" s="5"/>
@@ -37147,47 +36895,53 @@
       <c r="Z4" s="5"/>
       <c r="AA4" s="5"/>
       <c r="AB4" s="5"/>
-      <c r="AC4" s="5"/>
-      <c r="AD4" s="5"/>
-      <c r="AE4" s="5"/>
-    </row>
-    <row r="5" spans="1:31" ht="19.5">
+    </row>
+    <row r="5" spans="1:30" ht="19.5">
       <c r="A5" s="13"/>
-      <c r="B5" s="26" t="s">
-        <v>94</v>
-      </c>
-      <c r="C5" s="27" t="s">
-        <v>95</v>
-      </c>
-      <c r="D5" s="3" t="s">
+      <c r="B5" s="25" t="s">
+        <v>90</v>
+      </c>
+      <c r="C5" s="3">
+        <v>2</v>
+      </c>
+      <c r="D5" s="3">
+        <v>1</v>
+      </c>
+      <c r="E5" s="3">
+        <v>3</v>
+      </c>
+      <c r="F5" s="3">
+        <v>5</v>
+      </c>
+      <c r="G5" s="3">
+        <v>1</v>
+      </c>
+      <c r="H5" s="3">
+        <v>6</v>
+      </c>
+      <c r="I5" s="5"/>
+      <c r="J5" s="3">
+        <v>20</v>
+      </c>
+      <c r="K5" s="9"/>
+      <c r="L5" s="5"/>
+      <c r="M5" s="5"/>
+      <c r="N5" s="5">
+        <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="E5" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H5" s="3">
-        <v>1</v>
-      </c>
-      <c r="I5" s="3">
-        <v>1</v>
-      </c>
-      <c r="J5" s="5"/>
-      <c r="K5" s="3">
-        <v>2</v>
-      </c>
-      <c r="L5" s="9"/>
-      <c r="M5" s="5"/>
-      <c r="N5" s="28"/>
-      <c r="O5" s="28"/>
-      <c r="P5" s="5"/>
+      <c r="O5" s="5">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="P5" s="9">
+        <v>20</v>
+      </c>
       <c r="Q5" s="5"/>
-      <c r="R5" s="5"/>
+      <c r="R5" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>,11,7,20</v>
+      </c>
       <c r="S5" s="5"/>
       <c r="T5" s="5"/>
       <c r="U5" s="5"/>
@@ -37198,47 +36952,53 @@
       <c r="Z5" s="5"/>
       <c r="AA5" s="5"/>
       <c r="AB5" s="5"/>
-      <c r="AC5" s="5"/>
-      <c r="AD5" s="5"/>
-      <c r="AE5" s="5"/>
-    </row>
-    <row r="6" spans="1:31" ht="19.5">
+    </row>
+    <row r="6" spans="1:30" ht="19.5">
       <c r="A6" s="13"/>
-      <c r="B6" s="26" t="s">
-        <v>96</v>
-      </c>
-      <c r="C6" s="27" t="s">
-        <v>97</v>
-      </c>
-      <c r="D6" s="3" t="s">
+      <c r="B6" s="25" t="s">
+        <v>91</v>
+      </c>
+      <c r="C6" s="3">
+        <v>2</v>
+      </c>
+      <c r="D6" s="3">
+        <v>1</v>
+      </c>
+      <c r="E6" s="3">
+        <v>3</v>
+      </c>
+      <c r="F6" s="3">
+        <v>5</v>
+      </c>
+      <c r="G6" s="3">
+        <v>5</v>
+      </c>
+      <c r="H6" s="3">
+        <v>6</v>
+      </c>
+      <c r="I6" s="5"/>
+      <c r="J6" s="3">
+        <v>18</v>
+      </c>
+      <c r="K6" s="9"/>
+      <c r="L6" s="5"/>
+      <c r="M6" s="5"/>
+      <c r="N6" s="5">
+        <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="O6" s="5">
+        <f t="shared" si="1"/>
         <v>11</v>
       </c>
-      <c r="F6" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H6" s="3">
-        <v>5</v>
-      </c>
-      <c r="I6" s="3">
-        <v>1</v>
-      </c>
-      <c r="J6" s="5"/>
-      <c r="K6" s="3">
-        <v>3</v>
-      </c>
-      <c r="L6" s="9"/>
-      <c r="M6" s="5"/>
-      <c r="N6" s="28"/>
-      <c r="O6" s="28"/>
-      <c r="P6" s="5"/>
+      <c r="P6" s="9">
+        <v>18</v>
+      </c>
       <c r="Q6" s="5"/>
-      <c r="R6" s="5"/>
+      <c r="R6" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>,11,11,18</v>
+      </c>
       <c r="S6" s="5"/>
       <c r="T6" s="5"/>
       <c r="U6" s="5"/>
@@ -37249,41 +37009,53 @@
       <c r="Z6" s="5"/>
       <c r="AA6" s="5"/>
       <c r="AB6" s="5"/>
-      <c r="AC6" s="5"/>
-      <c r="AD6" s="5"/>
-      <c r="AE6" s="5"/>
-    </row>
-    <row r="7" spans="1:31" ht="19.5">
+    </row>
+    <row r="7" spans="1:30" ht="19.5">
       <c r="A7" s="13"/>
-      <c r="B7" s="26" t="s">
-        <v>98</v>
-      </c>
-      <c r="C7" s="27" t="s">
-        <v>99</v>
-      </c>
-      <c r="D7" s="9"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3" t="s">
-        <v>11</v>
+      <c r="B7" s="25" t="s">
+        <v>92</v>
+      </c>
+      <c r="C7" s="9">
+        <v>1</v>
+      </c>
+      <c r="D7" s="3">
+        <v>0</v>
+      </c>
+      <c r="E7" s="3">
+        <v>1</v>
+      </c>
+      <c r="F7" s="3">
+        <v>5</v>
+      </c>
+      <c r="G7" s="3">
+        <v>19</v>
       </c>
       <c r="H7" s="3">
-        <v>19</v>
-      </c>
-      <c r="I7" s="3">
-        <v>1</v>
-      </c>
-      <c r="J7" s="5"/>
-      <c r="K7" s="3">
         <v>6</v>
       </c>
-      <c r="L7" s="9"/>
+      <c r="I7" s="5"/>
+      <c r="J7" s="3">
+        <v>12</v>
+      </c>
+      <c r="K7" s="9"/>
+      <c r="L7" s="5"/>
       <c r="M7" s="5"/>
-      <c r="N7" s="28"/>
-      <c r="O7" s="28"/>
-      <c r="P7" s="5"/>
+      <c r="N7" s="5">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="O7" s="5">
+        <f t="shared" si="1"/>
+        <v>25</v>
+      </c>
+      <c r="P7" s="9">
+        <v>12</v>
+      </c>
       <c r="Q7" s="5"/>
-      <c r="R7" s="5"/>
+      <c r="R7" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>,7,25,12</v>
+      </c>
       <c r="S7" s="5"/>
       <c r="T7" s="5"/>
       <c r="U7" s="5"/>
@@ -37294,39 +37066,53 @@
       <c r="Z7" s="5"/>
       <c r="AA7" s="5"/>
       <c r="AB7" s="5"/>
-      <c r="AC7" s="5"/>
-      <c r="AD7" s="5"/>
-      <c r="AE7" s="5"/>
-    </row>
-    <row r="8" spans="1:31" ht="19.5">
+    </row>
+    <row r="8" spans="1:30" ht="19.5">
       <c r="A8" s="13"/>
-      <c r="B8" s="26" t="s">
-        <v>100</v>
-      </c>
-      <c r="C8" s="27" t="s">
-        <v>101</v>
-      </c>
-      <c r="D8" s="12"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3" t="s">
-        <v>11</v>
+      <c r="B8" s="25" t="s">
+        <v>93</v>
+      </c>
+      <c r="C8" s="12">
+        <v>1</v>
+      </c>
+      <c r="D8" s="3">
+        <v>0</v>
+      </c>
+      <c r="E8" s="3">
+        <v>1</v>
+      </c>
+      <c r="F8" s="3">
+        <v>5</v>
+      </c>
+      <c r="G8" s="3">
+        <v>13</v>
       </c>
       <c r="H8" s="3">
-        <v>13</v>
-      </c>
-      <c r="I8" s="3">
+        <v>6</v>
+      </c>
+      <c r="I8" s="5"/>
+      <c r="J8" s="3">
         <v>1</v>
       </c>
-      <c r="J8" s="5"/>
-      <c r="K8" s="3"/>
-      <c r="L8" s="9"/>
+      <c r="K8" s="9"/>
+      <c r="L8" s="5"/>
       <c r="M8" s="5"/>
-      <c r="N8" s="28"/>
-      <c r="O8" s="28"/>
-      <c r="P8" s="5"/>
+      <c r="N8" s="5">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="O8" s="5">
+        <f t="shared" si="1"/>
+        <v>19</v>
+      </c>
+      <c r="P8" s="9">
+        <v>1</v>
+      </c>
       <c r="Q8" s="5"/>
-      <c r="R8" s="5"/>
+      <c r="R8" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>,7,19,1</v>
+      </c>
       <c r="S8" s="5"/>
       <c r="T8" s="5"/>
       <c r="U8" s="5"/>
@@ -37337,39 +37123,53 @@
       <c r="Z8" s="5"/>
       <c r="AA8" s="5"/>
       <c r="AB8" s="5"/>
-      <c r="AC8" s="5"/>
-      <c r="AD8" s="5"/>
-      <c r="AE8" s="5"/>
-    </row>
-    <row r="9" spans="1:31" ht="19.5">
+    </row>
+    <row r="9" spans="1:30" ht="19.5">
       <c r="A9" s="13"/>
-      <c r="B9" s="26" t="s">
-        <v>102</v>
-      </c>
-      <c r="C9" s="27" t="s">
-        <v>103</v>
-      </c>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3" t="s">
-        <v>11</v>
+      <c r="B9" s="25" t="s">
+        <v>94</v>
+      </c>
+      <c r="C9" s="3">
+        <v>1</v>
+      </c>
+      <c r="D9" s="3">
+        <v>0</v>
+      </c>
+      <c r="E9" s="3">
+        <v>1</v>
+      </c>
+      <c r="F9" s="3">
+        <v>5</v>
+      </c>
+      <c r="G9" s="3">
+        <v>4</v>
       </c>
       <c r="H9" s="3">
-        <v>4</v>
-      </c>
-      <c r="I9" s="3">
+        <v>6</v>
+      </c>
+      <c r="I9" s="5"/>
+      <c r="J9" s="9">
         <v>1</v>
       </c>
-      <c r="J9" s="5"/>
       <c r="K9" s="9"/>
-      <c r="L9" s="9"/>
+      <c r="L9" s="5"/>
       <c r="M9" s="5"/>
-      <c r="N9" s="28"/>
-      <c r="O9" s="28"/>
-      <c r="P9" s="5"/>
+      <c r="N9" s="5">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="O9" s="5">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="P9" s="9">
+        <v>1</v>
+      </c>
       <c r="Q9" s="5"/>
-      <c r="R9" s="5"/>
+      <c r="R9" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>,7,10,1</v>
+      </c>
       <c r="S9" s="5"/>
       <c r="T9" s="5"/>
       <c r="U9" s="5"/>
@@ -37380,43 +37180,53 @@
       <c r="Z9" s="5"/>
       <c r="AA9" s="5"/>
       <c r="AB9" s="5"/>
-      <c r="AC9" s="5"/>
-      <c r="AD9" s="5"/>
-      <c r="AE9" s="5"/>
-    </row>
-    <row r="10" spans="1:31" ht="19.5">
+    </row>
+    <row r="10" spans="1:30" ht="19.5">
       <c r="A10" s="13"/>
-      <c r="B10" s="26" t="s">
-        <v>104</v>
-      </c>
-      <c r="C10" s="27" t="s">
-        <v>105</v>
-      </c>
-      <c r="D10" s="9"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>11</v>
+      <c r="B10" s="25" t="s">
+        <v>95</v>
+      </c>
+      <c r="C10" s="9">
+        <v>1</v>
+      </c>
+      <c r="D10" s="3">
+        <v>0</v>
+      </c>
+      <c r="E10" s="3">
+        <v>3</v>
+      </c>
+      <c r="F10" s="3">
+        <v>5</v>
+      </c>
+      <c r="G10" s="3">
+        <v>1</v>
       </c>
       <c r="H10" s="3">
-        <v>1</v>
-      </c>
-      <c r="I10" s="3">
-        <v>1</v>
-      </c>
-      <c r="J10" s="5"/>
-      <c r="K10" s="3">
-        <v>10</v>
-      </c>
-      <c r="L10" s="9"/>
+        <v>6</v>
+      </c>
+      <c r="I10" s="5"/>
+      <c r="J10" s="3">
+        <v>4</v>
+      </c>
+      <c r="K10" s="9"/>
+      <c r="L10" s="5"/>
       <c r="M10" s="5"/>
-      <c r="N10" s="28"/>
-      <c r="O10" s="28"/>
-      <c r="P10" s="5"/>
+      <c r="N10" s="5">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="O10" s="5">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="P10" s="9">
+        <v>4</v>
+      </c>
       <c r="Q10" s="5"/>
-      <c r="R10" s="5"/>
+      <c r="R10" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>,9,7,4</v>
+      </c>
       <c r="S10" s="5"/>
       <c r="T10" s="5"/>
       <c r="U10" s="5"/>
@@ -37427,45 +37237,53 @@
       <c r="Z10" s="5"/>
       <c r="AA10" s="5"/>
       <c r="AB10" s="5"/>
-      <c r="AC10" s="5"/>
-      <c r="AD10" s="5"/>
-      <c r="AE10" s="5"/>
-    </row>
-    <row r="11" spans="1:31" ht="19.5">
+    </row>
+    <row r="11" spans="1:30" ht="19.5">
       <c r="A11" s="13"/>
-      <c r="B11" s="26" t="s">
-        <v>106</v>
-      </c>
-      <c r="C11" s="27" t="s">
-        <v>107</v>
-      </c>
-      <c r="D11" s="9"/>
-      <c r="E11" s="3" t="s">
+      <c r="B11" s="25" t="s">
+        <v>96</v>
+      </c>
+      <c r="C11" s="9">
+        <v>1</v>
+      </c>
+      <c r="D11" s="3">
+        <v>1</v>
+      </c>
+      <c r="E11" s="3">
+        <v>3</v>
+      </c>
+      <c r="F11" s="3">
+        <v>5</v>
+      </c>
+      <c r="G11" s="3">
+        <v>5</v>
+      </c>
+      <c r="H11" s="3">
+        <v>6</v>
+      </c>
+      <c r="I11" s="5"/>
+      <c r="J11" s="3">
+        <v>8</v>
+      </c>
+      <c r="K11" s="9"/>
+      <c r="L11" s="5"/>
+      <c r="M11" s="5"/>
+      <c r="N11" s="5">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="O11" s="5">
+        <f t="shared" si="1"/>
         <v>11</v>
       </c>
-      <c r="F11" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G11" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H11" s="3">
-        <v>5</v>
-      </c>
-      <c r="I11" s="3">
-        <v>1</v>
-      </c>
-      <c r="J11" s="5"/>
-      <c r="K11" s="3">
+      <c r="P11" s="9">
         <v>8</v>
       </c>
-      <c r="L11" s="9"/>
-      <c r="M11" s="5"/>
-      <c r="N11" s="28"/>
-      <c r="O11" s="28"/>
-      <c r="P11" s="5"/>
       <c r="Q11" s="5"/>
-      <c r="R11" s="5"/>
+      <c r="R11" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>,10,11,8</v>
+      </c>
       <c r="S11" s="5"/>
       <c r="T11" s="5"/>
       <c r="U11" s="5"/>
@@ -37476,43 +37294,53 @@
       <c r="Z11" s="5"/>
       <c r="AA11" s="5"/>
       <c r="AB11" s="5"/>
-      <c r="AC11" s="5"/>
-      <c r="AD11" s="5"/>
-      <c r="AE11" s="5"/>
-    </row>
-    <row r="12" spans="1:31" ht="19.5">
+    </row>
+    <row r="12" spans="1:30" ht="19.5">
       <c r="A12" s="13"/>
-      <c r="B12" s="26" t="s">
-        <v>108</v>
-      </c>
-      <c r="C12" s="27" t="s">
-        <v>109</v>
-      </c>
-      <c r="D12" s="9"/>
-      <c r="E12" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3" t="s">
-        <v>11</v>
+      <c r="B12" s="25" t="s">
+        <v>97</v>
+      </c>
+      <c r="C12" s="9">
+        <v>1</v>
+      </c>
+      <c r="D12" s="3">
+        <v>1</v>
+      </c>
+      <c r="E12" s="3">
+        <v>1</v>
+      </c>
+      <c r="F12" s="3">
+        <v>5</v>
+      </c>
+      <c r="G12" s="3">
+        <v>4</v>
       </c>
       <c r="H12" s="3">
-        <v>4</v>
-      </c>
-      <c r="I12" s="3">
-        <v>1</v>
-      </c>
-      <c r="J12" s="5"/>
-      <c r="K12" s="3">
-        <v>9</v>
-      </c>
-      <c r="L12" s="9"/>
+        <v>6</v>
+      </c>
+      <c r="I12" s="5"/>
+      <c r="J12" s="3">
+        <v>6</v>
+      </c>
+      <c r="K12" s="9"/>
+      <c r="L12" s="5"/>
       <c r="M12" s="5"/>
-      <c r="N12" s="28"/>
-      <c r="O12" s="28"/>
-      <c r="P12" s="5"/>
+      <c r="N12" s="5">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="O12" s="5">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="P12" s="9">
+        <v>6</v>
+      </c>
       <c r="Q12" s="5"/>
-      <c r="R12" s="5"/>
+      <c r="R12" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>,8,10,6</v>
+      </c>
       <c r="S12" s="5"/>
       <c r="T12" s="5"/>
       <c r="U12" s="5"/>
@@ -37523,41 +37351,53 @@
       <c r="Z12" s="5"/>
       <c r="AA12" s="5"/>
       <c r="AB12" s="5"/>
-      <c r="AC12" s="5"/>
-      <c r="AD12" s="5"/>
-      <c r="AE12" s="5"/>
-    </row>
-    <row r="13" spans="1:31" ht="19.5">
+    </row>
+    <row r="13" spans="1:30" ht="19.5">
       <c r="A13" s="13"/>
-      <c r="B13" s="26" t="s">
-        <v>110</v>
-      </c>
-      <c r="C13" s="27" t="s">
-        <v>111</v>
-      </c>
-      <c r="D13" s="9"/>
-      <c r="E13" s="9"/>
-      <c r="F13" s="9"/>
-      <c r="G13" s="3" t="s">
-        <v>11</v>
+      <c r="B13" s="25" t="s">
+        <v>98</v>
+      </c>
+      <c r="C13" s="9">
+        <v>1</v>
+      </c>
+      <c r="D13" s="9">
+        <v>0</v>
+      </c>
+      <c r="E13" s="9">
+        <v>1</v>
+      </c>
+      <c r="F13" s="3">
+        <v>5</v>
+      </c>
+      <c r="G13" s="3">
+        <v>1</v>
       </c>
       <c r="H13" s="3">
-        <v>1</v>
-      </c>
-      <c r="I13" s="3">
-        <v>1</v>
-      </c>
-      <c r="J13" s="5"/>
-      <c r="K13" s="3">
-        <v>4</v>
-      </c>
-      <c r="L13" s="9"/>
+        <v>6</v>
+      </c>
+      <c r="I13" s="5"/>
+      <c r="J13" s="3">
+        <v>16</v>
+      </c>
+      <c r="K13" s="9"/>
+      <c r="L13" s="5"/>
       <c r="M13" s="5"/>
-      <c r="N13" s="28"/>
-      <c r="O13" s="28"/>
-      <c r="P13" s="5"/>
+      <c r="N13" s="5">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="O13" s="5">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="P13" s="9">
+        <v>16</v>
+      </c>
       <c r="Q13" s="5"/>
-      <c r="R13" s="5"/>
+      <c r="R13" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>,7,7,16</v>
+      </c>
       <c r="S13" s="5"/>
       <c r="T13" s="5"/>
       <c r="U13" s="5"/>
@@ -37568,37 +37408,53 @@
       <c r="Z13" s="5"/>
       <c r="AA13" s="5"/>
       <c r="AB13" s="5"/>
-      <c r="AC13" s="5"/>
-      <c r="AD13" s="5"/>
-      <c r="AE13" s="5"/>
-    </row>
-    <row r="14" spans="1:31" ht="19.5">
+    </row>
+    <row r="14" spans="1:30" ht="19.5">
       <c r="A14" s="13"/>
-      <c r="B14" s="26" t="s">
-        <v>112</v>
-      </c>
-      <c r="C14" s="27" t="s">
-        <v>113</v>
-      </c>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="9"/>
+      <c r="B14" s="25" t="s">
+        <v>99</v>
+      </c>
+      <c r="C14" s="3">
+        <v>1</v>
+      </c>
+      <c r="D14" s="3">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3">
+        <v>1</v>
+      </c>
+      <c r="F14" s="9">
+        <v>1</v>
+      </c>
+      <c r="G14" s="3">
+        <v>1</v>
+      </c>
       <c r="H14" s="3">
+        <v>6</v>
+      </c>
+      <c r="I14" s="5"/>
+      <c r="J14" s="9">
         <v>1</v>
       </c>
-      <c r="I14" s="3">
+      <c r="K14" s="9"/>
+      <c r="L14" s="5"/>
+      <c r="M14" s="5"/>
+      <c r="N14" s="5">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="O14" s="5">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="P14" s="9">
         <v>1</v>
       </c>
-      <c r="J14" s="5"/>
-      <c r="K14" s="9"/>
-      <c r="L14" s="9"/>
-      <c r="M14" s="5"/>
-      <c r="N14" s="28"/>
-      <c r="O14" s="28"/>
-      <c r="P14" s="5"/>
       <c r="Q14" s="5"/>
-      <c r="R14" s="5"/>
+      <c r="R14" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>,3,7,1</v>
+      </c>
       <c r="S14" s="5"/>
       <c r="T14" s="5"/>
       <c r="U14" s="5"/>
@@ -37609,37 +37465,53 @@
       <c r="Z14" s="5"/>
       <c r="AA14" s="5"/>
       <c r="AB14" s="5"/>
-      <c r="AC14" s="5"/>
-      <c r="AD14" s="5"/>
-      <c r="AE14" s="5"/>
-    </row>
-    <row r="15" spans="1:31" ht="19.5">
+    </row>
+    <row r="15" spans="1:30" ht="19.5">
       <c r="A15" s="13"/>
-      <c r="B15" s="26" t="s">
-        <v>114</v>
-      </c>
-      <c r="C15" s="27" t="s">
-        <v>115</v>
-      </c>
-      <c r="D15" s="9"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="9"/>
+      <c r="B15" s="25" t="s">
+        <v>100</v>
+      </c>
+      <c r="C15" s="9">
+        <v>1</v>
+      </c>
+      <c r="D15" s="3">
+        <v>0</v>
+      </c>
+      <c r="E15" s="3">
+        <v>1</v>
+      </c>
+      <c r="F15" s="9">
+        <v>1</v>
+      </c>
+      <c r="G15" s="3">
+        <v>11</v>
+      </c>
       <c r="H15" s="3">
-        <v>11</v>
-      </c>
-      <c r="I15" s="3">
+        <v>6</v>
+      </c>
+      <c r="I15" s="5"/>
+      <c r="J15" s="9">
         <v>1</v>
       </c>
-      <c r="J15" s="5"/>
       <c r="K15" s="9"/>
-      <c r="L15" s="9"/>
+      <c r="L15" s="5"/>
       <c r="M15" s="5"/>
-      <c r="N15" s="28"/>
-      <c r="O15" s="28"/>
-      <c r="P15" s="5"/>
+      <c r="N15" s="5">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="O15" s="5">
+        <f t="shared" si="1"/>
+        <v>17</v>
+      </c>
+      <c r="P15" s="9">
+        <v>1</v>
+      </c>
       <c r="Q15" s="5"/>
-      <c r="R15" s="5"/>
+      <c r="R15" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>,3,17,1</v>
+      </c>
       <c r="S15" s="5"/>
       <c r="T15" s="5"/>
       <c r="U15" s="5"/>
@@ -37650,39 +37522,53 @@
       <c r="Z15" s="5"/>
       <c r="AA15" s="5"/>
       <c r="AB15" s="5"/>
-      <c r="AC15" s="5"/>
-      <c r="AD15" s="5"/>
-      <c r="AE15" s="5"/>
-    </row>
-    <row r="16" spans="1:31" ht="19.5">
+    </row>
+    <row r="16" spans="1:30" ht="19.5">
       <c r="A16" s="13"/>
-      <c r="B16" s="26" t="s">
-        <v>116</v>
-      </c>
-      <c r="C16" s="29" t="s">
-        <v>117</v>
-      </c>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3" t="s">
+      <c r="B16" s="25" t="s">
+        <v>101</v>
+      </c>
+      <c r="C16" s="3">
+        <v>1</v>
+      </c>
+      <c r="D16" s="3">
+        <v>0</v>
+      </c>
+      <c r="E16" s="3">
+        <v>3</v>
+      </c>
+      <c r="F16" s="9">
+        <v>1</v>
+      </c>
+      <c r="G16" s="3">
+        <v>5</v>
+      </c>
+      <c r="H16" s="3">
+        <v>6</v>
+      </c>
+      <c r="I16" s="5"/>
+      <c r="J16" s="3">
+        <v>1</v>
+      </c>
+      <c r="K16" s="9"/>
+      <c r="L16" s="5"/>
+      <c r="M16" s="5"/>
+      <c r="N16" s="5">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="O16" s="5">
+        <f t="shared" si="1"/>
         <v>11</v>
       </c>
-      <c r="G16" s="9"/>
-      <c r="H16" s="3">
-        <v>5</v>
-      </c>
-      <c r="I16" s="3">
+      <c r="P16" s="9">
         <v>1</v>
       </c>
-      <c r="J16" s="5"/>
-      <c r="K16" s="3"/>
-      <c r="L16" s="9"/>
-      <c r="M16" s="5"/>
-      <c r="N16" s="28"/>
-      <c r="O16" s="28"/>
-      <c r="P16" s="5"/>
       <c r="Q16" s="5"/>
-      <c r="R16" s="5"/>
+      <c r="R16" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>,5,11,1</v>
+      </c>
       <c r="S16" s="5"/>
       <c r="T16" s="5"/>
       <c r="U16" s="5"/>
@@ -37693,37 +37579,53 @@
       <c r="Z16" s="5"/>
       <c r="AA16" s="5"/>
       <c r="AB16" s="5"/>
-      <c r="AC16" s="5"/>
-      <c r="AD16" s="5"/>
-      <c r="AE16" s="5"/>
-    </row>
-    <row r="17" spans="1:31" ht="19.5">
+    </row>
+    <row r="17" spans="1:28" ht="19.5">
       <c r="A17" s="13"/>
-      <c r="B17" s="26" t="s">
-        <v>118</v>
-      </c>
-      <c r="C17" s="27" t="s">
-        <v>119</v>
-      </c>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="9"/>
+      <c r="B17" s="25" t="s">
+        <v>102</v>
+      </c>
+      <c r="C17" s="3">
+        <v>1</v>
+      </c>
+      <c r="D17" s="3">
+        <v>0</v>
+      </c>
+      <c r="E17" s="3">
+        <v>1</v>
+      </c>
+      <c r="F17" s="9">
+        <v>1</v>
+      </c>
+      <c r="G17" s="3">
+        <v>17</v>
+      </c>
       <c r="H17" s="3">
-        <v>17</v>
-      </c>
-      <c r="I17" s="3">
+        <v>6</v>
+      </c>
+      <c r="I17" s="5"/>
+      <c r="J17" s="3">
         <v>1</v>
       </c>
-      <c r="J17" s="5"/>
-      <c r="K17" s="3"/>
-      <c r="L17" s="9"/>
+      <c r="K17" s="9"/>
+      <c r="L17" s="5"/>
       <c r="M17" s="5"/>
-      <c r="N17" s="28"/>
-      <c r="O17" s="28"/>
-      <c r="P17" s="5"/>
+      <c r="N17" s="5">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="O17" s="5">
+        <f t="shared" si="1"/>
+        <v>23</v>
+      </c>
+      <c r="P17" s="9">
+        <v>1</v>
+      </c>
       <c r="Q17" s="5"/>
-      <c r="R17" s="5"/>
+      <c r="R17" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>,3,23,1</v>
+      </c>
       <c r="S17" s="5"/>
       <c r="T17" s="5"/>
       <c r="U17" s="5"/>
@@ -37734,26 +37636,23 @@
       <c r="Z17" s="5"/>
       <c r="AA17" s="5"/>
       <c r="AB17" s="5"/>
-      <c r="AC17" s="5"/>
-      <c r="AD17" s="5"/>
-      <c r="AE17" s="5"/>
-    </row>
-    <row r="18" spans="1:31" ht="19.5">
+    </row>
+    <row r="18" spans="1:28" ht="19.5">
       <c r="A18" s="5"/>
-      <c r="B18" s="28"/>
-      <c r="C18" s="24"/>
-      <c r="D18" s="9"/>
+      <c r="B18" s="26"/>
+      <c r="C18" s="9"/>
+      <c r="D18" s="3"/>
       <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
+      <c r="F18" s="9"/>
       <c r="G18" s="9"/>
-      <c r="H18" s="9"/>
-      <c r="I18" s="3"/>
-      <c r="J18" s="5"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="5"/>
+      <c r="J18" s="9"/>
       <c r="K18" s="9"/>
-      <c r="L18" s="9"/>
+      <c r="L18" s="5"/>
       <c r="M18" s="5"/>
-      <c r="N18" s="28"/>
-      <c r="O18" s="28"/>
+      <c r="N18" s="5"/>
+      <c r="O18" s="5"/>
       <c r="P18" s="5"/>
       <c r="Q18" s="5"/>
       <c r="R18" s="5"/>
@@ -37767,45 +37666,55 @@
       <c r="Z18" s="5"/>
       <c r="AA18" s="5"/>
       <c r="AB18" s="5"/>
-      <c r="AC18" s="5"/>
-      <c r="AD18" s="5"/>
-      <c r="AE18" s="5"/>
-    </row>
-    <row r="19" spans="1:31" ht="19.5">
-      <c r="A19" s="30" t="s">
-        <v>48</v>
-      </c>
-      <c r="B19" s="31" t="s">
-        <v>120</v>
-      </c>
-      <c r="C19" s="32" t="s">
-        <v>121</v>
-      </c>
-      <c r="D19" s="9"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G19" s="3" t="s">
-        <v>11</v>
+    </row>
+    <row r="19" spans="1:28" ht="19.5">
+      <c r="A19" s="27" t="s">
+        <v>47</v>
+      </c>
+      <c r="B19" s="28" t="s">
+        <v>103</v>
+      </c>
+      <c r="C19" s="9">
+        <v>1</v>
+      </c>
+      <c r="D19" s="3">
+        <v>0</v>
+      </c>
+      <c r="E19" s="3">
+        <v>3</v>
+      </c>
+      <c r="F19" s="3">
+        <v>5</v>
+      </c>
+      <c r="G19" s="3">
+        <v>4</v>
       </c>
       <c r="H19" s="3">
-        <v>4</v>
-      </c>
-      <c r="I19" s="3">
-        <v>0</v>
-      </c>
-      <c r="J19" s="5"/>
-      <c r="K19" s="9"/>
-      <c r="L19" s="3">
-        <v>7</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I19" s="5"/>
+      <c r="J19" s="9"/>
+      <c r="K19" s="3">
+        <v>10</v>
+      </c>
+      <c r="L19" s="5"/>
       <c r="M19" s="5"/>
-      <c r="N19" s="28"/>
-      <c r="O19" s="28"/>
-      <c r="P19" s="5"/>
+      <c r="N19" s="5">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="O19" s="5">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="P19" s="9">
+        <v>10</v>
+      </c>
       <c r="Q19" s="5"/>
-      <c r="R19" s="5"/>
+      <c r="R19" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>,9,5,10</v>
+      </c>
       <c r="S19" s="5"/>
       <c r="T19" s="5"/>
       <c r="U19" s="5"/>
@@ -37816,39 +37725,53 @@
       <c r="Z19" s="5"/>
       <c r="AA19" s="5"/>
       <c r="AB19" s="5"/>
-      <c r="AC19" s="5"/>
-      <c r="AD19" s="5"/>
-      <c r="AE19" s="5"/>
-    </row>
-    <row r="20" spans="1:31" ht="19.5">
+    </row>
+    <row r="20" spans="1:28" ht="19.5">
       <c r="A20" s="20"/>
-      <c r="B20" s="31" t="s">
-        <v>122</v>
-      </c>
-      <c r="C20" s="32" t="s">
-        <v>123</v>
-      </c>
-      <c r="D20" s="9"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="3"/>
-      <c r="G20" s="3" t="s">
-        <v>11</v>
+      <c r="B20" s="28" t="s">
+        <v>104</v>
+      </c>
+      <c r="C20" s="9">
+        <v>1</v>
+      </c>
+      <c r="D20" s="3">
+        <v>0</v>
+      </c>
+      <c r="E20" s="3">
+        <v>1</v>
+      </c>
+      <c r="F20" s="3">
+        <v>5</v>
+      </c>
+      <c r="G20" s="3">
+        <v>4</v>
       </c>
       <c r="H20" s="3">
-        <v>4</v>
-      </c>
-      <c r="I20" s="3">
-        <v>0</v>
-      </c>
-      <c r="J20" s="5"/>
-      <c r="K20" s="9"/>
-      <c r="L20" s="9"/>
+        <v>1</v>
+      </c>
+      <c r="I20" s="5"/>
+      <c r="J20" s="9"/>
+      <c r="K20" s="9">
+        <v>1</v>
+      </c>
+      <c r="L20" s="5"/>
       <c r="M20" s="5"/>
-      <c r="N20" s="28"/>
-      <c r="O20" s="28"/>
-      <c r="P20" s="5"/>
+      <c r="N20" s="5">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="O20" s="5">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="P20" s="9">
+        <v>1</v>
+      </c>
       <c r="Q20" s="5"/>
-      <c r="R20" s="5"/>
+      <c r="R20" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>,7,5,1</v>
+      </c>
       <c r="S20" s="5"/>
       <c r="T20" s="5"/>
       <c r="U20" s="5"/>
@@ -37859,39 +37782,53 @@
       <c r="Z20" s="5"/>
       <c r="AA20" s="5"/>
       <c r="AB20" s="5"/>
-      <c r="AC20" s="5"/>
-      <c r="AD20" s="5"/>
-      <c r="AE20" s="5"/>
-    </row>
-    <row r="21" spans="1:31" ht="19.5">
+    </row>
+    <row r="21" spans="1:28" ht="19.5">
       <c r="A21" s="20"/>
-      <c r="B21" s="31" t="s">
-        <v>124</v>
-      </c>
-      <c r="C21" s="32" t="s">
-        <v>125</v>
-      </c>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
-      <c r="F21" s="3"/>
-      <c r="G21" s="3" t="s">
-        <v>11</v>
+      <c r="B21" s="28" t="s">
+        <v>105</v>
+      </c>
+      <c r="C21" s="3">
+        <v>1</v>
+      </c>
+      <c r="D21" s="3">
+        <v>0</v>
+      </c>
+      <c r="E21" s="3">
+        <v>1</v>
+      </c>
+      <c r="F21" s="3">
+        <v>5</v>
+      </c>
+      <c r="G21" s="3">
+        <v>4</v>
       </c>
       <c r="H21" s="3">
-        <v>4</v>
-      </c>
-      <c r="I21" s="3">
-        <v>0</v>
-      </c>
-      <c r="J21" s="5"/>
-      <c r="K21" s="3"/>
-      <c r="L21" s="9"/>
+        <v>1</v>
+      </c>
+      <c r="I21" s="5"/>
+      <c r="J21" s="3"/>
+      <c r="K21" s="9">
+        <v>1</v>
+      </c>
+      <c r="L21" s="5"/>
       <c r="M21" s="5"/>
-      <c r="N21" s="28"/>
-      <c r="O21" s="28"/>
-      <c r="P21" s="5"/>
+      <c r="N21" s="5">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="O21" s="5">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="P21" s="9">
+        <v>1</v>
+      </c>
       <c r="Q21" s="5"/>
-      <c r="R21" s="5"/>
+      <c r="R21" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>,7,5,1</v>
+      </c>
       <c r="S21" s="5"/>
       <c r="T21" s="5"/>
       <c r="U21" s="5"/>
@@ -37902,39 +37839,53 @@
       <c r="Z21" s="5"/>
       <c r="AA21" s="5"/>
       <c r="AB21" s="5"/>
-      <c r="AC21" s="5"/>
-      <c r="AD21" s="5"/>
-      <c r="AE21" s="5"/>
-    </row>
-    <row r="22" spans="1:31" ht="19.5">
+    </row>
+    <row r="22" spans="1:28" ht="19.5">
       <c r="A22" s="20"/>
-      <c r="B22" s="31" t="s">
-        <v>126</v>
-      </c>
-      <c r="C22" s="33" t="s">
-        <v>127</v>
-      </c>
-      <c r="D22" s="9"/>
-      <c r="E22" s="9"/>
-      <c r="F22" s="9"/>
-      <c r="G22" s="3" t="s">
-        <v>11</v>
+      <c r="B22" s="28" t="s">
+        <v>106</v>
+      </c>
+      <c r="C22" s="9">
+        <v>1</v>
+      </c>
+      <c r="D22" s="9">
+        <v>0</v>
+      </c>
+      <c r="E22" s="9">
+        <v>1</v>
+      </c>
+      <c r="F22" s="3">
+        <v>5</v>
+      </c>
+      <c r="G22" s="3">
+        <v>4</v>
       </c>
       <c r="H22" s="3">
-        <v>4</v>
-      </c>
-      <c r="I22" s="3">
-        <v>0</v>
-      </c>
-      <c r="J22" s="5"/>
-      <c r="K22" s="9"/>
-      <c r="L22" s="9"/>
+        <v>1</v>
+      </c>
+      <c r="I22" s="5"/>
+      <c r="J22" s="9"/>
+      <c r="K22" s="9">
+        <v>1</v>
+      </c>
+      <c r="L22" s="5"/>
       <c r="M22" s="5"/>
-      <c r="N22" s="28"/>
-      <c r="O22" s="28"/>
-      <c r="P22" s="5"/>
+      <c r="N22" s="5">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="O22" s="5">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="P22" s="9">
+        <v>1</v>
+      </c>
       <c r="Q22" s="5"/>
-      <c r="R22" s="5"/>
+      <c r="R22" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>,7,5,1</v>
+      </c>
       <c r="S22" s="5"/>
       <c r="T22" s="5"/>
       <c r="U22" s="5"/>
@@ -37945,41 +37896,53 @@
       <c r="Z22" s="5"/>
       <c r="AA22" s="5"/>
       <c r="AB22" s="5"/>
-      <c r="AC22" s="5"/>
-      <c r="AD22" s="5"/>
-      <c r="AE22" s="5"/>
-    </row>
-    <row r="23" spans="1:31" ht="19.5">
+    </row>
+    <row r="23" spans="1:28" ht="19.5">
       <c r="A23" s="20"/>
-      <c r="B23" s="31" t="s">
-        <v>128</v>
-      </c>
-      <c r="C23" s="32" t="s">
-        <v>129</v>
-      </c>
-      <c r="D23" s="3"/>
-      <c r="E23" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F23" s="3"/>
-      <c r="G23" s="3" t="s">
-        <v>11</v>
+      <c r="B23" s="28" t="s">
+        <v>107</v>
+      </c>
+      <c r="C23" s="3">
+        <v>1</v>
+      </c>
+      <c r="D23" s="3">
+        <v>1</v>
+      </c>
+      <c r="E23" s="3">
+        <v>1</v>
+      </c>
+      <c r="F23" s="3">
+        <v>5</v>
+      </c>
+      <c r="G23" s="3">
+        <v>5</v>
       </c>
       <c r="H23" s="3">
-        <v>5</v>
-      </c>
-      <c r="I23" s="3">
-        <v>0</v>
-      </c>
-      <c r="J23" s="5"/>
-      <c r="K23" s="9"/>
-      <c r="L23" s="9"/>
+        <v>1</v>
+      </c>
+      <c r="I23" s="5"/>
+      <c r="J23" s="9"/>
+      <c r="K23" s="9">
+        <v>1</v>
+      </c>
+      <c r="L23" s="5"/>
       <c r="M23" s="5"/>
-      <c r="N23" s="28"/>
-      <c r="O23" s="28"/>
-      <c r="P23" s="5"/>
+      <c r="N23" s="5">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="O23" s="5">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="P23" s="9">
+        <v>1</v>
+      </c>
       <c r="Q23" s="5"/>
-      <c r="R23" s="5"/>
+      <c r="R23" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>,8,6,1</v>
+      </c>
       <c r="S23" s="5"/>
       <c r="T23" s="5"/>
       <c r="U23" s="5"/>
@@ -37990,43 +37953,53 @@
       <c r="Z23" s="5"/>
       <c r="AA23" s="5"/>
       <c r="AB23" s="5"/>
-      <c r="AC23" s="5"/>
-      <c r="AD23" s="5"/>
-      <c r="AE23" s="5"/>
-    </row>
-    <row r="24" spans="1:31" ht="19.5">
+    </row>
+    <row r="24" spans="1:28" ht="19.5">
       <c r="A24" s="20"/>
-      <c r="B24" s="31" t="s">
-        <v>130</v>
-      </c>
-      <c r="C24" s="32" t="s">
-        <v>131</v>
-      </c>
-      <c r="D24" s="9"/>
-      <c r="E24" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F24" s="3"/>
-      <c r="G24" s="3" t="s">
-        <v>11</v>
+      <c r="B24" s="28" t="s">
+        <v>108</v>
+      </c>
+      <c r="C24" s="9">
+        <v>1</v>
+      </c>
+      <c r="D24" s="3">
+        <v>1</v>
+      </c>
+      <c r="E24" s="3">
+        <v>1</v>
+      </c>
+      <c r="F24" s="3">
+        <v>5</v>
+      </c>
+      <c r="G24" s="3">
+        <v>8</v>
       </c>
       <c r="H24" s="3">
+        <v>1</v>
+      </c>
+      <c r="I24" s="5"/>
+      <c r="J24" s="3"/>
+      <c r="K24" s="3">
+        <v>16</v>
+      </c>
+      <c r="L24" s="5"/>
+      <c r="M24" s="5"/>
+      <c r="N24" s="5">
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="I24" s="3">
-        <v>0</v>
-      </c>
-      <c r="J24" s="5"/>
-      <c r="K24" s="3"/>
-      <c r="L24" s="3">
-        <v>4</v>
-      </c>
-      <c r="M24" s="5"/>
-      <c r="N24" s="28"/>
-      <c r="O24" s="28"/>
-      <c r="P24" s="5"/>
+      <c r="O24" s="5">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="P24" s="9">
+        <v>16</v>
+      </c>
       <c r="Q24" s="5"/>
-      <c r="R24" s="5"/>
+      <c r="R24" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>,8,9,16</v>
+      </c>
       <c r="S24" s="5"/>
       <c r="T24" s="5"/>
       <c r="U24" s="5"/>
@@ -38037,41 +38010,53 @@
       <c r="Z24" s="5"/>
       <c r="AA24" s="5"/>
       <c r="AB24" s="5"/>
-      <c r="AC24" s="5"/>
-      <c r="AD24" s="5"/>
-      <c r="AE24" s="5"/>
-    </row>
-    <row r="25" spans="1:31" ht="19.5">
+    </row>
+    <row r="25" spans="1:28" ht="19.5">
       <c r="A25" s="20"/>
-      <c r="B25" s="31" t="s">
-        <v>132</v>
-      </c>
-      <c r="C25" s="32" t="s">
-        <v>133</v>
-      </c>
-      <c r="D25" s="9"/>
-      <c r="E25" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F25" s="3"/>
-      <c r="G25" s="3" t="s">
-        <v>11</v>
+      <c r="B25" s="28" t="s">
+        <v>109</v>
+      </c>
+      <c r="C25" s="9">
+        <v>1</v>
+      </c>
+      <c r="D25" s="3">
+        <v>1</v>
+      </c>
+      <c r="E25" s="3">
+        <v>1</v>
+      </c>
+      <c r="F25" s="3">
+        <v>5</v>
+      </c>
+      <c r="G25" s="3">
+        <v>5</v>
       </c>
       <c r="H25" s="3">
-        <v>5</v>
-      </c>
-      <c r="I25" s="3">
-        <v>0</v>
-      </c>
-      <c r="J25" s="5"/>
-      <c r="K25" s="3"/>
-      <c r="L25" s="9"/>
+        <v>1</v>
+      </c>
+      <c r="I25" s="5"/>
+      <c r="J25" s="3"/>
+      <c r="K25" s="9">
+        <v>1</v>
+      </c>
+      <c r="L25" s="5"/>
       <c r="M25" s="5"/>
-      <c r="N25" s="28"/>
-      <c r="O25" s="28"/>
-      <c r="P25" s="5"/>
+      <c r="N25" s="5">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="O25" s="5">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="P25" s="9">
+        <v>1</v>
+      </c>
       <c r="Q25" s="5"/>
-      <c r="R25" s="5"/>
+      <c r="R25" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>,8,6,1</v>
+      </c>
       <c r="S25" s="5"/>
       <c r="T25" s="5"/>
       <c r="U25" s="5"/>
@@ -38082,43 +38067,53 @@
       <c r="Z25" s="5"/>
       <c r="AA25" s="5"/>
       <c r="AB25" s="5"/>
-      <c r="AC25" s="5"/>
-      <c r="AD25" s="5"/>
-      <c r="AE25" s="5"/>
-    </row>
-    <row r="26" spans="1:31" ht="19.5">
+    </row>
+    <row r="26" spans="1:28" ht="19.5">
       <c r="A26" s="20"/>
-      <c r="B26" s="31" t="s">
-        <v>134</v>
-      </c>
-      <c r="C26" s="32" t="s">
-        <v>135</v>
-      </c>
-      <c r="D26" s="9"/>
-      <c r="E26" s="9"/>
-      <c r="F26" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G26" s="3" t="s">
-        <v>11</v>
+      <c r="B26" s="28" t="s">
+        <v>110</v>
+      </c>
+      <c r="C26" s="9">
+        <v>1</v>
+      </c>
+      <c r="D26" s="9">
+        <v>0</v>
+      </c>
+      <c r="E26" s="3">
+        <v>3</v>
+      </c>
+      <c r="F26" s="3">
+        <v>5</v>
+      </c>
+      <c r="G26" s="3">
+        <v>2</v>
       </c>
       <c r="H26" s="3">
-        <v>2</v>
-      </c>
-      <c r="I26" s="3">
-        <v>0</v>
-      </c>
-      <c r="J26" s="5"/>
-      <c r="K26" s="9"/>
-      <c r="L26" s="3">
+        <v>1</v>
+      </c>
+      <c r="I26" s="5"/>
+      <c r="J26" s="9"/>
+      <c r="K26" s="3">
+        <v>18</v>
+      </c>
+      <c r="L26" s="5"/>
+      <c r="M26" s="5"/>
+      <c r="N26" s="5">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="O26" s="5">
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="M26" s="5"/>
-      <c r="N26" s="28"/>
-      <c r="O26" s="28"/>
-      <c r="P26" s="5"/>
+      <c r="P26" s="9">
+        <v>18</v>
+      </c>
       <c r="Q26" s="5"/>
-      <c r="R26" s="5"/>
+      <c r="R26" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>,9,3,18</v>
+      </c>
       <c r="S26" s="5"/>
       <c r="T26" s="5"/>
       <c r="U26" s="5"/>
@@ -38129,41 +38124,53 @@
       <c r="Z26" s="5"/>
       <c r="AA26" s="5"/>
       <c r="AB26" s="5"/>
-      <c r="AC26" s="5"/>
-      <c r="AD26" s="5"/>
-      <c r="AE26" s="5"/>
-    </row>
-    <row r="27" spans="1:31" ht="19.5">
+    </row>
+    <row r="27" spans="1:28" ht="19.5">
       <c r="A27" s="20"/>
-      <c r="B27" s="31" t="s">
-        <v>136</v>
-      </c>
-      <c r="C27" s="32" t="s">
-        <v>137</v>
-      </c>
-      <c r="D27" s="3"/>
-      <c r="E27" s="3"/>
-      <c r="F27" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G27" s="3" t="s">
-        <v>11</v>
+      <c r="B27" s="28" t="s">
+        <v>111</v>
+      </c>
+      <c r="C27" s="3">
+        <v>1</v>
+      </c>
+      <c r="D27" s="3">
+        <v>0</v>
+      </c>
+      <c r="E27" s="3">
+        <v>3</v>
+      </c>
+      <c r="F27" s="3">
+        <v>5</v>
+      </c>
+      <c r="G27" s="3">
+        <v>4</v>
       </c>
       <c r="H27" s="3">
-        <v>4</v>
-      </c>
-      <c r="I27" s="3">
-        <v>0</v>
-      </c>
-      <c r="J27" s="5"/>
-      <c r="K27" s="3"/>
-      <c r="L27" s="9"/>
+        <v>1</v>
+      </c>
+      <c r="I27" s="5"/>
+      <c r="J27" s="3"/>
+      <c r="K27" s="9">
+        <v>1</v>
+      </c>
+      <c r="L27" s="5"/>
       <c r="M27" s="5"/>
-      <c r="N27" s="28"/>
-      <c r="O27" s="28"/>
-      <c r="P27" s="5"/>
+      <c r="N27" s="5">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="O27" s="5">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="P27" s="9">
+        <v>1</v>
+      </c>
       <c r="Q27" s="5"/>
-      <c r="R27" s="5"/>
+      <c r="R27" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>,9,5,1</v>
+      </c>
       <c r="S27" s="5"/>
       <c r="T27" s="5"/>
       <c r="U27" s="5"/>
@@ -38174,41 +38181,53 @@
       <c r="Z27" s="5"/>
       <c r="AA27" s="5"/>
       <c r="AB27" s="5"/>
-      <c r="AC27" s="5"/>
-      <c r="AD27" s="5"/>
-      <c r="AE27" s="5"/>
-    </row>
-    <row r="28" spans="1:31" ht="19.5">
+    </row>
+    <row r="28" spans="1:28" ht="19.5">
       <c r="A28" s="20"/>
-      <c r="B28" s="31" t="s">
-        <v>138</v>
-      </c>
-      <c r="C28" s="32" t="s">
-        <v>139</v>
-      </c>
-      <c r="D28" s="9"/>
-      <c r="E28" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F28" s="3"/>
-      <c r="G28" s="3" t="s">
-        <v>11</v>
+      <c r="B28" s="28" t="s">
+        <v>112</v>
+      </c>
+      <c r="C28" s="9">
+        <v>1</v>
+      </c>
+      <c r="D28" s="3">
+        <v>1</v>
+      </c>
+      <c r="E28" s="3">
+        <v>1</v>
+      </c>
+      <c r="F28" s="3">
+        <v>5</v>
+      </c>
+      <c r="G28" s="3">
+        <v>8</v>
       </c>
       <c r="H28" s="3">
+        <v>1</v>
+      </c>
+      <c r="I28" s="5"/>
+      <c r="J28" s="9"/>
+      <c r="K28" s="9">
+        <v>1</v>
+      </c>
+      <c r="L28" s="5"/>
+      <c r="M28" s="5"/>
+      <c r="N28" s="5">
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="I28" s="3">
-        <v>0</v>
-      </c>
-      <c r="J28" s="5"/>
-      <c r="K28" s="9"/>
-      <c r="L28" s="9"/>
-      <c r="M28" s="5"/>
-      <c r="N28" s="28"/>
-      <c r="O28" s="28"/>
-      <c r="P28" s="5"/>
+      <c r="O28" s="5">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="P28" s="9">
+        <v>1</v>
+      </c>
       <c r="Q28" s="5"/>
-      <c r="R28" s="5"/>
+      <c r="R28" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>,8,9,1</v>
+      </c>
       <c r="S28" s="5"/>
       <c r="T28" s="5"/>
       <c r="U28" s="5"/>
@@ -38219,39 +38238,53 @@
       <c r="Z28" s="5"/>
       <c r="AA28" s="5"/>
       <c r="AB28" s="5"/>
-      <c r="AC28" s="5"/>
-      <c r="AD28" s="5"/>
-      <c r="AE28" s="5"/>
-    </row>
-    <row r="29" spans="1:31" ht="19.5">
+    </row>
+    <row r="29" spans="1:28" ht="19.5">
       <c r="A29" s="20"/>
-      <c r="B29" s="31" t="s">
-        <v>140</v>
-      </c>
-      <c r="C29" s="32" t="s">
-        <v>141</v>
-      </c>
-      <c r="D29" s="9"/>
-      <c r="E29" s="9"/>
-      <c r="F29" s="9"/>
-      <c r="G29" s="3" t="s">
-        <v>11</v>
+      <c r="B29" s="28" t="s">
+        <v>113</v>
+      </c>
+      <c r="C29" s="9">
+        <v>1</v>
+      </c>
+      <c r="D29" s="9">
+        <v>0</v>
+      </c>
+      <c r="E29" s="9">
+        <v>1</v>
+      </c>
+      <c r="F29" s="3">
+        <v>5</v>
+      </c>
+      <c r="G29" s="3">
+        <v>5</v>
       </c>
       <c r="H29" s="3">
-        <v>5</v>
-      </c>
-      <c r="I29" s="3">
-        <v>0</v>
-      </c>
-      <c r="J29" s="5"/>
-      <c r="K29" s="9"/>
-      <c r="L29" s="9"/>
+        <v>1</v>
+      </c>
+      <c r="I29" s="5"/>
+      <c r="J29" s="9"/>
+      <c r="K29" s="9">
+        <v>1</v>
+      </c>
+      <c r="L29" s="5"/>
       <c r="M29" s="5"/>
-      <c r="N29" s="28"/>
-      <c r="O29" s="28"/>
-      <c r="P29" s="5"/>
+      <c r="N29" s="5">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="O29" s="5">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="P29" s="9">
+        <v>1</v>
+      </c>
       <c r="Q29" s="5"/>
-      <c r="R29" s="5"/>
+      <c r="R29" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>,7,6,1</v>
+      </c>
       <c r="S29" s="5"/>
       <c r="T29" s="5"/>
       <c r="U29" s="5"/>
@@ -38262,37 +38295,53 @@
       <c r="Z29" s="5"/>
       <c r="AA29" s="5"/>
       <c r="AB29" s="5"/>
-      <c r="AC29" s="5"/>
-      <c r="AD29" s="5"/>
-      <c r="AE29" s="5"/>
-    </row>
-    <row r="30" spans="1:31" ht="19.5">
+    </row>
+    <row r="30" spans="1:28" ht="19.5">
       <c r="A30" s="20"/>
-      <c r="B30" s="31" t="s">
-        <v>142</v>
-      </c>
-      <c r="C30" s="32" t="s">
-        <v>143</v>
-      </c>
-      <c r="D30" s="9"/>
-      <c r="E30" s="3"/>
-      <c r="F30" s="3"/>
-      <c r="G30" s="9"/>
+      <c r="B30" s="28" t="s">
+        <v>114</v>
+      </c>
+      <c r="C30" s="9">
+        <v>1</v>
+      </c>
+      <c r="D30" s="3">
+        <v>0</v>
+      </c>
+      <c r="E30" s="3">
+        <v>1</v>
+      </c>
+      <c r="F30" s="9">
+        <v>1</v>
+      </c>
+      <c r="G30" s="3">
+        <v>8</v>
+      </c>
       <c r="H30" s="3">
-        <v>8</v>
-      </c>
-      <c r="I30" s="3">
-        <v>0</v>
-      </c>
-      <c r="J30" s="5"/>
-      <c r="K30" s="9"/>
-      <c r="L30" s="9"/>
+        <v>1</v>
+      </c>
+      <c r="I30" s="5"/>
+      <c r="J30" s="9"/>
+      <c r="K30" s="9">
+        <v>1</v>
+      </c>
+      <c r="L30" s="5"/>
       <c r="M30" s="5"/>
-      <c r="N30" s="28"/>
-      <c r="O30" s="28"/>
-      <c r="P30" s="5"/>
+      <c r="N30" s="5">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="O30" s="5">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="P30" s="9">
+        <v>1</v>
+      </c>
       <c r="Q30" s="5"/>
-      <c r="R30" s="5"/>
+      <c r="R30" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>,3,9,1</v>
+      </c>
       <c r="S30" s="5"/>
       <c r="T30" s="5"/>
       <c r="U30" s="5"/>
@@ -38303,39 +38352,53 @@
       <c r="Z30" s="5"/>
       <c r="AA30" s="5"/>
       <c r="AB30" s="5"/>
-      <c r="AC30" s="5"/>
-      <c r="AD30" s="5"/>
-      <c r="AE30" s="5"/>
-    </row>
-    <row r="31" spans="1:31" ht="19.5">
+    </row>
+    <row r="31" spans="1:28" ht="19.5">
       <c r="A31" s="20"/>
-      <c r="B31" s="31" t="s">
-        <v>144</v>
-      </c>
-      <c r="C31" s="32" t="s">
-        <v>145</v>
-      </c>
-      <c r="D31" s="3"/>
-      <c r="E31" s="3"/>
-      <c r="F31" s="3"/>
-      <c r="G31" s="3" t="s">
-        <v>11</v>
+      <c r="B31" s="28" t="s">
+        <v>115</v>
+      </c>
+      <c r="C31" s="3">
+        <v>1</v>
+      </c>
+      <c r="D31" s="3">
+        <v>0</v>
+      </c>
+      <c r="E31" s="3">
+        <v>1</v>
+      </c>
+      <c r="F31" s="3">
+        <v>5</v>
+      </c>
+      <c r="G31" s="3">
+        <v>20</v>
       </c>
       <c r="H31" s="3">
-        <v>20</v>
-      </c>
-      <c r="I31" s="3">
-        <v>0</v>
-      </c>
-      <c r="J31" s="5"/>
-      <c r="K31" s="3"/>
-      <c r="L31" s="9"/>
+        <v>1</v>
+      </c>
+      <c r="I31" s="5"/>
+      <c r="J31" s="3"/>
+      <c r="K31" s="9">
+        <v>1</v>
+      </c>
+      <c r="L31" s="5"/>
       <c r="M31" s="5"/>
-      <c r="N31" s="28"/>
-      <c r="O31" s="28"/>
-      <c r="P31" s="5"/>
+      <c r="N31" s="5">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="O31" s="5">
+        <f t="shared" si="1"/>
+        <v>21</v>
+      </c>
+      <c r="P31" s="9">
+        <v>1</v>
+      </c>
       <c r="Q31" s="5"/>
-      <c r="R31" s="5"/>
+      <c r="R31" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>,7,21,1</v>
+      </c>
       <c r="S31" s="5"/>
       <c r="T31" s="5"/>
       <c r="U31" s="5"/>
@@ -38346,43 +38409,53 @@
       <c r="Z31" s="5"/>
       <c r="AA31" s="5"/>
       <c r="AB31" s="5"/>
-      <c r="AC31" s="5"/>
-      <c r="AD31" s="5"/>
-      <c r="AE31" s="5"/>
-    </row>
-    <row r="32" spans="1:31" ht="19.5">
+    </row>
+    <row r="32" spans="1:28" ht="19.5">
       <c r="A32" s="20"/>
-      <c r="B32" s="31" t="s">
-        <v>146</v>
-      </c>
-      <c r="C32" s="32" t="s">
-        <v>147</v>
-      </c>
-      <c r="D32" s="3"/>
-      <c r="E32" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F32" s="3"/>
-      <c r="G32" s="3" t="s">
-        <v>11</v>
+      <c r="B32" s="28" t="s">
+        <v>116</v>
+      </c>
+      <c r="C32" s="3">
+        <v>1</v>
+      </c>
+      <c r="D32" s="3">
+        <v>1</v>
+      </c>
+      <c r="E32" s="3">
+        <v>1</v>
+      </c>
+      <c r="F32" s="3">
+        <v>5</v>
+      </c>
+      <c r="G32" s="3">
+        <v>6</v>
       </c>
       <c r="H32" s="3">
-        <v>6</v>
-      </c>
-      <c r="I32" s="3">
-        <v>0</v>
-      </c>
-      <c r="J32" s="5"/>
-      <c r="K32" s="3"/>
-      <c r="L32" s="3">
-        <v>5</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I32" s="5"/>
+      <c r="J32" s="3"/>
+      <c r="K32" s="3">
+        <v>14</v>
+      </c>
+      <c r="L32" s="5"/>
       <c r="M32" s="5"/>
-      <c r="N32" s="28"/>
-      <c r="O32" s="28"/>
-      <c r="P32" s="5"/>
+      <c r="N32" s="5">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="O32" s="5">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="P32" s="9">
+        <v>14</v>
+      </c>
       <c r="Q32" s="5"/>
-      <c r="R32" s="5"/>
+      <c r="R32" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>,8,7,14</v>
+      </c>
       <c r="S32" s="5"/>
       <c r="T32" s="5"/>
       <c r="U32" s="5"/>
@@ -38393,37 +38466,53 @@
       <c r="Z32" s="5"/>
       <c r="AA32" s="5"/>
       <c r="AB32" s="5"/>
-      <c r="AC32" s="5"/>
-      <c r="AD32" s="5"/>
-      <c r="AE32" s="5"/>
-    </row>
-    <row r="33" spans="1:31" ht="19.5">
+    </row>
+    <row r="33" spans="1:28" ht="19.5">
       <c r="A33" s="20"/>
-      <c r="B33" s="31" t="s">
-        <v>148</v>
-      </c>
-      <c r="C33" s="32" t="s">
-        <v>149</v>
-      </c>
-      <c r="D33" s="9"/>
-      <c r="E33" s="3"/>
-      <c r="F33" s="3"/>
-      <c r="G33" s="9"/>
+      <c r="B33" s="28" t="s">
+        <v>117</v>
+      </c>
+      <c r="C33" s="9">
+        <v>1</v>
+      </c>
+      <c r="D33" s="3">
+        <v>0</v>
+      </c>
+      <c r="E33" s="3">
+        <v>1</v>
+      </c>
+      <c r="F33" s="9">
+        <v>1</v>
+      </c>
+      <c r="G33" s="3">
+        <v>5</v>
+      </c>
       <c r="H33" s="3">
-        <v>5</v>
-      </c>
-      <c r="I33" s="3">
-        <v>0</v>
-      </c>
-      <c r="J33" s="5"/>
-      <c r="K33" s="3"/>
-      <c r="L33" s="9"/>
+        <v>1</v>
+      </c>
+      <c r="I33" s="5"/>
+      <c r="J33" s="3"/>
+      <c r="K33" s="9">
+        <v>1</v>
+      </c>
+      <c r="L33" s="5"/>
       <c r="M33" s="5"/>
-      <c r="N33" s="28"/>
-      <c r="O33" s="28"/>
-      <c r="P33" s="5"/>
+      <c r="N33" s="5">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="O33" s="5">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="P33" s="9">
+        <v>1</v>
+      </c>
       <c r="Q33" s="5"/>
-      <c r="R33" s="5"/>
+      <c r="R33" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>,3,6,1</v>
+      </c>
       <c r="S33" s="5"/>
       <c r="T33" s="5"/>
       <c r="U33" s="5"/>
@@ -38434,39 +38523,53 @@
       <c r="Z33" s="5"/>
       <c r="AA33" s="5"/>
       <c r="AB33" s="5"/>
-      <c r="AC33" s="5"/>
-      <c r="AD33" s="5"/>
-      <c r="AE33" s="5"/>
-    </row>
-    <row r="34" spans="1:31" ht="19.5">
+    </row>
+    <row r="34" spans="1:28" ht="19.5">
       <c r="A34" s="20"/>
-      <c r="B34" s="31" t="s">
-        <v>150</v>
-      </c>
-      <c r="C34" s="32" t="s">
-        <v>151</v>
-      </c>
-      <c r="D34" s="9"/>
-      <c r="E34" s="3"/>
-      <c r="F34" s="3"/>
-      <c r="G34" s="3" t="s">
-        <v>11</v>
+      <c r="B34" s="28" t="s">
+        <v>118</v>
+      </c>
+      <c r="C34" s="9">
+        <v>1</v>
+      </c>
+      <c r="D34" s="3">
+        <v>0</v>
+      </c>
+      <c r="E34" s="3">
+        <v>1</v>
+      </c>
+      <c r="F34" s="3">
+        <v>5</v>
+      </c>
+      <c r="G34" s="3">
+        <v>12</v>
       </c>
       <c r="H34" s="3">
-        <v>12</v>
-      </c>
-      <c r="I34" s="3">
-        <v>0</v>
-      </c>
-      <c r="J34" s="5"/>
-      <c r="K34" s="9"/>
-      <c r="L34" s="9"/>
+        <v>1</v>
+      </c>
+      <c r="I34" s="5"/>
+      <c r="J34" s="9"/>
+      <c r="K34" s="9">
+        <v>1</v>
+      </c>
+      <c r="L34" s="5"/>
       <c r="M34" s="5"/>
-      <c r="N34" s="28"/>
-      <c r="O34" s="28"/>
-      <c r="P34" s="5"/>
+      <c r="N34" s="5">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="O34" s="5">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
+      <c r="P34" s="9">
+        <v>1</v>
+      </c>
       <c r="Q34" s="5"/>
-      <c r="R34" s="5"/>
+      <c r="R34" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>,7,13,1</v>
+      </c>
       <c r="S34" s="5"/>
       <c r="T34" s="5"/>
       <c r="U34" s="5"/>
@@ -38477,37 +38580,53 @@
       <c r="Z34" s="5"/>
       <c r="AA34" s="5"/>
       <c r="AB34" s="5"/>
-      <c r="AC34" s="5"/>
-      <c r="AD34" s="5"/>
-      <c r="AE34" s="5"/>
-    </row>
-    <row r="35" spans="1:31" ht="19.5">
+    </row>
+    <row r="35" spans="1:28" ht="19.5">
       <c r="A35" s="20"/>
-      <c r="B35" s="31" t="s">
-        <v>152</v>
-      </c>
-      <c r="C35" s="32" t="s">
-        <v>153</v>
-      </c>
-      <c r="D35" s="9"/>
-      <c r="E35" s="3"/>
-      <c r="F35" s="3"/>
-      <c r="G35" s="9"/>
+      <c r="B35" s="28" t="s">
+        <v>119</v>
+      </c>
+      <c r="C35" s="9">
+        <v>1</v>
+      </c>
+      <c r="D35" s="3">
+        <v>0</v>
+      </c>
+      <c r="E35" s="3">
+        <v>1</v>
+      </c>
+      <c r="F35" s="9">
+        <v>1</v>
+      </c>
+      <c r="G35" s="3">
+        <v>6</v>
+      </c>
       <c r="H35" s="3">
-        <v>6</v>
-      </c>
-      <c r="I35" s="3">
-        <v>0</v>
-      </c>
-      <c r="J35" s="5"/>
-      <c r="K35" s="9"/>
-      <c r="L35" s="9"/>
+        <v>1</v>
+      </c>
+      <c r="I35" s="5"/>
+      <c r="J35" s="9"/>
+      <c r="K35" s="9">
+        <v>1</v>
+      </c>
+      <c r="L35" s="5"/>
       <c r="M35" s="5"/>
-      <c r="N35" s="28"/>
-      <c r="O35" s="28"/>
-      <c r="P35" s="5"/>
+      <c r="N35" s="5">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="O35" s="5">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="P35" s="9">
+        <v>1</v>
+      </c>
       <c r="Q35" s="5"/>
-      <c r="R35" s="5"/>
+      <c r="R35" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>,3,7,1</v>
+      </c>
       <c r="S35" s="5"/>
       <c r="T35" s="5"/>
       <c r="U35" s="5"/>
@@ -38518,39 +38637,53 @@
       <c r="Z35" s="5"/>
       <c r="AA35" s="5"/>
       <c r="AB35" s="5"/>
-      <c r="AC35" s="5"/>
-      <c r="AD35" s="5"/>
-      <c r="AE35" s="5"/>
-    </row>
-    <row r="36" spans="1:31" ht="19.5">
+    </row>
+    <row r="36" spans="1:28" ht="19.5">
       <c r="A36" s="20"/>
-      <c r="B36" s="31" t="s">
-        <v>154</v>
-      </c>
-      <c r="C36" s="32" t="s">
-        <v>155</v>
-      </c>
-      <c r="D36" s="9"/>
-      <c r="E36" s="3"/>
-      <c r="F36" s="3"/>
-      <c r="G36" s="3" t="s">
-        <v>11</v>
+      <c r="B36" s="28" t="s">
+        <v>120</v>
+      </c>
+      <c r="C36" s="9">
+        <v>1</v>
+      </c>
+      <c r="D36" s="3">
+        <v>0</v>
+      </c>
+      <c r="E36" s="3">
+        <v>1</v>
+      </c>
+      <c r="F36" s="3">
+        <v>5</v>
+      </c>
+      <c r="G36" s="3">
+        <v>4</v>
       </c>
       <c r="H36" s="3">
-        <v>4</v>
-      </c>
-      <c r="I36" s="3">
-        <v>0</v>
-      </c>
-      <c r="J36" s="5"/>
-      <c r="K36" s="9"/>
-      <c r="L36" s="9"/>
+        <v>1</v>
+      </c>
+      <c r="I36" s="5"/>
+      <c r="J36" s="9"/>
+      <c r="K36" s="9">
+        <v>1</v>
+      </c>
+      <c r="L36" s="5"/>
       <c r="M36" s="5"/>
-      <c r="N36" s="28"/>
-      <c r="O36" s="28"/>
-      <c r="P36" s="5"/>
+      <c r="N36" s="5">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="O36" s="5">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="P36" s="9">
+        <v>1</v>
+      </c>
       <c r="Q36" s="5"/>
-      <c r="R36" s="5"/>
+      <c r="R36" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>,7,5,1</v>
+      </c>
       <c r="S36" s="5"/>
       <c r="T36" s="5"/>
       <c r="U36" s="5"/>
@@ -38561,43 +38694,53 @@
       <c r="Z36" s="5"/>
       <c r="AA36" s="5"/>
       <c r="AB36" s="5"/>
-      <c r="AC36" s="5"/>
-      <c r="AD36" s="5"/>
-      <c r="AE36" s="5"/>
-    </row>
-    <row r="37" spans="1:31" ht="19.5">
+    </row>
+    <row r="37" spans="1:28" ht="19.5">
       <c r="A37" s="20"/>
-      <c r="B37" s="31" t="s">
-        <v>156</v>
-      </c>
-      <c r="C37" s="32" t="s">
-        <v>157</v>
-      </c>
-      <c r="D37" s="9"/>
-      <c r="E37" s="9"/>
-      <c r="F37" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G37" s="3" t="s">
-        <v>11</v>
+      <c r="B37" s="28" t="s">
+        <v>121</v>
+      </c>
+      <c r="C37" s="9">
+        <v>1</v>
+      </c>
+      <c r="D37" s="9">
+        <v>0</v>
+      </c>
+      <c r="E37" s="3">
+        <v>3</v>
+      </c>
+      <c r="F37" s="3">
+        <v>5</v>
+      </c>
+      <c r="G37" s="3">
+        <v>1</v>
       </c>
       <c r="H37" s="3">
         <v>1</v>
       </c>
-      <c r="I37" s="3">
-        <v>0</v>
-      </c>
-      <c r="J37" s="5"/>
-      <c r="K37" s="9"/>
-      <c r="L37" s="3">
+      <c r="I37" s="5"/>
+      <c r="J37" s="9"/>
+      <c r="K37" s="3">
         <v>8</v>
       </c>
+      <c r="L37" s="5"/>
       <c r="M37" s="5"/>
-      <c r="N37" s="28"/>
-      <c r="O37" s="28"/>
-      <c r="P37" s="5"/>
+      <c r="N37" s="5">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="O37" s="5">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="P37" s="9">
+        <v>8</v>
+      </c>
       <c r="Q37" s="5"/>
-      <c r="R37" s="5"/>
+      <c r="R37" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>,9,2,8</v>
+      </c>
       <c r="S37" s="5"/>
       <c r="T37" s="5"/>
       <c r="U37" s="5"/>
@@ -38608,37 +38751,53 @@
       <c r="Z37" s="5"/>
       <c r="AA37" s="5"/>
       <c r="AB37" s="5"/>
-      <c r="AC37" s="5"/>
-      <c r="AD37" s="5"/>
-      <c r="AE37" s="5"/>
-    </row>
-    <row r="38" spans="1:31" ht="19.5">
+    </row>
+    <row r="38" spans="1:28" ht="19.5">
       <c r="A38" s="20"/>
-      <c r="B38" s="31" t="s">
-        <v>158</v>
-      </c>
-      <c r="C38" s="32" t="s">
-        <v>159</v>
-      </c>
-      <c r="D38" s="9"/>
-      <c r="E38" s="3"/>
-      <c r="F38" s="3"/>
-      <c r="G38" s="9"/>
+      <c r="B38" s="28" t="s">
+        <v>122</v>
+      </c>
+      <c r="C38" s="9">
+        <v>1</v>
+      </c>
+      <c r="D38" s="3">
+        <v>0</v>
+      </c>
+      <c r="E38" s="3">
+        <v>1</v>
+      </c>
+      <c r="F38" s="9">
+        <v>1</v>
+      </c>
+      <c r="G38" s="3">
+        <v>4</v>
+      </c>
       <c r="H38" s="3">
-        <v>4</v>
-      </c>
-      <c r="I38" s="3">
-        <v>0</v>
-      </c>
-      <c r="J38" s="5"/>
-      <c r="K38" s="9"/>
-      <c r="L38" s="9"/>
+        <v>1</v>
+      </c>
+      <c r="I38" s="5"/>
+      <c r="J38" s="9"/>
+      <c r="K38" s="9">
+        <v>1</v>
+      </c>
+      <c r="L38" s="5"/>
       <c r="M38" s="5"/>
-      <c r="N38" s="28"/>
-      <c r="O38" s="28"/>
-      <c r="P38" s="5"/>
+      <c r="N38" s="5">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="O38" s="5">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="P38" s="9">
+        <v>1</v>
+      </c>
       <c r="Q38" s="5"/>
-      <c r="R38" s="5"/>
+      <c r="R38" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>,3,5,1</v>
+      </c>
       <c r="S38" s="5"/>
       <c r="T38" s="5"/>
       <c r="U38" s="5"/>
@@ -38649,41 +38808,53 @@
       <c r="Z38" s="5"/>
       <c r="AA38" s="5"/>
       <c r="AB38" s="5"/>
-      <c r="AC38" s="5"/>
-      <c r="AD38" s="5"/>
-      <c r="AE38" s="5"/>
-    </row>
-    <row r="39" spans="1:31" ht="19.5">
+    </row>
+    <row r="39" spans="1:28" ht="19.5">
       <c r="A39" s="20"/>
-      <c r="B39" s="31" t="s">
-        <v>160</v>
-      </c>
-      <c r="C39" s="32" t="s">
-        <v>161</v>
-      </c>
-      <c r="D39" s="9"/>
-      <c r="E39" s="9"/>
-      <c r="F39" s="3" t="s">
+      <c r="B39" s="28" t="s">
+        <v>123</v>
+      </c>
+      <c r="C39" s="9">
+        <v>1</v>
+      </c>
+      <c r="D39" s="9">
+        <v>0</v>
+      </c>
+      <c r="E39" s="3">
+        <v>3</v>
+      </c>
+      <c r="F39" s="3">
+        <v>5</v>
+      </c>
+      <c r="G39" s="3">
         <v>11</v>
       </c>
-      <c r="G39" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="H39" s="3">
-        <v>11</v>
-      </c>
-      <c r="I39" s="3">
-        <v>0</v>
-      </c>
-      <c r="J39" s="5"/>
-      <c r="K39" s="9"/>
-      <c r="L39" s="9"/>
+        <v>1</v>
+      </c>
+      <c r="I39" s="5"/>
+      <c r="J39" s="9"/>
+      <c r="K39" s="9">
+        <v>1</v>
+      </c>
+      <c r="L39" s="5"/>
       <c r="M39" s="5"/>
-      <c r="N39" s="28"/>
-      <c r="O39" s="28"/>
-      <c r="P39" s="5"/>
+      <c r="N39" s="5">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="O39" s="5">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="P39" s="9">
+        <v>1</v>
+      </c>
       <c r="Q39" s="5"/>
-      <c r="R39" s="5"/>
+      <c r="R39" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>,9,12,1</v>
+      </c>
       <c r="S39" s="5"/>
       <c r="T39" s="5"/>
       <c r="U39" s="5"/>
@@ -38694,37 +38865,53 @@
       <c r="Z39" s="5"/>
       <c r="AA39" s="5"/>
       <c r="AB39" s="5"/>
-      <c r="AC39" s="5"/>
-      <c r="AD39" s="5"/>
-      <c r="AE39" s="5"/>
-    </row>
-    <row r="40" spans="1:31" ht="19.5">
+    </row>
+    <row r="40" spans="1:28" ht="19.5">
       <c r="A40" s="20"/>
-      <c r="B40" s="31" t="s">
-        <v>162</v>
-      </c>
-      <c r="C40" s="32" t="s">
-        <v>163</v>
-      </c>
-      <c r="D40" s="9"/>
-      <c r="E40" s="9"/>
-      <c r="F40" s="9"/>
-      <c r="G40" s="9"/>
+      <c r="B40" s="28" t="s">
+        <v>124</v>
+      </c>
+      <c r="C40" s="9">
+        <v>1</v>
+      </c>
+      <c r="D40" s="9">
+        <v>0</v>
+      </c>
+      <c r="E40" s="9">
+        <v>1</v>
+      </c>
+      <c r="F40" s="9">
+        <v>1</v>
+      </c>
+      <c r="G40" s="3">
+        <v>11</v>
+      </c>
       <c r="H40" s="3">
-        <v>11</v>
-      </c>
-      <c r="I40" s="3">
-        <v>0</v>
-      </c>
-      <c r="J40" s="5"/>
-      <c r="K40" s="9"/>
-      <c r="L40" s="9"/>
+        <v>1</v>
+      </c>
+      <c r="I40" s="5"/>
+      <c r="J40" s="9"/>
+      <c r="K40" s="9">
+        <v>1</v>
+      </c>
+      <c r="L40" s="5"/>
       <c r="M40" s="5"/>
-      <c r="N40" s="28"/>
-      <c r="O40" s="28"/>
-      <c r="P40" s="5"/>
+      <c r="N40" s="5">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="O40" s="5">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="P40" s="9">
+        <v>1</v>
+      </c>
       <c r="Q40" s="5"/>
-      <c r="R40" s="5"/>
+      <c r="R40" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>,3,12,1</v>
+      </c>
       <c r="S40" s="5"/>
       <c r="T40" s="5"/>
       <c r="U40" s="5"/>
@@ -38735,39 +38922,53 @@
       <c r="Z40" s="5"/>
       <c r="AA40" s="5"/>
       <c r="AB40" s="5"/>
-      <c r="AC40" s="5"/>
-      <c r="AD40" s="5"/>
-      <c r="AE40" s="5"/>
-    </row>
-    <row r="41" spans="1:31" ht="19.5">
+    </row>
+    <row r="41" spans="1:28" ht="19.5">
       <c r="A41" s="20"/>
-      <c r="B41" s="31" t="s">
-        <v>164</v>
-      </c>
-      <c r="C41" s="32" t="s">
-        <v>165</v>
-      </c>
-      <c r="D41" s="9"/>
-      <c r="E41" s="3"/>
-      <c r="F41" s="3"/>
-      <c r="G41" s="3" t="s">
-        <v>11</v>
+      <c r="B41" s="28" t="s">
+        <v>125</v>
+      </c>
+      <c r="C41" s="9">
+        <v>1</v>
+      </c>
+      <c r="D41" s="3">
+        <v>0</v>
+      </c>
+      <c r="E41" s="3">
+        <v>1</v>
+      </c>
+      <c r="F41" s="3">
+        <v>5</v>
+      </c>
+      <c r="G41" s="3">
+        <v>3</v>
       </c>
       <c r="H41" s="3">
-        <v>3</v>
-      </c>
-      <c r="I41" s="3">
-        <v>0</v>
-      </c>
-      <c r="J41" s="5"/>
-      <c r="K41" s="9"/>
-      <c r="L41" s="9"/>
+        <v>1</v>
+      </c>
+      <c r="I41" s="5"/>
+      <c r="J41" s="9"/>
+      <c r="K41" s="9">
+        <v>1</v>
+      </c>
+      <c r="L41" s="5"/>
       <c r="M41" s="5"/>
-      <c r="N41" s="28"/>
-      <c r="O41" s="28"/>
-      <c r="P41" s="5"/>
+      <c r="N41" s="5">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="O41" s="5">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="P41" s="9">
+        <v>1</v>
+      </c>
       <c r="Q41" s="5"/>
-      <c r="R41" s="5"/>
+      <c r="R41" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>,7,4,1</v>
+      </c>
       <c r="S41" s="5"/>
       <c r="T41" s="5"/>
       <c r="U41" s="5"/>
@@ -38778,41 +38979,53 @@
       <c r="Z41" s="5"/>
       <c r="AA41" s="5"/>
       <c r="AB41" s="5"/>
-      <c r="AC41" s="5"/>
-      <c r="AD41" s="5"/>
-      <c r="AE41" s="5"/>
-    </row>
-    <row r="42" spans="1:31" ht="19.5">
+    </row>
+    <row r="42" spans="1:28" ht="19.5">
       <c r="A42" s="20"/>
-      <c r="B42" s="31" t="s">
-        <v>166</v>
-      </c>
-      <c r="C42" s="32" t="s">
-        <v>167</v>
-      </c>
-      <c r="D42" s="9"/>
-      <c r="E42" s="3"/>
-      <c r="F42" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G42" s="9"/>
+      <c r="B42" s="28" t="s">
+        <v>126</v>
+      </c>
+      <c r="C42" s="9">
+        <v>1</v>
+      </c>
+      <c r="D42" s="3">
+        <v>0</v>
+      </c>
+      <c r="E42" s="3">
+        <v>3</v>
+      </c>
+      <c r="F42" s="9">
+        <v>1</v>
+      </c>
+      <c r="G42" s="3">
+        <v>6</v>
+      </c>
       <c r="H42" s="3">
+        <v>1</v>
+      </c>
+      <c r="I42" s="5"/>
+      <c r="J42" s="9"/>
+      <c r="K42" s="3">
         <v>6</v>
       </c>
-      <c r="I42" s="3">
-        <v>0</v>
-      </c>
-      <c r="J42" s="5"/>
-      <c r="K42" s="9"/>
-      <c r="L42" s="3">
-        <v>9</v>
-      </c>
+      <c r="L42" s="5"/>
       <c r="M42" s="5"/>
-      <c r="N42" s="28"/>
-      <c r="O42" s="28"/>
-      <c r="P42" s="5"/>
+      <c r="N42" s="5">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="O42" s="5">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="P42" s="9">
+        <v>6</v>
+      </c>
       <c r="Q42" s="5"/>
-      <c r="R42" s="5"/>
+      <c r="R42" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>,5,7,6</v>
+      </c>
       <c r="S42" s="5"/>
       <c r="T42" s="5"/>
       <c r="U42" s="5"/>
@@ -38823,39 +39036,53 @@
       <c r="Z42" s="5"/>
       <c r="AA42" s="5"/>
       <c r="AB42" s="5"/>
-      <c r="AC42" s="5"/>
-      <c r="AD42" s="5"/>
-      <c r="AE42" s="5"/>
-    </row>
-    <row r="43" spans="1:31" ht="19.5">
+    </row>
+    <row r="43" spans="1:28" ht="19.5">
       <c r="A43" s="20"/>
-      <c r="B43" s="31" t="s">
-        <v>168</v>
-      </c>
-      <c r="C43" s="32" t="s">
-        <v>169</v>
-      </c>
-      <c r="D43" s="9"/>
-      <c r="E43" s="3"/>
-      <c r="F43" s="3"/>
-      <c r="G43" s="3" t="s">
+      <c r="B43" s="28" t="s">
+        <v>127</v>
+      </c>
+      <c r="C43" s="9">
+        <v>1</v>
+      </c>
+      <c r="D43" s="3">
+        <v>0</v>
+      </c>
+      <c r="E43" s="3">
+        <v>1</v>
+      </c>
+      <c r="F43" s="3">
+        <v>5</v>
+      </c>
+      <c r="G43" s="3">
         <v>11</v>
       </c>
       <c r="H43" s="3">
-        <v>11</v>
-      </c>
-      <c r="I43" s="3">
-        <v>0</v>
-      </c>
-      <c r="J43" s="5"/>
-      <c r="K43" s="9"/>
-      <c r="L43" s="9"/>
+        <v>1</v>
+      </c>
+      <c r="I43" s="5"/>
+      <c r="J43" s="9"/>
+      <c r="K43" s="9">
+        <v>1</v>
+      </c>
+      <c r="L43" s="5"/>
       <c r="M43" s="5"/>
-      <c r="N43" s="28"/>
-      <c r="O43" s="28"/>
-      <c r="P43" s="5"/>
+      <c r="N43" s="5">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="O43" s="5">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="P43" s="9">
+        <v>1</v>
+      </c>
       <c r="Q43" s="5"/>
-      <c r="R43" s="5"/>
+      <c r="R43" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>,7,12,1</v>
+      </c>
       <c r="S43" s="5"/>
       <c r="T43" s="5"/>
       <c r="U43" s="5"/>
@@ -38866,39 +39093,53 @@
       <c r="Z43" s="5"/>
       <c r="AA43" s="5"/>
       <c r="AB43" s="5"/>
-      <c r="AC43" s="5"/>
-      <c r="AD43" s="5"/>
-      <c r="AE43" s="5"/>
-    </row>
-    <row r="44" spans="1:31" ht="19.5">
+    </row>
+    <row r="44" spans="1:28" ht="19.5">
       <c r="A44" s="20"/>
-      <c r="B44" s="31" t="s">
-        <v>170</v>
-      </c>
-      <c r="C44" s="32" t="s">
-        <v>171</v>
-      </c>
-      <c r="D44" s="9"/>
-      <c r="E44" s="3"/>
-      <c r="F44" s="3"/>
-      <c r="G44" s="3" t="s">
-        <v>11</v>
+      <c r="B44" s="28" t="s">
+        <v>128</v>
+      </c>
+      <c r="C44" s="9">
+        <v>1</v>
+      </c>
+      <c r="D44" s="3">
+        <v>0</v>
+      </c>
+      <c r="E44" s="3">
+        <v>1</v>
+      </c>
+      <c r="F44" s="3">
+        <v>5</v>
+      </c>
+      <c r="G44" s="3">
+        <v>6</v>
       </c>
       <c r="H44" s="3">
-        <v>6</v>
-      </c>
-      <c r="I44" s="3">
-        <v>0</v>
-      </c>
-      <c r="J44" s="5"/>
-      <c r="K44" s="9"/>
-      <c r="L44" s="9"/>
+        <v>1</v>
+      </c>
+      <c r="I44" s="5"/>
+      <c r="J44" s="9"/>
+      <c r="K44" s="9">
+        <v>1</v>
+      </c>
+      <c r="L44" s="5"/>
       <c r="M44" s="5"/>
-      <c r="N44" s="28"/>
-      <c r="O44" s="28"/>
-      <c r="P44" s="5"/>
+      <c r="N44" s="5">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="O44" s="5">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="P44" s="9">
+        <v>1</v>
+      </c>
       <c r="Q44" s="5"/>
-      <c r="R44" s="5"/>
+      <c r="R44" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>,7,7,1</v>
+      </c>
       <c r="S44" s="5"/>
       <c r="T44" s="5"/>
       <c r="U44" s="5"/>
@@ -38909,43 +39150,53 @@
       <c r="Z44" s="5"/>
       <c r="AA44" s="5"/>
       <c r="AB44" s="5"/>
-      <c r="AC44" s="5"/>
-      <c r="AD44" s="5"/>
-      <c r="AE44" s="5"/>
-    </row>
-    <row r="45" spans="1:31" ht="19.5">
+    </row>
+    <row r="45" spans="1:28" ht="19.5">
       <c r="A45" s="20"/>
-      <c r="B45" s="31" t="s">
-        <v>172</v>
-      </c>
-      <c r="C45" s="32" t="s">
-        <v>173</v>
-      </c>
-      <c r="D45" s="9"/>
-      <c r="E45" s="9"/>
-      <c r="F45" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G45" s="3" t="s">
-        <v>11</v>
+      <c r="B45" s="28" t="s">
+        <v>129</v>
+      </c>
+      <c r="C45" s="9">
+        <v>1</v>
+      </c>
+      <c r="D45" s="9">
+        <v>0</v>
+      </c>
+      <c r="E45" s="3">
+        <v>3</v>
+      </c>
+      <c r="F45" s="3">
+        <v>5</v>
+      </c>
+      <c r="G45" s="3">
+        <v>1</v>
       </c>
       <c r="H45" s="3">
         <v>1</v>
       </c>
-      <c r="I45" s="3">
-        <v>0</v>
-      </c>
-      <c r="J45" s="5"/>
-      <c r="K45" s="9"/>
-      <c r="L45" s="3">
+      <c r="I45" s="5"/>
+      <c r="J45" s="9"/>
+      <c r="K45" s="3">
+        <v>20</v>
+      </c>
+      <c r="L45" s="5"/>
+      <c r="M45" s="5"/>
+      <c r="N45" s="5">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="O45" s="5">
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="M45" s="5"/>
-      <c r="N45" s="28"/>
-      <c r="O45" s="28"/>
-      <c r="P45" s="5"/>
+      <c r="P45" s="9">
+        <v>20</v>
+      </c>
       <c r="Q45" s="5"/>
-      <c r="R45" s="5"/>
+      <c r="R45" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>,9,2,20</v>
+      </c>
       <c r="S45" s="5"/>
       <c r="T45" s="5"/>
       <c r="U45" s="5"/>
@@ -38956,39 +39207,53 @@
       <c r="Z45" s="5"/>
       <c r="AA45" s="5"/>
       <c r="AB45" s="5"/>
-      <c r="AC45" s="5"/>
-      <c r="AD45" s="5"/>
-      <c r="AE45" s="5"/>
-    </row>
-    <row r="46" spans="1:31" ht="19.5">
+    </row>
+    <row r="46" spans="1:28" ht="19.5">
       <c r="A46" s="20"/>
-      <c r="B46" s="31" t="s">
-        <v>174</v>
-      </c>
-      <c r="C46" s="32" t="s">
-        <v>175</v>
-      </c>
-      <c r="D46" s="9"/>
-      <c r="E46" s="3"/>
-      <c r="F46" s="3"/>
-      <c r="G46" s="3" t="s">
-        <v>11</v>
+      <c r="B46" s="28" t="s">
+        <v>130</v>
+      </c>
+      <c r="C46" s="9">
+        <v>1</v>
+      </c>
+      <c r="D46" s="3">
+        <v>0</v>
+      </c>
+      <c r="E46" s="3">
+        <v>1</v>
+      </c>
+      <c r="F46" s="3">
+        <v>5</v>
+      </c>
+      <c r="G46" s="3">
+        <v>16</v>
       </c>
       <c r="H46" s="3">
-        <v>16</v>
-      </c>
-      <c r="I46" s="3">
-        <v>0</v>
-      </c>
-      <c r="J46" s="5"/>
-      <c r="K46" s="9"/>
-      <c r="L46" s="9"/>
+        <v>1</v>
+      </c>
+      <c r="I46" s="5"/>
+      <c r="J46" s="9"/>
+      <c r="K46" s="9">
+        <v>1</v>
+      </c>
+      <c r="L46" s="5"/>
       <c r="M46" s="5"/>
-      <c r="N46" s="28"/>
-      <c r="O46" s="28"/>
-      <c r="P46" s="5"/>
+      <c r="N46" s="5">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="O46" s="5">
+        <f t="shared" si="1"/>
+        <v>17</v>
+      </c>
+      <c r="P46" s="9">
+        <v>1</v>
+      </c>
       <c r="Q46" s="5"/>
-      <c r="R46" s="5"/>
+      <c r="R46" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>,7,17,1</v>
+      </c>
       <c r="S46" s="5"/>
       <c r="T46" s="5"/>
       <c r="U46" s="5"/>
@@ -38999,39 +39264,53 @@
       <c r="Z46" s="5"/>
       <c r="AA46" s="5"/>
       <c r="AB46" s="5"/>
-      <c r="AC46" s="5"/>
-      <c r="AD46" s="5"/>
-      <c r="AE46" s="5"/>
-    </row>
-    <row r="47" spans="1:31" ht="19.5">
+    </row>
+    <row r="47" spans="1:28" ht="19.5">
       <c r="A47" s="20"/>
-      <c r="B47" s="31" t="s">
-        <v>176</v>
-      </c>
-      <c r="C47" s="32" t="s">
-        <v>177</v>
-      </c>
-      <c r="D47" s="9"/>
-      <c r="E47" s="9"/>
-      <c r="F47" s="9"/>
-      <c r="G47" s="3" t="s">
-        <v>11</v>
+      <c r="B47" s="28" t="s">
+        <v>131</v>
+      </c>
+      <c r="C47" s="9">
+        <v>1</v>
+      </c>
+      <c r="D47" s="9">
+        <v>0</v>
+      </c>
+      <c r="E47" s="9">
+        <v>1</v>
+      </c>
+      <c r="F47" s="3">
+        <v>5</v>
+      </c>
+      <c r="G47" s="3">
+        <v>1</v>
       </c>
       <c r="H47" s="3">
         <v>1</v>
       </c>
-      <c r="I47" s="3">
-        <v>0</v>
-      </c>
-      <c r="J47" s="5"/>
-      <c r="K47" s="9"/>
-      <c r="L47" s="9"/>
+      <c r="I47" s="5"/>
+      <c r="J47" s="9"/>
+      <c r="K47" s="9">
+        <v>1</v>
+      </c>
+      <c r="L47" s="5"/>
       <c r="M47" s="5"/>
-      <c r="N47" s="28"/>
-      <c r="O47" s="28"/>
-      <c r="P47" s="5"/>
+      <c r="N47" s="5">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="O47" s="5">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="P47" s="9">
+        <v>1</v>
+      </c>
       <c r="Q47" s="5"/>
-      <c r="R47" s="5"/>
+      <c r="R47" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>,7,2,1</v>
+      </c>
       <c r="S47" s="5"/>
       <c r="T47" s="5"/>
       <c r="U47" s="5"/>
@@ -39042,39 +39321,53 @@
       <c r="Z47" s="5"/>
       <c r="AA47" s="5"/>
       <c r="AB47" s="5"/>
-      <c r="AC47" s="5"/>
-      <c r="AD47" s="5"/>
-      <c r="AE47" s="5"/>
-    </row>
-    <row r="48" spans="1:31" ht="19.5">
+    </row>
+    <row r="48" spans="1:28" ht="19.5">
       <c r="A48" s="20"/>
-      <c r="B48" s="31" t="s">
-        <v>178</v>
-      </c>
-      <c r="C48" s="32" t="s">
-        <v>179</v>
-      </c>
-      <c r="D48" s="9"/>
-      <c r="E48" s="3"/>
-      <c r="F48" s="3"/>
-      <c r="G48" s="3" t="s">
-        <v>11</v>
+      <c r="B48" s="28" t="s">
+        <v>132</v>
+      </c>
+      <c r="C48" s="9">
+        <v>1</v>
+      </c>
+      <c r="D48" s="3">
+        <v>0</v>
+      </c>
+      <c r="E48" s="3">
+        <v>1</v>
+      </c>
+      <c r="F48" s="3">
+        <v>5</v>
+      </c>
+      <c r="G48" s="3">
+        <v>4</v>
       </c>
       <c r="H48" s="3">
-        <v>4</v>
-      </c>
-      <c r="I48" s="3">
-        <v>0</v>
-      </c>
-      <c r="J48" s="5"/>
-      <c r="K48" s="9"/>
-      <c r="L48" s="9"/>
+        <v>1</v>
+      </c>
+      <c r="I48" s="5"/>
+      <c r="J48" s="9"/>
+      <c r="K48" s="9">
+        <v>1</v>
+      </c>
+      <c r="L48" s="5"/>
       <c r="M48" s="5"/>
-      <c r="N48" s="28"/>
-      <c r="O48" s="28"/>
-      <c r="P48" s="5"/>
+      <c r="N48" s="5">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="O48" s="5">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="P48" s="9">
+        <v>1</v>
+      </c>
       <c r="Q48" s="5"/>
-      <c r="R48" s="5"/>
+      <c r="R48" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>,7,5,1</v>
+      </c>
       <c r="S48" s="5"/>
       <c r="T48" s="5"/>
       <c r="U48" s="5"/>
@@ -39085,39 +39378,53 @@
       <c r="Z48" s="5"/>
       <c r="AA48" s="5"/>
       <c r="AB48" s="5"/>
-      <c r="AC48" s="5"/>
-      <c r="AD48" s="5"/>
-      <c r="AE48" s="5"/>
-    </row>
-    <row r="49" spans="1:31" ht="19.5">
+    </row>
+    <row r="49" spans="1:28" ht="19.5">
       <c r="A49" s="20"/>
-      <c r="B49" s="31" t="s">
-        <v>180</v>
-      </c>
-      <c r="C49" s="32" t="s">
-        <v>181</v>
-      </c>
-      <c r="D49" s="9"/>
-      <c r="E49" s="3"/>
-      <c r="F49" s="3"/>
-      <c r="G49" s="3" t="s">
-        <v>11</v>
+      <c r="B49" s="28" t="s">
+        <v>133</v>
+      </c>
+      <c r="C49" s="9">
+        <v>1</v>
+      </c>
+      <c r="D49" s="3">
+        <v>0</v>
+      </c>
+      <c r="E49" s="3">
+        <v>1</v>
+      </c>
+      <c r="F49" s="3">
+        <v>5</v>
+      </c>
+      <c r="G49" s="3">
+        <v>18</v>
       </c>
       <c r="H49" s="3">
-        <v>18</v>
-      </c>
-      <c r="I49" s="3">
-        <v>0</v>
-      </c>
-      <c r="J49" s="5"/>
-      <c r="K49" s="9"/>
-      <c r="L49" s="3"/>
+        <v>1</v>
+      </c>
+      <c r="I49" s="5"/>
+      <c r="J49" s="9"/>
+      <c r="K49" s="3">
+        <v>1</v>
+      </c>
+      <c r="L49" s="5"/>
       <c r="M49" s="5"/>
-      <c r="N49" s="28"/>
-      <c r="O49" s="28"/>
-      <c r="P49" s="5"/>
+      <c r="N49" s="5">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="O49" s="5">
+        <f t="shared" si="1"/>
+        <v>19</v>
+      </c>
+      <c r="P49" s="9">
+        <v>1</v>
+      </c>
       <c r="Q49" s="5"/>
-      <c r="R49" s="5"/>
+      <c r="R49" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>,7,19,1</v>
+      </c>
       <c r="S49" s="5"/>
       <c r="T49" s="5"/>
       <c r="U49" s="5"/>
@@ -39128,37 +39435,53 @@
       <c r="Z49" s="5"/>
       <c r="AA49" s="5"/>
       <c r="AB49" s="5"/>
-      <c r="AC49" s="5"/>
-      <c r="AD49" s="5"/>
-      <c r="AE49" s="5"/>
-    </row>
-    <row r="50" spans="1:31" ht="19.5">
+    </row>
+    <row r="50" spans="1:28" ht="19.5">
       <c r="A50" s="20"/>
-      <c r="B50" s="31" t="s">
-        <v>182</v>
-      </c>
-      <c r="C50" s="32" t="s">
-        <v>183</v>
-      </c>
-      <c r="D50" s="9"/>
-      <c r="E50" s="3"/>
-      <c r="F50" s="3"/>
-      <c r="G50" s="9"/>
+      <c r="B50" s="28" t="s">
+        <v>134</v>
+      </c>
+      <c r="C50" s="9">
+        <v>1</v>
+      </c>
+      <c r="D50" s="3">
+        <v>0</v>
+      </c>
+      <c r="E50" s="3">
+        <v>1</v>
+      </c>
+      <c r="F50" s="9">
+        <v>1</v>
+      </c>
+      <c r="G50" s="3">
+        <v>12</v>
+      </c>
       <c r="H50" s="3">
-        <v>12</v>
-      </c>
-      <c r="I50" s="3">
-        <v>0</v>
-      </c>
-      <c r="J50" s="5"/>
-      <c r="K50" s="9"/>
-      <c r="L50" s="9"/>
+        <v>1</v>
+      </c>
+      <c r="I50" s="5"/>
+      <c r="J50" s="9"/>
+      <c r="K50" s="9">
+        <v>1</v>
+      </c>
+      <c r="L50" s="5"/>
       <c r="M50" s="5"/>
-      <c r="N50" s="28"/>
-      <c r="O50" s="28"/>
-      <c r="P50" s="5"/>
+      <c r="N50" s="5">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="O50" s="5">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
+      <c r="P50" s="9">
+        <v>1</v>
+      </c>
       <c r="Q50" s="5"/>
-      <c r="R50" s="5"/>
+      <c r="R50" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>,3,13,1</v>
+      </c>
       <c r="S50" s="5"/>
       <c r="T50" s="5"/>
       <c r="U50" s="5"/>
@@ -39169,37 +39492,53 @@
       <c r="Z50" s="5"/>
       <c r="AA50" s="5"/>
       <c r="AB50" s="5"/>
-      <c r="AC50" s="5"/>
-      <c r="AD50" s="5"/>
-      <c r="AE50" s="5"/>
-    </row>
-    <row r="51" spans="1:31" ht="19.5">
+    </row>
+    <row r="51" spans="1:28" ht="19.5">
       <c r="A51" s="20"/>
-      <c r="B51" s="31" t="s">
-        <v>184</v>
-      </c>
-      <c r="C51" s="32" t="s">
-        <v>185</v>
-      </c>
-      <c r="D51" s="9"/>
-      <c r="E51" s="3"/>
-      <c r="F51" s="3"/>
-      <c r="G51" s="9"/>
+      <c r="B51" s="28" t="s">
+        <v>135</v>
+      </c>
+      <c r="C51" s="9">
+        <v>1</v>
+      </c>
+      <c r="D51" s="3">
+        <v>0</v>
+      </c>
+      <c r="E51" s="3">
+        <v>1</v>
+      </c>
+      <c r="F51" s="9">
+        <v>1</v>
+      </c>
+      <c r="G51" s="3">
+        <v>14</v>
+      </c>
       <c r="H51" s="3">
-        <v>14</v>
-      </c>
-      <c r="I51" s="3">
-        <v>0</v>
-      </c>
-      <c r="J51" s="5"/>
-      <c r="K51" s="9"/>
-      <c r="L51" s="9"/>
+        <v>1</v>
+      </c>
+      <c r="I51" s="5"/>
+      <c r="J51" s="9"/>
+      <c r="K51" s="9">
+        <v>1</v>
+      </c>
+      <c r="L51" s="5"/>
       <c r="M51" s="5"/>
-      <c r="N51" s="28"/>
-      <c r="O51" s="28"/>
-      <c r="P51" s="5"/>
+      <c r="N51" s="5">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="O51" s="5">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="P51" s="9">
+        <v>1</v>
+      </c>
       <c r="Q51" s="5"/>
-      <c r="R51" s="5"/>
+      <c r="R51" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>,3,15,1</v>
+      </c>
       <c r="S51" s="5"/>
       <c r="T51" s="5"/>
       <c r="U51" s="5"/>
@@ -39210,39 +39549,53 @@
       <c r="Z51" s="5"/>
       <c r="AA51" s="5"/>
       <c r="AB51" s="5"/>
-      <c r="AC51" s="5"/>
-      <c r="AD51" s="5"/>
-      <c r="AE51" s="5"/>
-    </row>
-    <row r="52" spans="1:31" ht="19.5">
+    </row>
+    <row r="52" spans="1:28" ht="19.5">
       <c r="A52" s="20"/>
-      <c r="B52" s="31" t="s">
-        <v>186</v>
-      </c>
-      <c r="C52" s="32" t="s">
-        <v>187</v>
-      </c>
-      <c r="D52" s="9"/>
-      <c r="E52" s="3"/>
-      <c r="F52" s="3"/>
-      <c r="G52" s="3" t="s">
-        <v>11</v>
+      <c r="B52" s="28" t="s">
+        <v>136</v>
+      </c>
+      <c r="C52" s="9">
+        <v>1</v>
+      </c>
+      <c r="D52" s="3">
+        <v>0</v>
+      </c>
+      <c r="E52" s="3">
+        <v>1</v>
+      </c>
+      <c r="F52" s="3">
+        <v>5</v>
+      </c>
+      <c r="G52" s="3">
+        <v>19</v>
       </c>
       <c r="H52" s="3">
-        <v>19</v>
-      </c>
-      <c r="I52" s="3">
-        <v>0</v>
-      </c>
-      <c r="J52" s="5"/>
-      <c r="K52" s="9"/>
-      <c r="L52" s="3"/>
+        <v>1</v>
+      </c>
+      <c r="I52" s="5"/>
+      <c r="J52" s="9"/>
+      <c r="K52" s="3">
+        <v>1</v>
+      </c>
+      <c r="L52" s="5"/>
       <c r="M52" s="5"/>
-      <c r="N52" s="28"/>
-      <c r="O52" s="28"/>
-      <c r="P52" s="5"/>
+      <c r="N52" s="5">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="O52" s="5">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="P52" s="9">
+        <v>1</v>
+      </c>
       <c r="Q52" s="5"/>
-      <c r="R52" s="5"/>
+      <c r="R52" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>,7,20,1</v>
+      </c>
       <c r="S52" s="5"/>
       <c r="T52" s="5"/>
       <c r="U52" s="5"/>
@@ -39253,37 +39606,53 @@
       <c r="Z52" s="5"/>
       <c r="AA52" s="5"/>
       <c r="AB52" s="5"/>
-      <c r="AC52" s="5"/>
-      <c r="AD52" s="5"/>
-      <c r="AE52" s="5"/>
-    </row>
-    <row r="53" spans="1:31" ht="19.5">
+    </row>
+    <row r="53" spans="1:28" ht="19.5">
       <c r="A53" s="20"/>
-      <c r="B53" s="31" t="s">
-        <v>188</v>
-      </c>
-      <c r="C53" s="32" t="s">
-        <v>189</v>
-      </c>
-      <c r="D53" s="9"/>
-      <c r="E53" s="3"/>
-      <c r="F53" s="3"/>
-      <c r="G53" s="9"/>
+      <c r="B53" s="28" t="s">
+        <v>137</v>
+      </c>
+      <c r="C53" s="9">
+        <v>1</v>
+      </c>
+      <c r="D53" s="3">
+        <v>0</v>
+      </c>
+      <c r="E53" s="3">
+        <v>1</v>
+      </c>
+      <c r="F53" s="9">
+        <v>1</v>
+      </c>
+      <c r="G53" s="3">
+        <v>20</v>
+      </c>
       <c r="H53" s="3">
-        <v>20</v>
-      </c>
-      <c r="I53" s="3">
-        <v>0</v>
-      </c>
-      <c r="J53" s="5"/>
-      <c r="K53" s="9"/>
-      <c r="L53" s="9"/>
+        <v>1</v>
+      </c>
+      <c r="I53" s="5"/>
+      <c r="J53" s="9"/>
+      <c r="K53" s="9">
+        <v>1</v>
+      </c>
+      <c r="L53" s="5"/>
       <c r="M53" s="5"/>
-      <c r="N53" s="28"/>
-      <c r="O53" s="28"/>
-      <c r="P53" s="5"/>
+      <c r="N53" s="5">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="O53" s="5">
+        <f t="shared" si="1"/>
+        <v>21</v>
+      </c>
+      <c r="P53" s="9">
+        <v>1</v>
+      </c>
       <c r="Q53" s="5"/>
-      <c r="R53" s="5"/>
+      <c r="R53" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>,3,21,1</v>
+      </c>
       <c r="S53" s="5"/>
       <c r="T53" s="5"/>
       <c r="U53" s="5"/>
@@ -39294,39 +39663,53 @@
       <c r="Z53" s="5"/>
       <c r="AA53" s="5"/>
       <c r="AB53" s="5"/>
-      <c r="AC53" s="5"/>
-      <c r="AD53" s="5"/>
-      <c r="AE53" s="5"/>
-    </row>
-    <row r="54" spans="1:31" ht="19.5">
+    </row>
+    <row r="54" spans="1:28" ht="19.5">
       <c r="A54" s="20"/>
-      <c r="B54" s="31" t="s">
-        <v>190</v>
-      </c>
-      <c r="C54" s="32" t="s">
-        <v>191</v>
-      </c>
-      <c r="D54" s="9"/>
-      <c r="E54" s="9"/>
-      <c r="F54" s="9"/>
-      <c r="G54" s="3" t="s">
-        <v>11</v>
+      <c r="B54" s="28" t="s">
+        <v>138</v>
+      </c>
+      <c r="C54" s="9">
+        <v>1</v>
+      </c>
+      <c r="D54" s="9">
+        <v>0</v>
+      </c>
+      <c r="E54" s="9">
+        <v>1</v>
+      </c>
+      <c r="F54" s="3">
+        <v>5</v>
+      </c>
+      <c r="G54" s="3">
+        <v>4</v>
       </c>
       <c r="H54" s="3">
-        <v>4</v>
-      </c>
-      <c r="I54" s="3">
-        <v>0</v>
-      </c>
-      <c r="J54" s="5"/>
-      <c r="K54" s="9"/>
-      <c r="L54" s="9"/>
+        <v>1</v>
+      </c>
+      <c r="I54" s="5"/>
+      <c r="J54" s="9"/>
+      <c r="K54" s="9">
+        <v>1</v>
+      </c>
+      <c r="L54" s="5"/>
       <c r="M54" s="5"/>
-      <c r="N54" s="28"/>
-      <c r="O54" s="28"/>
-      <c r="P54" s="5"/>
+      <c r="N54" s="5">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="O54" s="5">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="P54" s="9">
+        <v>1</v>
+      </c>
       <c r="Q54" s="5"/>
-      <c r="R54" s="5"/>
+      <c r="R54" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>,7,5,1</v>
+      </c>
       <c r="S54" s="5"/>
       <c r="T54" s="5"/>
       <c r="U54" s="5"/>
@@ -39337,39 +39720,53 @@
       <c r="Z54" s="5"/>
       <c r="AA54" s="5"/>
       <c r="AB54" s="5"/>
-      <c r="AC54" s="5"/>
-      <c r="AD54" s="5"/>
-      <c r="AE54" s="5"/>
-    </row>
-    <row r="55" spans="1:31" ht="19.5">
+    </row>
+    <row r="55" spans="1:28" ht="19.5">
       <c r="A55" s="20"/>
-      <c r="B55" s="31" t="s">
-        <v>192</v>
-      </c>
-      <c r="C55" s="32" t="s">
-        <v>193</v>
-      </c>
-      <c r="D55" s="9"/>
-      <c r="E55" s="3"/>
-      <c r="F55" s="3"/>
-      <c r="G55" s="3" t="s">
-        <v>11</v>
+      <c r="B55" s="28" t="s">
+        <v>139</v>
+      </c>
+      <c r="C55" s="9">
+        <v>1</v>
+      </c>
+      <c r="D55" s="3">
+        <v>0</v>
+      </c>
+      <c r="E55" s="3">
+        <v>1</v>
+      </c>
+      <c r="F55" s="3">
+        <v>5</v>
+      </c>
+      <c r="G55" s="3">
+        <v>8</v>
       </c>
       <c r="H55" s="3">
-        <v>8</v>
-      </c>
-      <c r="I55" s="3">
-        <v>0</v>
-      </c>
-      <c r="J55" s="5"/>
-      <c r="K55" s="9"/>
-      <c r="L55" s="9"/>
+        <v>1</v>
+      </c>
+      <c r="I55" s="5"/>
+      <c r="J55" s="9"/>
+      <c r="K55" s="9">
+        <v>1</v>
+      </c>
+      <c r="L55" s="5"/>
       <c r="M55" s="5"/>
-      <c r="N55" s="28"/>
-      <c r="O55" s="28"/>
-      <c r="P55" s="5"/>
+      <c r="N55" s="5">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="O55" s="5">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="P55" s="9">
+        <v>1</v>
+      </c>
       <c r="Q55" s="5"/>
-      <c r="R55" s="5"/>
+      <c r="R55" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>,7,9,1</v>
+      </c>
       <c r="S55" s="5"/>
       <c r="T55" s="5"/>
       <c r="U55" s="5"/>
@@ -39380,39 +39777,53 @@
       <c r="Z55" s="5"/>
       <c r="AA55" s="5"/>
       <c r="AB55" s="5"/>
-      <c r="AC55" s="5"/>
-      <c r="AD55" s="5"/>
-      <c r="AE55" s="5"/>
-    </row>
-    <row r="56" spans="1:31" ht="19.5">
+    </row>
+    <row r="56" spans="1:28" ht="19.5">
       <c r="A56" s="20"/>
-      <c r="B56" s="31" t="s">
-        <v>194</v>
-      </c>
-      <c r="C56" s="32" t="s">
-        <v>195</v>
-      </c>
-      <c r="D56" s="9"/>
-      <c r="E56" s="3"/>
-      <c r="F56" s="3"/>
-      <c r="G56" s="3" t="s">
-        <v>11</v>
+      <c r="B56" s="28" t="s">
+        <v>140</v>
+      </c>
+      <c r="C56" s="9">
+        <v>1</v>
+      </c>
+      <c r="D56" s="3">
+        <v>0</v>
+      </c>
+      <c r="E56" s="3">
+        <v>1</v>
+      </c>
+      <c r="F56" s="3">
+        <v>5</v>
+      </c>
+      <c r="G56" s="3">
+        <v>1</v>
       </c>
       <c r="H56" s="3">
         <v>1</v>
       </c>
-      <c r="I56" s="3">
-        <v>0</v>
-      </c>
-      <c r="J56" s="5"/>
-      <c r="K56" s="9"/>
-      <c r="L56" s="3"/>
+      <c r="I56" s="5"/>
+      <c r="J56" s="9"/>
+      <c r="K56" s="3">
+        <v>1</v>
+      </c>
+      <c r="L56" s="5"/>
       <c r="M56" s="5"/>
-      <c r="N56" s="28"/>
-      <c r="O56" s="28"/>
-      <c r="P56" s="5"/>
+      <c r="N56" s="5">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="O56" s="5">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="P56" s="9">
+        <v>1</v>
+      </c>
       <c r="Q56" s="5"/>
-      <c r="R56" s="5"/>
+      <c r="R56" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>,7,2,1</v>
+      </c>
       <c r="S56" s="5"/>
       <c r="T56" s="5"/>
       <c r="U56" s="5"/>
@@ -39423,37 +39834,53 @@
       <c r="Z56" s="5"/>
       <c r="AA56" s="5"/>
       <c r="AB56" s="5"/>
-      <c r="AC56" s="5"/>
-      <c r="AD56" s="5"/>
-      <c r="AE56" s="5"/>
-    </row>
-    <row r="57" spans="1:31" ht="19.5">
+    </row>
+    <row r="57" spans="1:28" ht="19.5">
       <c r="A57" s="20"/>
-      <c r="B57" s="31" t="s">
-        <v>196</v>
-      </c>
-      <c r="C57" s="32" t="s">
-        <v>197</v>
-      </c>
-      <c r="D57" s="9"/>
-      <c r="E57" s="3"/>
-      <c r="F57" s="3"/>
-      <c r="G57" s="9"/>
+      <c r="B57" s="28" t="s">
+        <v>141</v>
+      </c>
+      <c r="C57" s="9">
+        <v>1</v>
+      </c>
+      <c r="D57" s="3">
+        <v>0</v>
+      </c>
+      <c r="E57" s="3">
+        <v>1</v>
+      </c>
+      <c r="F57" s="9">
+        <v>1</v>
+      </c>
+      <c r="G57" s="3">
+        <v>2</v>
+      </c>
       <c r="H57" s="3">
-        <v>2</v>
-      </c>
-      <c r="I57" s="3">
-        <v>0</v>
-      </c>
-      <c r="J57" s="5"/>
-      <c r="K57" s="9"/>
-      <c r="L57" s="3"/>
+        <v>1</v>
+      </c>
+      <c r="I57" s="5"/>
+      <c r="J57" s="9"/>
+      <c r="K57" s="3">
+        <v>1</v>
+      </c>
+      <c r="L57" s="5"/>
       <c r="M57" s="5"/>
-      <c r="N57" s="28"/>
-      <c r="O57" s="28"/>
-      <c r="P57" s="5"/>
+      <c r="N57" s="5">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="O57" s="5">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="P57" s="9">
+        <v>1</v>
+      </c>
       <c r="Q57" s="5"/>
-      <c r="R57" s="5"/>
+      <c r="R57" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>,3,3,1</v>
+      </c>
       <c r="S57" s="5"/>
       <c r="T57" s="5"/>
       <c r="U57" s="5"/>
@@ -39464,39 +39891,53 @@
       <c r="Z57" s="5"/>
       <c r="AA57" s="5"/>
       <c r="AB57" s="5"/>
-      <c r="AC57" s="5"/>
-      <c r="AD57" s="5"/>
-      <c r="AE57" s="5"/>
-    </row>
-    <row r="58" spans="1:31" ht="19.5">
+    </row>
+    <row r="58" spans="1:28" ht="19.5">
       <c r="A58" s="20"/>
-      <c r="B58" s="31" t="s">
-        <v>198</v>
-      </c>
-      <c r="C58" s="32" t="s">
-        <v>199</v>
-      </c>
-      <c r="D58" s="9"/>
-      <c r="E58" s="9"/>
-      <c r="F58" s="9"/>
-      <c r="G58" s="9"/>
+      <c r="B58" s="28" t="s">
+        <v>142</v>
+      </c>
+      <c r="C58" s="9">
+        <v>1</v>
+      </c>
+      <c r="D58" s="9">
+        <v>0</v>
+      </c>
+      <c r="E58" s="9">
+        <v>1</v>
+      </c>
+      <c r="F58" s="9">
+        <v>1</v>
+      </c>
+      <c r="G58" s="3">
+        <v>6</v>
+      </c>
       <c r="H58" s="3">
-        <v>6</v>
-      </c>
-      <c r="I58" s="3">
-        <v>0</v>
-      </c>
-      <c r="J58" s="5"/>
-      <c r="K58" s="9"/>
-      <c r="L58" s="3">
-        <v>10</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I58" s="5"/>
+      <c r="J58" s="9"/>
+      <c r="K58" s="3">
+        <v>4</v>
+      </c>
+      <c r="L58" s="5"/>
       <c r="M58" s="5"/>
-      <c r="N58" s="28"/>
-      <c r="O58" s="28"/>
-      <c r="P58" s="5"/>
+      <c r="N58" s="5">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="O58" s="5">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="P58" s="9">
+        <v>4</v>
+      </c>
       <c r="Q58" s="5"/>
-      <c r="R58" s="5"/>
+      <c r="R58" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>,3,7,4</v>
+      </c>
       <c r="S58" s="5"/>
       <c r="T58" s="5"/>
       <c r="U58" s="5"/>
@@ -39507,41 +39948,53 @@
       <c r="Z58" s="5"/>
       <c r="AA58" s="5"/>
       <c r="AB58" s="5"/>
-      <c r="AC58" s="5"/>
-      <c r="AD58" s="5"/>
-      <c r="AE58" s="5"/>
-    </row>
-    <row r="59" spans="1:31" ht="19.5">
+    </row>
+    <row r="59" spans="1:28" ht="19.5">
       <c r="A59" s="20"/>
-      <c r="B59" s="31" t="s">
-        <v>200</v>
-      </c>
-      <c r="C59" s="32" t="s">
-        <v>201</v>
-      </c>
-      <c r="D59" s="9"/>
-      <c r="E59" s="3"/>
-      <c r="F59" s="3"/>
-      <c r="G59" s="3" t="s">
-        <v>11</v>
+      <c r="B59" s="28" t="s">
+        <v>143</v>
+      </c>
+      <c r="C59" s="9">
+        <v>1</v>
+      </c>
+      <c r="D59" s="3">
+        <v>0</v>
+      </c>
+      <c r="E59" s="3">
+        <v>1</v>
+      </c>
+      <c r="F59" s="3">
+        <v>5</v>
+      </c>
+      <c r="G59" s="3">
+        <v>5</v>
       </c>
       <c r="H59" s="3">
-        <v>5</v>
-      </c>
-      <c r="I59" s="3">
-        <v>0</v>
-      </c>
-      <c r="J59" s="5"/>
-      <c r="K59" s="9"/>
-      <c r="L59" s="3">
+        <v>1</v>
+      </c>
+      <c r="I59" s="5"/>
+      <c r="J59" s="9"/>
+      <c r="K59" s="3">
+        <v>12</v>
+      </c>
+      <c r="L59" s="5"/>
+      <c r="M59" s="5"/>
+      <c r="N59" s="5">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="O59" s="5">
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="M59" s="5"/>
-      <c r="N59" s="28"/>
-      <c r="O59" s="28"/>
-      <c r="P59" s="5"/>
+      <c r="P59" s="9">
+        <v>12</v>
+      </c>
       <c r="Q59" s="5"/>
-      <c r="R59" s="5"/>
+      <c r="R59" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>,7,6,12</v>
+      </c>
       <c r="S59" s="5"/>
       <c r="T59" s="5"/>
       <c r="U59" s="5"/>
@@ -39552,39 +40005,53 @@
       <c r="Z59" s="5"/>
       <c r="AA59" s="5"/>
       <c r="AB59" s="5"/>
-      <c r="AC59" s="5"/>
-      <c r="AD59" s="5"/>
-      <c r="AE59" s="5"/>
-    </row>
-    <row r="60" spans="1:31" ht="19.5">
+    </row>
+    <row r="60" spans="1:28" ht="19.5">
       <c r="A60" s="20"/>
-      <c r="B60" s="31" t="s">
-        <v>202</v>
-      </c>
-      <c r="C60" s="34" t="s">
-        <v>203</v>
-      </c>
-      <c r="D60" s="3"/>
-      <c r="E60" s="3"/>
-      <c r="F60" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G60" s="9"/>
+      <c r="B60" s="28" t="s">
+        <v>144</v>
+      </c>
+      <c r="C60" s="3">
+        <v>1</v>
+      </c>
+      <c r="D60" s="3">
+        <v>0</v>
+      </c>
+      <c r="E60" s="3">
+        <v>3</v>
+      </c>
+      <c r="F60" s="9">
+        <v>1</v>
+      </c>
+      <c r="G60" s="3">
+        <v>6</v>
+      </c>
       <c r="H60" s="3">
-        <v>6</v>
-      </c>
-      <c r="I60" s="3">
-        <v>0</v>
-      </c>
-      <c r="J60" s="5"/>
-      <c r="K60" s="9"/>
-      <c r="L60" s="9"/>
+        <v>1</v>
+      </c>
+      <c r="I60" s="5"/>
+      <c r="J60" s="9"/>
+      <c r="K60" s="9">
+        <v>1</v>
+      </c>
+      <c r="L60" s="5"/>
       <c r="M60" s="5"/>
-      <c r="N60" s="28"/>
-      <c r="O60" s="28"/>
-      <c r="P60" s="5"/>
+      <c r="N60" s="5">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="O60" s="5">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="P60" s="9">
+        <v>1</v>
+      </c>
       <c r="Q60" s="5"/>
-      <c r="R60" s="5"/>
+      <c r="R60" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>,5,7,1</v>
+      </c>
       <c r="S60" s="5"/>
       <c r="T60" s="5"/>
       <c r="U60" s="5"/>
@@ -39595,37 +40062,53 @@
       <c r="Z60" s="5"/>
       <c r="AA60" s="5"/>
       <c r="AB60" s="5"/>
-      <c r="AC60" s="5"/>
-      <c r="AD60" s="5"/>
-      <c r="AE60" s="5"/>
-    </row>
-    <row r="61" spans="1:31" ht="19.5">
+    </row>
+    <row r="61" spans="1:28" ht="19.5">
       <c r="A61" s="20"/>
-      <c r="B61" s="31" t="s">
-        <v>204</v>
-      </c>
-      <c r="C61" s="33" t="s">
-        <v>205</v>
-      </c>
-      <c r="D61" s="9"/>
-      <c r="E61" s="3"/>
-      <c r="F61" s="3"/>
-      <c r="G61" s="9"/>
+      <c r="B61" s="28" t="s">
+        <v>145</v>
+      </c>
+      <c r="C61" s="9">
+        <v>1</v>
+      </c>
+      <c r="D61" s="3">
+        <v>0</v>
+      </c>
+      <c r="E61" s="3">
+        <v>1</v>
+      </c>
+      <c r="F61" s="9">
+        <v>1</v>
+      </c>
+      <c r="G61" s="3">
+        <v>15</v>
+      </c>
       <c r="H61" s="3">
-        <v>15</v>
-      </c>
-      <c r="I61" s="3">
-        <v>0</v>
-      </c>
-      <c r="J61" s="5"/>
-      <c r="K61" s="9"/>
-      <c r="L61" s="9"/>
+        <v>1</v>
+      </c>
+      <c r="I61" s="5"/>
+      <c r="J61" s="9"/>
+      <c r="K61" s="9">
+        <v>1</v>
+      </c>
+      <c r="L61" s="5"/>
       <c r="M61" s="5"/>
-      <c r="N61" s="28"/>
-      <c r="O61" s="28"/>
-      <c r="P61" s="5"/>
+      <c r="N61" s="5">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="O61" s="5">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+      <c r="P61" s="9">
+        <v>1</v>
+      </c>
       <c r="Q61" s="5"/>
-      <c r="R61" s="5"/>
+      <c r="R61" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>,3,16,1</v>
+      </c>
       <c r="S61" s="5"/>
       <c r="T61" s="5"/>
       <c r="U61" s="5"/>
@@ -39636,39 +40119,53 @@
       <c r="Z61" s="5"/>
       <c r="AA61" s="5"/>
       <c r="AB61" s="5"/>
-      <c r="AC61" s="5"/>
-      <c r="AD61" s="5"/>
-      <c r="AE61" s="5"/>
-    </row>
-    <row r="62" spans="1:31" ht="19.5">
+    </row>
+    <row r="62" spans="1:28" ht="19.5">
       <c r="A62" s="20"/>
-      <c r="B62" s="31" t="s">
-        <v>206</v>
-      </c>
-      <c r="C62" s="32" t="s">
-        <v>207</v>
-      </c>
-      <c r="D62" s="9"/>
-      <c r="E62" s="3"/>
-      <c r="F62" s="3"/>
-      <c r="G62" s="9"/>
+      <c r="B62" s="28" t="s">
+        <v>146</v>
+      </c>
+      <c r="C62" s="9">
+        <v>1</v>
+      </c>
+      <c r="D62" s="3">
+        <v>0</v>
+      </c>
+      <c r="E62" s="3">
+        <v>1</v>
+      </c>
+      <c r="F62" s="9">
+        <v>1</v>
+      </c>
+      <c r="G62" s="3">
+        <v>6</v>
+      </c>
       <c r="H62" s="3">
-        <v>6</v>
-      </c>
-      <c r="I62" s="3">
-        <v>0</v>
-      </c>
-      <c r="J62" s="5"/>
-      <c r="K62" s="9"/>
-      <c r="L62" s="3">
         <v>1</v>
       </c>
+      <c r="I62" s="5"/>
+      <c r="J62" s="9"/>
+      <c r="K62" s="3">
+        <v>22</v>
+      </c>
+      <c r="L62" s="5"/>
       <c r="M62" s="5"/>
-      <c r="N62" s="28"/>
-      <c r="O62" s="28"/>
-      <c r="P62" s="5"/>
+      <c r="N62" s="5">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="O62" s="5">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="P62" s="9">
+        <v>22</v>
+      </c>
       <c r="Q62" s="5"/>
-      <c r="R62" s="5"/>
+      <c r="R62" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>,3,7,22</v>
+      </c>
       <c r="S62" s="5"/>
       <c r="T62" s="5"/>
       <c r="U62" s="5"/>
@@ -39679,37 +40176,53 @@
       <c r="Z62" s="5"/>
       <c r="AA62" s="5"/>
       <c r="AB62" s="5"/>
-      <c r="AC62" s="5"/>
-      <c r="AD62" s="5"/>
-      <c r="AE62" s="5"/>
-    </row>
-    <row r="63" spans="1:31" ht="19.5">
+    </row>
+    <row r="63" spans="1:28" ht="19.5">
       <c r="A63" s="20"/>
-      <c r="B63" s="31" t="s">
-        <v>208</v>
-      </c>
-      <c r="C63" s="32" t="s">
-        <v>209</v>
-      </c>
-      <c r="D63" s="9"/>
-      <c r="E63" s="9"/>
-      <c r="F63" s="9"/>
-      <c r="G63" s="9"/>
+      <c r="B63" s="28" t="s">
+        <v>147</v>
+      </c>
+      <c r="C63" s="9">
+        <v>1</v>
+      </c>
+      <c r="D63" s="9">
+        <v>0</v>
+      </c>
+      <c r="E63" s="9">
+        <v>1</v>
+      </c>
+      <c r="F63" s="9">
+        <v>1</v>
+      </c>
+      <c r="G63" s="3">
+        <v>6</v>
+      </c>
       <c r="H63" s="3">
-        <v>6</v>
-      </c>
-      <c r="I63" s="3">
-        <v>0</v>
-      </c>
-      <c r="J63" s="5"/>
-      <c r="K63" s="9"/>
-      <c r="L63" s="9"/>
+        <v>1</v>
+      </c>
+      <c r="I63" s="5"/>
+      <c r="J63" s="9"/>
+      <c r="K63" s="9">
+        <v>1</v>
+      </c>
+      <c r="L63" s="5"/>
       <c r="M63" s="5"/>
-      <c r="N63" s="28"/>
-      <c r="O63" s="28"/>
-      <c r="P63" s="5"/>
+      <c r="N63" s="5">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="O63" s="5">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="P63" s="9">
+        <v>1</v>
+      </c>
       <c r="Q63" s="5"/>
-      <c r="R63" s="5"/>
+      <c r="R63" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>,3,7,1</v>
+      </c>
       <c r="S63" s="5"/>
       <c r="T63" s="5"/>
       <c r="U63" s="5"/>
@@ -39720,37 +40233,53 @@
       <c r="Z63" s="5"/>
       <c r="AA63" s="5"/>
       <c r="AB63" s="5"/>
-      <c r="AC63" s="5"/>
-      <c r="AD63" s="5"/>
-      <c r="AE63" s="5"/>
-    </row>
-    <row r="64" spans="1:31" ht="19.5">
+    </row>
+    <row r="64" spans="1:28" ht="19.5">
       <c r="A64" s="20"/>
-      <c r="B64" s="31" t="s">
-        <v>210</v>
-      </c>
-      <c r="C64" s="32" t="s">
-        <v>211</v>
-      </c>
-      <c r="D64" s="9"/>
-      <c r="E64" s="3"/>
-      <c r="F64" s="3"/>
-      <c r="G64" s="9"/>
+      <c r="B64" s="28" t="s">
+        <v>148</v>
+      </c>
+      <c r="C64" s="9">
+        <v>1</v>
+      </c>
+      <c r="D64" s="3">
+        <v>0</v>
+      </c>
+      <c r="E64" s="3">
+        <v>1</v>
+      </c>
+      <c r="F64" s="9">
+        <v>1</v>
+      </c>
+      <c r="G64" s="3">
+        <v>5</v>
+      </c>
       <c r="H64" s="3">
-        <v>5</v>
-      </c>
-      <c r="I64" s="3">
-        <v>0</v>
-      </c>
-      <c r="J64" s="5"/>
-      <c r="K64" s="9"/>
-      <c r="L64" s="3"/>
+        <v>1</v>
+      </c>
+      <c r="I64" s="5"/>
+      <c r="J64" s="9"/>
+      <c r="K64" s="3">
+        <v>1</v>
+      </c>
+      <c r="L64" s="5"/>
       <c r="M64" s="5"/>
-      <c r="N64" s="28"/>
-      <c r="O64" s="28"/>
-      <c r="P64" s="5"/>
+      <c r="N64" s="5">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="O64" s="5">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="P64" s="9">
+        <v>1</v>
+      </c>
       <c r="Q64" s="5"/>
-      <c r="R64" s="5"/>
+      <c r="R64" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>,3,6,1</v>
+      </c>
       <c r="S64" s="5"/>
       <c r="T64" s="5"/>
       <c r="U64" s="5"/>
@@ -39761,37 +40290,53 @@
       <c r="Z64" s="5"/>
       <c r="AA64" s="5"/>
       <c r="AB64" s="5"/>
-      <c r="AC64" s="5"/>
-      <c r="AD64" s="5"/>
-      <c r="AE64" s="5"/>
-    </row>
-    <row r="65" spans="1:31" ht="19.5">
+    </row>
+    <row r="65" spans="1:28" ht="19.5">
       <c r="A65" s="20"/>
-      <c r="B65" s="31" t="s">
-        <v>212</v>
-      </c>
-      <c r="C65" s="32" t="s">
-        <v>213</v>
-      </c>
-      <c r="D65" s="9"/>
-      <c r="E65" s="3"/>
-      <c r="F65" s="3"/>
-      <c r="G65" s="9"/>
+      <c r="B65" s="28" t="s">
+        <v>149</v>
+      </c>
+      <c r="C65" s="9">
+        <v>1</v>
+      </c>
+      <c r="D65" s="3">
+        <v>0</v>
+      </c>
+      <c r="E65" s="3">
+        <v>1</v>
+      </c>
+      <c r="F65" s="9">
+        <v>1</v>
+      </c>
+      <c r="G65" s="3">
+        <v>7</v>
+      </c>
       <c r="H65" s="3">
-        <v>7</v>
-      </c>
-      <c r="I65" s="3">
-        <v>0</v>
-      </c>
-      <c r="J65" s="5"/>
-      <c r="K65" s="9"/>
-      <c r="L65" s="9"/>
+        <v>1</v>
+      </c>
+      <c r="I65" s="5"/>
+      <c r="J65" s="9"/>
+      <c r="K65" s="9">
+        <v>1</v>
+      </c>
+      <c r="L65" s="5"/>
       <c r="M65" s="5"/>
-      <c r="N65" s="28"/>
-      <c r="O65" s="28"/>
-      <c r="P65" s="5"/>
+      <c r="N65" s="5">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="O65" s="5">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="P65" s="9">
+        <v>1</v>
+      </c>
       <c r="Q65" s="5"/>
-      <c r="R65" s="5"/>
+      <c r="R65" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>,3,8,1</v>
+      </c>
       <c r="S65" s="5"/>
       <c r="T65" s="5"/>
       <c r="U65" s="5"/>
@@ -39802,37 +40347,53 @@
       <c r="Z65" s="5"/>
       <c r="AA65" s="5"/>
       <c r="AB65" s="5"/>
-      <c r="AC65" s="5"/>
-      <c r="AD65" s="5"/>
-      <c r="AE65" s="5"/>
-    </row>
-    <row r="66" spans="1:31" ht="19.5">
+    </row>
+    <row r="66" spans="1:28" ht="19.5">
       <c r="A66" s="20"/>
-      <c r="B66" s="31" t="s">
-        <v>214</v>
-      </c>
-      <c r="C66" s="32" t="s">
-        <v>215</v>
-      </c>
-      <c r="D66" s="9"/>
-      <c r="E66" s="3"/>
-      <c r="F66" s="3"/>
-      <c r="G66" s="9"/>
+      <c r="B66" s="28" t="s">
+        <v>150</v>
+      </c>
+      <c r="C66" s="9">
+        <v>1</v>
+      </c>
+      <c r="D66" s="3">
+        <v>0</v>
+      </c>
+      <c r="E66" s="3">
+        <v>1</v>
+      </c>
+      <c r="F66" s="9">
+        <v>1</v>
+      </c>
+      <c r="G66" s="3">
+        <v>1</v>
+      </c>
       <c r="H66" s="3">
         <v>1</v>
       </c>
-      <c r="I66" s="3">
-        <v>0</v>
-      </c>
-      <c r="J66" s="5"/>
-      <c r="K66" s="9"/>
-      <c r="L66" s="9"/>
+      <c r="I66" s="5"/>
+      <c r="J66" s="9"/>
+      <c r="K66" s="9">
+        <v>1</v>
+      </c>
+      <c r="L66" s="5"/>
       <c r="M66" s="5"/>
-      <c r="N66" s="28"/>
-      <c r="O66" s="28"/>
-      <c r="P66" s="5"/>
+      <c r="N66" s="5">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="O66" s="5">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="P66" s="9">
+        <v>1</v>
+      </c>
       <c r="Q66" s="5"/>
-      <c r="R66" s="5"/>
+      <c r="R66" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>,3,2,1</v>
+      </c>
       <c r="S66" s="5"/>
       <c r="T66" s="5"/>
       <c r="U66" s="5"/>
@@ -39843,37 +40404,53 @@
       <c r="Z66" s="5"/>
       <c r="AA66" s="5"/>
       <c r="AB66" s="5"/>
-      <c r="AC66" s="5"/>
-      <c r="AD66" s="5"/>
-      <c r="AE66" s="5"/>
-    </row>
-    <row r="67" spans="1:31" ht="19.5">
+    </row>
+    <row r="67" spans="1:28" ht="19.5">
       <c r="A67" s="20"/>
-      <c r="B67" s="31" t="s">
-        <v>216</v>
-      </c>
-      <c r="C67" s="32" t="s">
-        <v>217</v>
-      </c>
-      <c r="D67" s="9"/>
-      <c r="E67" s="3"/>
-      <c r="F67" s="3"/>
-      <c r="G67" s="9"/>
+      <c r="B67" s="28" t="s">
+        <v>151</v>
+      </c>
+      <c r="C67" s="9">
+        <v>1</v>
+      </c>
+      <c r="D67" s="3">
+        <v>0</v>
+      </c>
+      <c r="E67" s="3">
+        <v>1</v>
+      </c>
+      <c r="F67" s="9">
+        <v>1</v>
+      </c>
+      <c r="G67" s="3">
+        <v>6</v>
+      </c>
       <c r="H67" s="3">
-        <v>6</v>
-      </c>
-      <c r="I67" s="3">
-        <v>0</v>
-      </c>
-      <c r="J67" s="5"/>
-      <c r="K67" s="9"/>
-      <c r="L67" s="3"/>
+        <v>1</v>
+      </c>
+      <c r="I67" s="5"/>
+      <c r="J67" s="9"/>
+      <c r="K67" s="3">
+        <v>1</v>
+      </c>
+      <c r="L67" s="5"/>
       <c r="M67" s="5"/>
-      <c r="N67" s="28"/>
-      <c r="O67" s="28"/>
-      <c r="P67" s="5"/>
+      <c r="N67" s="5">
+        <f t="shared" ref="N67:N82" si="3">SUM(C67,D67,E67,F67)</f>
+        <v>3</v>
+      </c>
+      <c r="O67" s="5">
+        <f t="shared" ref="O67:O82" si="4">SUM(G67,H67)</f>
+        <v>7</v>
+      </c>
+      <c r="P67" s="9">
+        <v>1</v>
+      </c>
       <c r="Q67" s="5"/>
-      <c r="R67" s="5"/>
+      <c r="R67" s="5" t="str">
+        <f t="shared" ref="R67:R82" si="5">CONCATENATE(M67,",",N67,",",O67,",",P67)</f>
+        <v>,3,7,1</v>
+      </c>
       <c r="S67" s="5"/>
       <c r="T67" s="5"/>
       <c r="U67" s="5"/>
@@ -39884,37 +40461,53 @@
       <c r="Z67" s="5"/>
       <c r="AA67" s="5"/>
       <c r="AB67" s="5"/>
-      <c r="AC67" s="5"/>
-      <c r="AD67" s="5"/>
-      <c r="AE67" s="5"/>
-    </row>
-    <row r="68" spans="1:31" ht="19.5">
+    </row>
+    <row r="68" spans="1:28" ht="19.5">
       <c r="A68" s="20"/>
-      <c r="B68" s="31" t="s">
-        <v>218</v>
-      </c>
-      <c r="C68" s="32" t="s">
-        <v>219</v>
-      </c>
-      <c r="D68" s="9"/>
-      <c r="E68" s="3"/>
-      <c r="F68" s="3"/>
-      <c r="G68" s="9"/>
+      <c r="B68" s="28" t="s">
+        <v>152</v>
+      </c>
+      <c r="C68" s="9">
+        <v>1</v>
+      </c>
+      <c r="D68" s="3">
+        <v>0</v>
+      </c>
+      <c r="E68" s="3">
+        <v>1</v>
+      </c>
+      <c r="F68" s="9">
+        <v>1</v>
+      </c>
+      <c r="G68" s="3">
+        <v>15</v>
+      </c>
       <c r="H68" s="3">
-        <v>15</v>
-      </c>
-      <c r="I68" s="3">
-        <v>0</v>
-      </c>
-      <c r="J68" s="5"/>
-      <c r="K68" s="9"/>
-      <c r="L68" s="3"/>
+        <v>1</v>
+      </c>
+      <c r="I68" s="5"/>
+      <c r="J68" s="9"/>
+      <c r="K68" s="3">
+        <v>1</v>
+      </c>
+      <c r="L68" s="5"/>
       <c r="M68" s="5"/>
-      <c r="N68" s="28"/>
-      <c r="O68" s="28"/>
-      <c r="P68" s="5"/>
+      <c r="N68" s="5">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="O68" s="5">
+        <f t="shared" si="4"/>
+        <v>16</v>
+      </c>
+      <c r="P68" s="9">
+        <v>1</v>
+      </c>
       <c r="Q68" s="5"/>
-      <c r="R68" s="5"/>
+      <c r="R68" s="5" t="str">
+        <f t="shared" si="5"/>
+        <v>,3,16,1</v>
+      </c>
       <c r="S68" s="5"/>
       <c r="T68" s="5"/>
       <c r="U68" s="5"/>
@@ -39925,37 +40518,53 @@
       <c r="Z68" s="5"/>
       <c r="AA68" s="5"/>
       <c r="AB68" s="5"/>
-      <c r="AC68" s="5"/>
-      <c r="AD68" s="5"/>
-      <c r="AE68" s="5"/>
-    </row>
-    <row r="69" spans="1:31" ht="19.5">
+    </row>
+    <row r="69" spans="1:28" ht="19.5">
       <c r="A69" s="20"/>
-      <c r="B69" s="31" t="s">
-        <v>220</v>
-      </c>
-      <c r="C69" s="32" t="s">
-        <v>221</v>
-      </c>
-      <c r="D69" s="9"/>
-      <c r="E69" s="3"/>
-      <c r="F69" s="3"/>
-      <c r="G69" s="9"/>
+      <c r="B69" s="28" t="s">
+        <v>153</v>
+      </c>
+      <c r="C69" s="9">
+        <v>1</v>
+      </c>
+      <c r="D69" s="3">
+        <v>0</v>
+      </c>
+      <c r="E69" s="3">
+        <v>1</v>
+      </c>
+      <c r="F69" s="9">
+        <v>1</v>
+      </c>
+      <c r="G69" s="3">
+        <v>8</v>
+      </c>
       <c r="H69" s="3">
-        <v>8</v>
-      </c>
-      <c r="I69" s="3">
-        <v>0</v>
-      </c>
-      <c r="J69" s="5"/>
-      <c r="K69" s="9"/>
-      <c r="L69" s="9"/>
+        <v>1</v>
+      </c>
+      <c r="I69" s="5"/>
+      <c r="J69" s="9"/>
+      <c r="K69" s="9">
+        <v>1</v>
+      </c>
+      <c r="L69" s="5"/>
       <c r="M69" s="5"/>
-      <c r="N69" s="28"/>
-      <c r="O69" s="28"/>
-      <c r="P69" s="5"/>
+      <c r="N69" s="5">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="O69" s="5">
+        <f t="shared" si="4"/>
+        <v>9</v>
+      </c>
+      <c r="P69" s="9">
+        <v>1</v>
+      </c>
       <c r="Q69" s="5"/>
-      <c r="R69" s="5"/>
+      <c r="R69" s="5" t="str">
+        <f t="shared" si="5"/>
+        <v>,3,9,1</v>
+      </c>
       <c r="S69" s="5"/>
       <c r="T69" s="5"/>
       <c r="U69" s="5"/>
@@ -39966,37 +40575,53 @@
       <c r="Z69" s="5"/>
       <c r="AA69" s="5"/>
       <c r="AB69" s="5"/>
-      <c r="AC69" s="5"/>
-      <c r="AD69" s="5"/>
-      <c r="AE69" s="5"/>
-    </row>
-    <row r="70" spans="1:31" ht="19.5">
+    </row>
+    <row r="70" spans="1:28" ht="19.5">
       <c r="A70" s="20"/>
-      <c r="B70" s="31" t="s">
-        <v>222</v>
-      </c>
-      <c r="C70" s="32" t="s">
-        <v>223</v>
-      </c>
-      <c r="D70" s="9"/>
-      <c r="E70" s="9"/>
-      <c r="F70" s="9"/>
-      <c r="G70" s="9"/>
+      <c r="B70" s="28" t="s">
+        <v>154</v>
+      </c>
+      <c r="C70" s="9">
+        <v>1</v>
+      </c>
+      <c r="D70" s="9">
+        <v>0</v>
+      </c>
+      <c r="E70" s="9">
+        <v>1</v>
+      </c>
+      <c r="F70" s="9">
+        <v>1</v>
+      </c>
+      <c r="G70" s="3">
+        <v>6</v>
+      </c>
       <c r="H70" s="3">
-        <v>6</v>
-      </c>
-      <c r="I70" s="3">
-        <v>0</v>
-      </c>
-      <c r="J70" s="5"/>
-      <c r="K70" s="9"/>
-      <c r="L70" s="9"/>
+        <v>1</v>
+      </c>
+      <c r="I70" s="5"/>
+      <c r="J70" s="9"/>
+      <c r="K70" s="9">
+        <v>1</v>
+      </c>
+      <c r="L70" s="5"/>
       <c r="M70" s="5"/>
-      <c r="N70" s="28"/>
-      <c r="O70" s="28"/>
-      <c r="P70" s="5"/>
+      <c r="N70" s="5">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="O70" s="5">
+        <f t="shared" si="4"/>
+        <v>7</v>
+      </c>
+      <c r="P70" s="9">
+        <v>1</v>
+      </c>
       <c r="Q70" s="5"/>
-      <c r="R70" s="5"/>
+      <c r="R70" s="5" t="str">
+        <f t="shared" si="5"/>
+        <v>,3,7,1</v>
+      </c>
       <c r="S70" s="5"/>
       <c r="T70" s="5"/>
       <c r="U70" s="5"/>
@@ -40007,37 +40632,53 @@
       <c r="Z70" s="5"/>
       <c r="AA70" s="5"/>
       <c r="AB70" s="5"/>
-      <c r="AC70" s="5"/>
-      <c r="AD70" s="5"/>
-      <c r="AE70" s="5"/>
-    </row>
-    <row r="71" spans="1:31" ht="19.5">
+    </row>
+    <row r="71" spans="1:28" ht="19.5">
       <c r="A71" s="20"/>
-      <c r="B71" s="31" t="s">
-        <v>224</v>
-      </c>
-      <c r="C71" s="32" t="s">
-        <v>225</v>
-      </c>
-      <c r="D71" s="9"/>
-      <c r="E71" s="3"/>
-      <c r="F71" s="3"/>
-      <c r="G71" s="9"/>
+      <c r="B71" s="28" t="s">
+        <v>155</v>
+      </c>
+      <c r="C71" s="9">
+        <v>1</v>
+      </c>
+      <c r="D71" s="3">
+        <v>0</v>
+      </c>
+      <c r="E71" s="3">
+        <v>1</v>
+      </c>
+      <c r="F71" s="9">
+        <v>1</v>
+      </c>
+      <c r="G71" s="3">
+        <v>7</v>
+      </c>
       <c r="H71" s="3">
-        <v>7</v>
-      </c>
-      <c r="I71" s="3">
-        <v>0</v>
-      </c>
-      <c r="J71" s="5"/>
-      <c r="K71" s="9"/>
-      <c r="L71" s="9"/>
+        <v>1</v>
+      </c>
+      <c r="I71" s="5"/>
+      <c r="J71" s="9"/>
+      <c r="K71" s="9">
+        <v>1</v>
+      </c>
+      <c r="L71" s="5"/>
       <c r="M71" s="5"/>
-      <c r="N71" s="28"/>
-      <c r="O71" s="28"/>
-      <c r="P71" s="5"/>
+      <c r="N71" s="5">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="O71" s="5">
+        <f t="shared" si="4"/>
+        <v>8</v>
+      </c>
+      <c r="P71" s="9">
+        <v>1</v>
+      </c>
       <c r="Q71" s="5"/>
-      <c r="R71" s="5"/>
+      <c r="R71" s="5" t="str">
+        <f t="shared" si="5"/>
+        <v>,3,8,1</v>
+      </c>
       <c r="S71" s="5"/>
       <c r="T71" s="5"/>
       <c r="U71" s="5"/>
@@ -40048,37 +40689,53 @@
       <c r="Z71" s="5"/>
       <c r="AA71" s="5"/>
       <c r="AB71" s="5"/>
-      <c r="AC71" s="5"/>
-      <c r="AD71" s="5"/>
-      <c r="AE71" s="5"/>
-    </row>
-    <row r="72" spans="1:31" ht="19.5">
+    </row>
+    <row r="72" spans="1:28" ht="19.5">
       <c r="A72" s="20"/>
-      <c r="B72" s="31" t="s">
-        <v>226</v>
-      </c>
-      <c r="C72" s="32" t="s">
-        <v>227</v>
-      </c>
-      <c r="D72" s="9"/>
-      <c r="E72" s="3"/>
-      <c r="F72" s="3"/>
-      <c r="G72" s="9"/>
+      <c r="B72" s="28" t="s">
+        <v>156</v>
+      </c>
+      <c r="C72" s="9">
+        <v>1</v>
+      </c>
+      <c r="D72" s="3">
+        <v>0</v>
+      </c>
+      <c r="E72" s="3">
+        <v>1</v>
+      </c>
+      <c r="F72" s="9">
+        <v>1</v>
+      </c>
+      <c r="G72" s="3">
+        <v>9</v>
+      </c>
       <c r="H72" s="3">
-        <v>9</v>
-      </c>
-      <c r="I72" s="3">
-        <v>0</v>
-      </c>
-      <c r="J72" s="5"/>
-      <c r="K72" s="9"/>
-      <c r="L72" s="9"/>
+        <v>1</v>
+      </c>
+      <c r="I72" s="5"/>
+      <c r="J72" s="9"/>
+      <c r="K72" s="9">
+        <v>1</v>
+      </c>
+      <c r="L72" s="5"/>
       <c r="M72" s="5"/>
-      <c r="N72" s="28"/>
-      <c r="O72" s="28"/>
-      <c r="P72" s="5"/>
+      <c r="N72" s="5">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="O72" s="5">
+        <f t="shared" si="4"/>
+        <v>10</v>
+      </c>
+      <c r="P72" s="9">
+        <v>1</v>
+      </c>
       <c r="Q72" s="5"/>
-      <c r="R72" s="5"/>
+      <c r="R72" s="5" t="str">
+        <f t="shared" si="5"/>
+        <v>,3,10,1</v>
+      </c>
       <c r="S72" s="5"/>
       <c r="T72" s="5"/>
       <c r="U72" s="5"/>
@@ -40089,37 +40746,53 @@
       <c r="Z72" s="5"/>
       <c r="AA72" s="5"/>
       <c r="AB72" s="5"/>
-      <c r="AC72" s="5"/>
-      <c r="AD72" s="5"/>
-      <c r="AE72" s="5"/>
-    </row>
-    <row r="73" spans="1:31" ht="19.5">
+    </row>
+    <row r="73" spans="1:28" ht="19.5">
       <c r="A73" s="20"/>
-      <c r="B73" s="31" t="s">
-        <v>228</v>
-      </c>
-      <c r="C73" s="32" t="s">
-        <v>229</v>
-      </c>
-      <c r="D73" s="9"/>
-      <c r="E73" s="3"/>
-      <c r="F73" s="3"/>
-      <c r="G73" s="9"/>
+      <c r="B73" s="28" t="s">
+        <v>157</v>
+      </c>
+      <c r="C73" s="9">
+        <v>1</v>
+      </c>
+      <c r="D73" s="3">
+        <v>0</v>
+      </c>
+      <c r="E73" s="3">
+        <v>1</v>
+      </c>
+      <c r="F73" s="9">
+        <v>1</v>
+      </c>
+      <c r="G73" s="3">
+        <v>1</v>
+      </c>
       <c r="H73" s="3">
         <v>1</v>
       </c>
-      <c r="I73" s="3">
-        <v>0</v>
-      </c>
-      <c r="J73" s="5"/>
-      <c r="K73" s="9"/>
-      <c r="L73" s="3"/>
+      <c r="I73" s="5"/>
+      <c r="J73" s="9"/>
+      <c r="K73" s="3">
+        <v>1</v>
+      </c>
+      <c r="L73" s="5"/>
       <c r="M73" s="5"/>
-      <c r="N73" s="28"/>
-      <c r="O73" s="28"/>
-      <c r="P73" s="5"/>
+      <c r="N73" s="5">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="O73" s="5">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="P73" s="9">
+        <v>1</v>
+      </c>
       <c r="Q73" s="5"/>
-      <c r="R73" s="5"/>
+      <c r="R73" s="5" t="str">
+        <f t="shared" si="5"/>
+        <v>,3,2,1</v>
+      </c>
       <c r="S73" s="5"/>
       <c r="T73" s="5"/>
       <c r="U73" s="5"/>
@@ -40130,37 +40803,53 @@
       <c r="Z73" s="5"/>
       <c r="AA73" s="5"/>
       <c r="AB73" s="5"/>
-      <c r="AC73" s="5"/>
-      <c r="AD73" s="5"/>
-      <c r="AE73" s="5"/>
-    </row>
-    <row r="74" spans="1:31" ht="19.5">
+    </row>
+    <row r="74" spans="1:28" ht="19.5">
       <c r="A74" s="20"/>
-      <c r="B74" s="31" t="s">
-        <v>230</v>
-      </c>
-      <c r="C74" s="32" t="s">
-        <v>231</v>
-      </c>
-      <c r="D74" s="9"/>
-      <c r="E74" s="3"/>
-      <c r="F74" s="3"/>
-      <c r="G74" s="9"/>
+      <c r="B74" s="28" t="s">
+        <v>158</v>
+      </c>
+      <c r="C74" s="9">
+        <v>1</v>
+      </c>
+      <c r="D74" s="3">
+        <v>0</v>
+      </c>
+      <c r="E74" s="3">
+        <v>1</v>
+      </c>
+      <c r="F74" s="9">
+        <v>1</v>
+      </c>
+      <c r="G74" s="3">
+        <v>18</v>
+      </c>
       <c r="H74" s="3">
-        <v>18</v>
-      </c>
-      <c r="I74" s="3">
-        <v>0</v>
-      </c>
-      <c r="J74" s="5"/>
-      <c r="K74" s="9"/>
-      <c r="L74" s="9"/>
+        <v>1</v>
+      </c>
+      <c r="I74" s="5"/>
+      <c r="J74" s="9"/>
+      <c r="K74" s="9">
+        <v>1</v>
+      </c>
+      <c r="L74" s="5"/>
       <c r="M74" s="5"/>
-      <c r="N74" s="28"/>
-      <c r="O74" s="28"/>
-      <c r="P74" s="5"/>
+      <c r="N74" s="5">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="O74" s="5">
+        <f t="shared" si="4"/>
+        <v>19</v>
+      </c>
+      <c r="P74" s="9">
+        <v>1</v>
+      </c>
       <c r="Q74" s="5"/>
-      <c r="R74" s="5"/>
+      <c r="R74" s="5" t="str">
+        <f t="shared" si="5"/>
+        <v>,3,19,1</v>
+      </c>
       <c r="S74" s="5"/>
       <c r="T74" s="5"/>
       <c r="U74" s="5"/>
@@ -40171,37 +40860,53 @@
       <c r="Z74" s="5"/>
       <c r="AA74" s="5"/>
       <c r="AB74" s="5"/>
-      <c r="AC74" s="5"/>
-      <c r="AD74" s="5"/>
-      <c r="AE74" s="5"/>
-    </row>
-    <row r="75" spans="1:31" ht="19.5">
+    </row>
+    <row r="75" spans="1:28" ht="19.5">
       <c r="A75" s="20"/>
-      <c r="B75" s="31" t="s">
-        <v>232</v>
-      </c>
-      <c r="C75" s="33" t="s">
-        <v>233</v>
-      </c>
-      <c r="D75" s="9"/>
-      <c r="E75" s="3"/>
-      <c r="F75" s="3"/>
-      <c r="G75" s="9"/>
+      <c r="B75" s="28" t="s">
+        <v>159</v>
+      </c>
+      <c r="C75" s="9">
+        <v>1</v>
+      </c>
+      <c r="D75" s="3">
+        <v>0</v>
+      </c>
+      <c r="E75" s="3">
+        <v>1</v>
+      </c>
+      <c r="F75" s="9">
+        <v>1</v>
+      </c>
+      <c r="G75" s="3">
+        <v>5</v>
+      </c>
       <c r="H75" s="3">
-        <v>5</v>
-      </c>
-      <c r="I75" s="3">
-        <v>0</v>
-      </c>
-      <c r="J75" s="5"/>
-      <c r="K75" s="9"/>
-      <c r="L75" s="9"/>
+        <v>1</v>
+      </c>
+      <c r="I75" s="5"/>
+      <c r="J75" s="9"/>
+      <c r="K75" s="9">
+        <v>1</v>
+      </c>
+      <c r="L75" s="5"/>
       <c r="M75" s="5"/>
-      <c r="N75" s="28"/>
-      <c r="O75" s="28"/>
-      <c r="P75" s="5"/>
+      <c r="N75" s="5">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="O75" s="5">
+        <f t="shared" si="4"/>
+        <v>6</v>
+      </c>
+      <c r="P75" s="9">
+        <v>1</v>
+      </c>
       <c r="Q75" s="5"/>
-      <c r="R75" s="5"/>
+      <c r="R75" s="5" t="str">
+        <f t="shared" si="5"/>
+        <v>,3,6,1</v>
+      </c>
       <c r="S75" s="5"/>
       <c r="T75" s="5"/>
       <c r="U75" s="5"/>
@@ -40212,37 +40917,53 @@
       <c r="Z75" s="5"/>
       <c r="AA75" s="5"/>
       <c r="AB75" s="5"/>
-      <c r="AC75" s="5"/>
-      <c r="AD75" s="5"/>
-      <c r="AE75" s="5"/>
-    </row>
-    <row r="76" spans="1:31" ht="19.5">
+    </row>
+    <row r="76" spans="1:28" ht="19.5">
       <c r="A76" s="20"/>
-      <c r="B76" s="31" t="s">
-        <v>234</v>
-      </c>
-      <c r="C76" s="32" t="s">
-        <v>235</v>
-      </c>
-      <c r="D76" s="9"/>
-      <c r="E76" s="3"/>
-      <c r="F76" s="3"/>
-      <c r="G76" s="9"/>
+      <c r="B76" s="28" t="s">
+        <v>160</v>
+      </c>
+      <c r="C76" s="9">
+        <v>1</v>
+      </c>
+      <c r="D76" s="3">
+        <v>0</v>
+      </c>
+      <c r="E76" s="3">
+        <v>1</v>
+      </c>
+      <c r="F76" s="9">
+        <v>1</v>
+      </c>
+      <c r="G76" s="3">
+        <v>12</v>
+      </c>
       <c r="H76" s="3">
-        <v>12</v>
-      </c>
-      <c r="I76" s="3">
-        <v>0</v>
-      </c>
-      <c r="J76" s="5"/>
-      <c r="K76" s="9"/>
-      <c r="L76" s="9"/>
+        <v>1</v>
+      </c>
+      <c r="I76" s="5"/>
+      <c r="J76" s="9"/>
+      <c r="K76" s="9">
+        <v>1</v>
+      </c>
+      <c r="L76" s="5"/>
       <c r="M76" s="5"/>
-      <c r="N76" s="28"/>
-      <c r="O76" s="28"/>
-      <c r="P76" s="5"/>
+      <c r="N76" s="5">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="O76" s="5">
+        <f t="shared" si="4"/>
+        <v>13</v>
+      </c>
+      <c r="P76" s="9">
+        <v>1</v>
+      </c>
       <c r="Q76" s="5"/>
-      <c r="R76" s="5"/>
+      <c r="R76" s="5" t="str">
+        <f t="shared" si="5"/>
+        <v>,3,13,1</v>
+      </c>
       <c r="S76" s="5"/>
       <c r="T76" s="5"/>
       <c r="U76" s="5"/>
@@ -40253,37 +40974,53 @@
       <c r="Z76" s="5"/>
       <c r="AA76" s="5"/>
       <c r="AB76" s="5"/>
-      <c r="AC76" s="5"/>
-      <c r="AD76" s="5"/>
-      <c r="AE76" s="5"/>
-    </row>
-    <row r="77" spans="1:31" ht="19.5">
+    </row>
+    <row r="77" spans="1:28" ht="19.5">
       <c r="A77" s="20"/>
-      <c r="B77" s="31" t="s">
-        <v>236</v>
-      </c>
-      <c r="C77" s="32" t="s">
-        <v>237</v>
-      </c>
-      <c r="D77" s="9"/>
-      <c r="E77" s="9"/>
-      <c r="F77" s="9"/>
-      <c r="G77" s="9"/>
+      <c r="B77" s="28" t="s">
+        <v>161</v>
+      </c>
+      <c r="C77" s="9">
+        <v>1</v>
+      </c>
+      <c r="D77" s="9">
+        <v>0</v>
+      </c>
+      <c r="E77" s="9">
+        <v>1</v>
+      </c>
+      <c r="F77" s="9">
+        <v>1</v>
+      </c>
+      <c r="G77" s="3">
+        <v>6</v>
+      </c>
       <c r="H77" s="3">
-        <v>6</v>
-      </c>
-      <c r="I77" s="3">
-        <v>0</v>
-      </c>
-      <c r="J77" s="5"/>
-      <c r="K77" s="9"/>
-      <c r="L77" s="9"/>
+        <v>1</v>
+      </c>
+      <c r="I77" s="5"/>
+      <c r="J77" s="9"/>
+      <c r="K77" s="9">
+        <v>1</v>
+      </c>
+      <c r="L77" s="5"/>
       <c r="M77" s="5"/>
-      <c r="N77" s="28"/>
-      <c r="O77" s="28"/>
-      <c r="P77" s="5"/>
+      <c r="N77" s="5">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="O77" s="5">
+        <f t="shared" si="4"/>
+        <v>7</v>
+      </c>
+      <c r="P77" s="9">
+        <v>1</v>
+      </c>
       <c r="Q77" s="5"/>
-      <c r="R77" s="5"/>
+      <c r="R77" s="5" t="str">
+        <f t="shared" si="5"/>
+        <v>,3,7,1</v>
+      </c>
       <c r="S77" s="5"/>
       <c r="T77" s="5"/>
       <c r="U77" s="5"/>
@@ -40294,37 +41031,53 @@
       <c r="Z77" s="5"/>
       <c r="AA77" s="5"/>
       <c r="AB77" s="5"/>
-      <c r="AC77" s="5"/>
-      <c r="AD77" s="5"/>
-      <c r="AE77" s="5"/>
-    </row>
-    <row r="78" spans="1:31" ht="19.5">
+    </row>
+    <row r="78" spans="1:28" ht="19.5">
       <c r="A78" s="20"/>
-      <c r="B78" s="31" t="s">
-        <v>238</v>
-      </c>
-      <c r="C78" s="32" t="s">
-        <v>239</v>
-      </c>
-      <c r="D78" s="9"/>
-      <c r="E78" s="3"/>
-      <c r="F78" s="3"/>
-      <c r="G78" s="9"/>
+      <c r="B78" s="28" t="s">
+        <v>162</v>
+      </c>
+      <c r="C78" s="9">
+        <v>1</v>
+      </c>
+      <c r="D78" s="3">
+        <v>0</v>
+      </c>
+      <c r="E78" s="3">
+        <v>1</v>
+      </c>
+      <c r="F78" s="9">
+        <v>1</v>
+      </c>
+      <c r="G78" s="3">
+        <v>11</v>
+      </c>
       <c r="H78" s="3">
-        <v>11</v>
-      </c>
-      <c r="I78" s="3">
-        <v>0</v>
-      </c>
-      <c r="J78" s="5"/>
-      <c r="K78" s="9"/>
-      <c r="L78" s="9"/>
+        <v>1</v>
+      </c>
+      <c r="I78" s="5"/>
+      <c r="J78" s="9"/>
+      <c r="K78" s="9">
+        <v>1</v>
+      </c>
+      <c r="L78" s="5"/>
       <c r="M78" s="5"/>
-      <c r="N78" s="28"/>
-      <c r="O78" s="28"/>
-      <c r="P78" s="5"/>
+      <c r="N78" s="5">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="O78" s="5">
+        <f t="shared" si="4"/>
+        <v>12</v>
+      </c>
+      <c r="P78" s="9">
+        <v>1</v>
+      </c>
       <c r="Q78" s="5"/>
-      <c r="R78" s="5"/>
+      <c r="R78" s="5" t="str">
+        <f t="shared" si="5"/>
+        <v>,3,12,1</v>
+      </c>
       <c r="S78" s="5"/>
       <c r="T78" s="5"/>
       <c r="U78" s="5"/>
@@ -40335,37 +41088,53 @@
       <c r="Z78" s="5"/>
       <c r="AA78" s="5"/>
       <c r="AB78" s="5"/>
-      <c r="AC78" s="5"/>
-      <c r="AD78" s="5"/>
-      <c r="AE78" s="5"/>
-    </row>
-    <row r="79" spans="1:31" ht="19.5">
+    </row>
+    <row r="79" spans="1:28" ht="19.5">
       <c r="A79" s="20"/>
-      <c r="B79" s="31" t="s">
-        <v>240</v>
-      </c>
-      <c r="C79" s="32" t="s">
-        <v>241</v>
-      </c>
-      <c r="D79" s="3"/>
-      <c r="E79" s="9"/>
-      <c r="F79" s="9"/>
-      <c r="G79" s="9"/>
+      <c r="B79" s="28" t="s">
+        <v>163</v>
+      </c>
+      <c r="C79" s="3">
+        <v>1</v>
+      </c>
+      <c r="D79" s="9">
+        <v>0</v>
+      </c>
+      <c r="E79" s="9">
+        <v>1</v>
+      </c>
+      <c r="F79" s="9">
+        <v>1</v>
+      </c>
+      <c r="G79" s="3">
+        <v>5</v>
+      </c>
       <c r="H79" s="3">
-        <v>5</v>
-      </c>
-      <c r="I79" s="3">
-        <v>0</v>
-      </c>
-      <c r="J79" s="5"/>
-      <c r="K79" s="9"/>
-      <c r="L79" s="9"/>
+        <v>1</v>
+      </c>
+      <c r="I79" s="5"/>
+      <c r="J79" s="9"/>
+      <c r="K79" s="9">
+        <v>1</v>
+      </c>
+      <c r="L79" s="5"/>
       <c r="M79" s="5"/>
-      <c r="N79" s="28"/>
-      <c r="O79" s="28"/>
-      <c r="P79" s="5"/>
+      <c r="N79" s="5">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="O79" s="5">
+        <f t="shared" si="4"/>
+        <v>6</v>
+      </c>
+      <c r="P79" s="9">
+        <v>1</v>
+      </c>
       <c r="Q79" s="5"/>
-      <c r="R79" s="5"/>
+      <c r="R79" s="5" t="str">
+        <f t="shared" si="5"/>
+        <v>,3,6,1</v>
+      </c>
       <c r="S79" s="5"/>
       <c r="T79" s="5"/>
       <c r="U79" s="5"/>
@@ -40376,37 +41145,53 @@
       <c r="Z79" s="5"/>
       <c r="AA79" s="5"/>
       <c r="AB79" s="5"/>
-      <c r="AC79" s="5"/>
-      <c r="AD79" s="5"/>
-      <c r="AE79" s="5"/>
-    </row>
-    <row r="80" spans="1:31" ht="19.5">
+    </row>
+    <row r="80" spans="1:28" ht="19.5">
       <c r="A80" s="20"/>
-      <c r="B80" s="31" t="s">
-        <v>242</v>
-      </c>
-      <c r="C80" s="32" t="s">
-        <v>243</v>
-      </c>
-      <c r="D80" s="9"/>
-      <c r="E80" s="9"/>
-      <c r="F80" s="9"/>
-      <c r="G80" s="9"/>
+      <c r="B80" s="28" t="s">
+        <v>164</v>
+      </c>
+      <c r="C80" s="9">
+        <v>1</v>
+      </c>
+      <c r="D80" s="9">
+        <v>0</v>
+      </c>
+      <c r="E80" s="9">
+        <v>1</v>
+      </c>
+      <c r="F80" s="9">
+        <v>1</v>
+      </c>
+      <c r="G80" s="3">
+        <v>14</v>
+      </c>
       <c r="H80" s="3">
-        <v>14</v>
-      </c>
-      <c r="I80" s="3">
-        <v>0</v>
-      </c>
-      <c r="J80" s="5"/>
-      <c r="K80" s="9"/>
-      <c r="L80" s="9"/>
+        <v>1</v>
+      </c>
+      <c r="I80" s="5"/>
+      <c r="J80" s="9"/>
+      <c r="K80" s="9">
+        <v>1</v>
+      </c>
+      <c r="L80" s="5"/>
       <c r="M80" s="5"/>
-      <c r="N80" s="28"/>
-      <c r="O80" s="28"/>
-      <c r="P80" s="5"/>
+      <c r="N80" s="5">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="O80" s="5">
+        <f t="shared" si="4"/>
+        <v>15</v>
+      </c>
+      <c r="P80" s="9">
+        <v>1</v>
+      </c>
       <c r="Q80" s="5"/>
-      <c r="R80" s="5"/>
+      <c r="R80" s="5" t="str">
+        <f t="shared" si="5"/>
+        <v>,3,15,1</v>
+      </c>
       <c r="S80" s="5"/>
       <c r="T80" s="5"/>
       <c r="U80" s="5"/>
@@ -40417,37 +41202,53 @@
       <c r="Z80" s="5"/>
       <c r="AA80" s="5"/>
       <c r="AB80" s="5"/>
-      <c r="AC80" s="5"/>
-      <c r="AD80" s="5"/>
-      <c r="AE80" s="5"/>
     </row>
     <row r="81" spans="1:31" ht="19.5">
       <c r="A81" s="20"/>
-      <c r="B81" s="31" t="s">
-        <v>244</v>
-      </c>
-      <c r="C81" s="32" t="s">
-        <v>245</v>
-      </c>
-      <c r="D81" s="9"/>
-      <c r="E81" s="9"/>
-      <c r="F81" s="9"/>
-      <c r="G81" s="9"/>
+      <c r="B81" s="28" t="s">
+        <v>165</v>
+      </c>
+      <c r="C81" s="9">
+        <v>1</v>
+      </c>
+      <c r="D81" s="9">
+        <v>0</v>
+      </c>
+      <c r="E81" s="9">
+        <v>1</v>
+      </c>
+      <c r="F81" s="9">
+        <v>1</v>
+      </c>
+      <c r="G81" s="3">
+        <v>10</v>
+      </c>
       <c r="H81" s="3">
-        <v>10</v>
-      </c>
-      <c r="I81" s="3">
-        <v>0</v>
-      </c>
-      <c r="J81" s="5"/>
-      <c r="K81" s="9"/>
-      <c r="L81" s="9"/>
+        <v>1</v>
+      </c>
+      <c r="I81" s="5"/>
+      <c r="J81" s="9"/>
+      <c r="K81" s="9">
+        <v>1</v>
+      </c>
+      <c r="L81" s="5"/>
       <c r="M81" s="5"/>
-      <c r="N81" s="28"/>
-      <c r="O81" s="28"/>
-      <c r="P81" s="5"/>
+      <c r="N81" s="5">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="O81" s="5">
+        <f t="shared" si="4"/>
+        <v>11</v>
+      </c>
+      <c r="P81" s="9">
+        <v>1</v>
+      </c>
       <c r="Q81" s="5"/>
-      <c r="R81" s="5"/>
+      <c r="R81" s="5" t="str">
+        <f t="shared" si="5"/>
+        <v>,3,11,1</v>
+      </c>
       <c r="S81" s="5"/>
       <c r="T81" s="5"/>
       <c r="U81" s="5"/>
@@ -40458,37 +41259,53 @@
       <c r="Z81" s="5"/>
       <c r="AA81" s="5"/>
       <c r="AB81" s="5"/>
-      <c r="AC81" s="5"/>
-      <c r="AD81" s="5"/>
-      <c r="AE81" s="5"/>
     </row>
     <row r="82" spans="1:31" ht="19.5">
       <c r="A82" s="20"/>
-      <c r="B82" s="31" t="s">
-        <v>246</v>
-      </c>
-      <c r="C82" s="32" t="s">
-        <v>247</v>
-      </c>
-      <c r="D82" s="9"/>
-      <c r="E82" s="9"/>
-      <c r="F82" s="9"/>
-      <c r="G82" s="9"/>
+      <c r="B82" s="28" t="s">
+        <v>166</v>
+      </c>
+      <c r="C82" s="9">
+        <v>1</v>
+      </c>
+      <c r="D82" s="9">
+        <v>0</v>
+      </c>
+      <c r="E82" s="9">
+        <v>1</v>
+      </c>
+      <c r="F82" s="9">
+        <v>1</v>
+      </c>
+      <c r="G82" s="3">
+        <v>8</v>
+      </c>
       <c r="H82" s="3">
-        <v>8</v>
-      </c>
-      <c r="I82" s="3">
-        <v>0</v>
-      </c>
-      <c r="J82" s="5"/>
-      <c r="K82" s="9"/>
-      <c r="L82" s="9"/>
+        <v>1</v>
+      </c>
+      <c r="I82" s="5"/>
+      <c r="J82" s="9"/>
+      <c r="K82" s="9">
+        <v>1</v>
+      </c>
+      <c r="L82" s="5"/>
       <c r="M82" s="5"/>
-      <c r="N82" s="5"/>
-      <c r="O82" s="5"/>
-      <c r="P82" s="5"/>
+      <c r="N82" s="5">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="O82" s="5">
+        <f t="shared" si="4"/>
+        <v>9</v>
+      </c>
+      <c r="P82" s="9">
+        <v>1</v>
+      </c>
       <c r="Q82" s="5"/>
-      <c r="R82" s="5"/>
+      <c r="R82" s="5" t="str">
+        <f t="shared" si="5"/>
+        <v>,3,9,1</v>
+      </c>
       <c r="S82" s="5"/>
       <c r="T82" s="5"/>
       <c r="U82" s="5"/>
@@ -40499,9 +41316,6 @@
       <c r="Z82" s="5"/>
       <c r="AA82" s="5"/>
       <c r="AB82" s="5"/>
-      <c r="AC82" s="5"/>
-      <c r="AD82" s="5"/>
-      <c r="AE82" s="5"/>
     </row>
     <row r="83" spans="1:31" ht="19.5">
       <c r="A83" s="5"/>
@@ -70930,90 +71744,9 @@
       <c r="AE1004" s="5"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="19" type="noConversion"/>
-  <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1"/>
-    <hyperlink ref="C3" r:id="rId2"/>
-    <hyperlink ref="C4" r:id="rId3"/>
-    <hyperlink ref="C5" r:id="rId4"/>
-    <hyperlink ref="C6" r:id="rId5"/>
-    <hyperlink ref="C7" r:id="rId6"/>
-    <hyperlink ref="C8" r:id="rId7"/>
-    <hyperlink ref="C9" r:id="rId8"/>
-    <hyperlink ref="C10" r:id="rId9"/>
-    <hyperlink ref="C11" r:id="rId10"/>
-    <hyperlink ref="C12" r:id="rId11"/>
-    <hyperlink ref="C13" r:id="rId12"/>
-    <hyperlink ref="C14" r:id="rId13"/>
-    <hyperlink ref="C15" r:id="rId14"/>
-    <hyperlink ref="C16" r:id="rId15"/>
-    <hyperlink ref="C17" r:id="rId16"/>
-    <hyperlink ref="C19" r:id="rId17"/>
-    <hyperlink ref="C20" r:id="rId18"/>
-    <hyperlink ref="C21" r:id="rId19"/>
-    <hyperlink ref="C22" r:id="rId20"/>
-    <hyperlink ref="C23" r:id="rId21"/>
-    <hyperlink ref="C24" r:id="rId22"/>
-    <hyperlink ref="C25" r:id="rId23"/>
-    <hyperlink ref="C26" r:id="rId24"/>
-    <hyperlink ref="C27" r:id="rId25"/>
-    <hyperlink ref="C28" r:id="rId26"/>
-    <hyperlink ref="C29" r:id="rId27"/>
-    <hyperlink ref="C30" r:id="rId28"/>
-    <hyperlink ref="C31" r:id="rId29"/>
-    <hyperlink ref="C32" r:id="rId30"/>
-    <hyperlink ref="C33" r:id="rId31"/>
-    <hyperlink ref="C34" r:id="rId32"/>
-    <hyperlink ref="C35" r:id="rId33"/>
-    <hyperlink ref="C36" r:id="rId34"/>
-    <hyperlink ref="C37" r:id="rId35"/>
-    <hyperlink ref="C38" r:id="rId36"/>
-    <hyperlink ref="C39" r:id="rId37"/>
-    <hyperlink ref="C40" r:id="rId38"/>
-    <hyperlink ref="C41" r:id="rId39"/>
-    <hyperlink ref="C42" r:id="rId40"/>
-    <hyperlink ref="C43" r:id="rId41"/>
-    <hyperlink ref="C44" r:id="rId42"/>
-    <hyperlink ref="C45" r:id="rId43"/>
-    <hyperlink ref="C46" r:id="rId44"/>
-    <hyperlink ref="C47" r:id="rId45"/>
-    <hyperlink ref="C48" r:id="rId46"/>
-    <hyperlink ref="C49" r:id="rId47"/>
-    <hyperlink ref="C50" r:id="rId48"/>
-    <hyperlink ref="C51" r:id="rId49"/>
-    <hyperlink ref="C52" r:id="rId50"/>
-    <hyperlink ref="C53" r:id="rId51"/>
-    <hyperlink ref="C54" r:id="rId52"/>
-    <hyperlink ref="C55" r:id="rId53"/>
-    <hyperlink ref="C56" r:id="rId54"/>
-    <hyperlink ref="C57" r:id="rId55"/>
-    <hyperlink ref="C58" r:id="rId56"/>
-    <hyperlink ref="C59" r:id="rId57"/>
-    <hyperlink ref="C60" r:id="rId58"/>
-    <hyperlink ref="C61" r:id="rId59"/>
-    <hyperlink ref="C62" r:id="rId60"/>
-    <hyperlink ref="C63" r:id="rId61"/>
-    <hyperlink ref="C64" r:id="rId62"/>
-    <hyperlink ref="C65" r:id="rId63"/>
-    <hyperlink ref="C66" r:id="rId64"/>
-    <hyperlink ref="C67" r:id="rId65"/>
-    <hyperlink ref="C68" r:id="rId66"/>
-    <hyperlink ref="C69" r:id="rId67"/>
-    <hyperlink ref="C70" r:id="rId68"/>
-    <hyperlink ref="C71" r:id="rId69"/>
-    <hyperlink ref="C72" r:id="rId70"/>
-    <hyperlink ref="C73" r:id="rId71"/>
-    <hyperlink ref="C74" r:id="rId72"/>
-    <hyperlink ref="C75" r:id="rId73"/>
-    <hyperlink ref="C76" r:id="rId74"/>
-    <hyperlink ref="C77" r:id="rId75"/>
-    <hyperlink ref="C78" r:id="rId76"/>
-    <hyperlink ref="C79" r:id="rId77"/>
-    <hyperlink ref="C80" r:id="rId78"/>
-    <hyperlink ref="C81" r:id="rId79"/>
-    <hyperlink ref="C82" r:id="rId80"/>
-  </hyperlinks>
+  <phoneticPr fontId="13" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId81"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>